--- a/刷题简单归类和方法.xlsx
+++ b/刷题简单归类和方法.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/honglixu/Desktop/LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/honglixu/Documents/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>179. Largest Number</t>
   </si>
@@ -70,6 +70,25 @@
   </si>
   <si>
     <t>179. Largest Number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bucket Count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two Strings Are Anagrams</t>
+  </si>
+  <si>
+    <t>Two Strings Are Anagrams
+Compare Strings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare Strings</t>
+  </si>
+  <si>
+    <t>1. Bucket count</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -77,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,6 +133,16 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -158,6 +187,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -472,6 +506,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -480,10 +530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -516,6 +566,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:2" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/刷题简单归类和方法.xlsx
+++ b/刷题简单归类和方法.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="480" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>179. Largest Number</t>
   </si>
@@ -89,6 +89,157 @@
   </si>
   <si>
     <t>1. Bucket count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strStr</t>
+  </si>
+  <si>
+    <t>1. Two pointer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/strstr/</t>
+  </si>
+  <si>
+    <t>Two Pointer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hashmap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anagrams(http://www.lintcode.com/en/problem/anagrams)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anagrams</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. HashMap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/anagrams</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Common Substring</t>
+  </si>
+  <si>
+    <t>1. DP
+2. 连续的string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Common Substring(http://www.lintcode.com/en/problem/longest-common-substring)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/longest-common-substring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. String比较</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/longest-common-prefix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String to Integer II</t>
+  </si>
+  <si>
+    <t>1. String处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/string-to-integer-ii</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix(http://www.lintcode.com/en/problem/longest-common-prefix)
+String to Integer II(http://www.lintcode.com/en/problem/string-to-integer-ii)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>1. array处理
+2. Two pointer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/remove-element</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-array</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>1. Two pointer
+2. Merge sort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/merge-sorted-array</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strstr(http://www.lintcode.com/en/problem/strstr/)
+Remove Element(http://www.lintcode.com/en/problem/remove-element)
+Remove Duplicates from Sorted Array(http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-array)
+Merge Sorted Array(http://www.lintcode.com/en/problem/merge-sorted-array)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Sorted Array(http://www.lintcode.com/en/problem/merge-sorted-array)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product of Array Exclude Itself</t>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Array偏移计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/product-of-array-exclude-itself/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product of Array Exclude Itself(http://www.lintcode.com/en/problem/product-of-array-exclude-itself/)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,6 +295,15 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -162,10 +322,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -193,9 +354,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -470,35 +654,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" style="4" customWidth="1"/>
     <col min="2" max="2" width="63.83203125" customWidth="1"/>
+    <col min="3" max="3" width="75.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -506,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -514,7 +702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
@@ -522,24 +710,126 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.83203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="2" max="2" width="110.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -574,6 +864,54 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="157" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/刷题简单归类和方法.xlsx
+++ b/刷题简单归类和方法.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="480" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="130">
   <si>
     <t>179. Largest Number</t>
   </si>
@@ -220,10 +220,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Merge Sorted Array(http://www.lintcode.com/en/problem/merge-sorted-array)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Product of Array Exclude Itself</t>
   </si>
   <si>
@@ -239,7 +235,316 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Product of Array Exclude Itself(http://www.lintcode.com/en/problem/product-of-array-exclude-itself/)</t>
+    <t>http://www.lintcode.com/en/problem/first-missing-positive/</t>
+  </si>
+  <si>
+    <t>Index Exchange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Missing Positive(http://www.lintcode.com/en/problem/first-missing-positive/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Missing Positive</t>
+  </si>
+  <si>
+    <t>1. Array
+2. Index变换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/3sum/</t>
+  </si>
+  <si>
+    <t>1. Array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Sum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Sum Closest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/3sum-closest/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition Array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/partition-array/</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/merge-two-sorted-arrays/</t>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/merge-two-sorted-arrays/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Two Sorted Arrays</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Merge Sort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Sorted Array(http://www.lintcode.com/en/problem/merge-sorted-array)
+Merge Two Sorted Arrays(http://www.lintcode.com/en/problem/merge-two-sorted-arrays/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subarray Sum Closest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Subarry
+2. Index变换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product of Array Exclude Itself(http://www.lintcode.com/en/problem/product-of-array-exclude-itself/)
+First Missing Positive(http://www.lintcode.com/en/problem/first-missing-positive/)
+3Sum(http://www.lintcode.com/en/problem/3sum/)
+3Sum Closest(http://www.lintcode.com/en/problem/3sum-closest/)
+Partition Array(http://www.lintcode.com/en/problem/partition-array/)
+Remove Duplicates from Sorted Array II(http://www.lintcode.com/en/problem/merge-two-sorted-arrays/)
+Subarray Sum Closest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subarray</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/subarray-sum-closest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4Sum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Subarray</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subarray Sum Closest(http://www.lintcode.com/en/problem/subarray-sum-closest)
+4Sum(http://www.lintcode.com/en/problem/4sum/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/4sum/</t>
+  </si>
+  <si>
+    <t>Sqrt(x)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/sqrtx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/search-insert-position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/search-a-2d-matrix</t>
+  </si>
+  <si>
+    <t>First Position of Target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Search
+2. 找第一个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/first-position-of-target</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/find-peak-element</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Rotated
+2. Binary Search限定范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rotated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Bad Version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/first-bad-version</t>
+  </si>
+  <si>
+    <t>Wood Cut</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Search: 优化问题转可行性问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Search
+优化问题-&gt;可行性问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/wood-cut</t>
+  </si>
+  <si>
+    <t>Wood Cut(http://www.lintcode.com/en/problem/wood-cut)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search for a Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sqrt(x)(http://www.lintcode.com/en/problem/sqrtx)
+Search Insert Position(http://www.lintcode.com/en/problem/search-insert-position)
+Search a 2D Matrix(http://www.lintcode.com/en/problem/search-a-2d-matrix)
+First Position of Target(http://www.lintcode.com/en/problem/first-position-of-target)
+Find Peak Element(http://www.lintcode.com/en/problem/find-peak-element)
+Find Minimum in Rotated Sorted Array(http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array)
+First Bad Version(http://www.lintcode.com/en/problem/first-bad-version)
+Search for a Range(http://www.lintcode.com/en/problem/search-for-a-range/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/search-for-a-range/</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/search-in-rotated-sorted-array</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array-ii</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/search-in-rotated-sorted-array-ii/</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array(http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array)
+Search in Rotated Sorted Array (http://www.lintcode.com/en/problem/search-in-rotated-sorted-array)
+Find Minimum in Rotated Sorted Array II(http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array-ii)
+Search in Rotated Sorted Array II(http://www.lintcode.com/en/problem/search-in-rotated-sorted-array-ii/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>1. Matrix中移动缩小可选范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matrix移动缩小可选范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II(http://www.lintcode.com/en/problem/search-a-2d-matrix-ii/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/search-a-2d-matrix-ii/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flip Bits</t>
+  </si>
+  <si>
+    <t>1. Bit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/flip-bits/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(1) Check Power of 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flip Bits(http://www.lintcode.com/en/problem/flip-bits/): 获取每一位元素
+O(1) Check Power of 2(): n &amp; (n - 1)的妙用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trailing Zeros</t>
+  </si>
+  <si>
+    <t>1. Math</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/trailing-zeros/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trailing Zeros(http://www.lintcode.com/en/problem/trailing-zeros/)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -305,12 +610,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -326,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -376,6 +687,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -654,15 +996,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36" style="4" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="63.83203125" customWidth="1"/>
     <col min="3" max="3" width="75.5" customWidth="1"/>
   </cols>
@@ -800,13 +1142,277 @@
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
         <v>52</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+    </row>
+    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A54" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A62" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A64" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A66" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -820,15 +1426,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="40" style="6" customWidth="1"/>
     <col min="2" max="2" width="110.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -900,16 +1506,80 @@
       <c r="A16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>49</v>
+      <c r="B16" s="22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>54</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="182" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/刷题简单归类和方法.xlsx
+++ b/刷题简单归类和方法.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="188">
   <si>
     <t>179. Largest Number</t>
   </si>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>179. Largest Number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Bucket Count</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -139,10 +135,6 @@
   </si>
   <si>
     <t>DP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Longest Common Substring(http://www.lintcode.com/en/problem/longest-common-substring)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -310,16 +302,6 @@
   <si>
     <t>1. Subarry
 2. Index变换</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product of Array Exclude Itself(http://www.lintcode.com/en/problem/product-of-array-exclude-itself/)
-First Missing Positive(http://www.lintcode.com/en/problem/first-missing-positive/)
-3Sum(http://www.lintcode.com/en/problem/3sum/)
-3Sum Closest(http://www.lintcode.com/en/problem/3sum-closest/)
-Partition Array(http://www.lintcode.com/en/problem/partition-array/)
-Remove Duplicates from Sorted Array II(http://www.lintcode.com/en/problem/merge-two-sorted-arrays/)
-Subarray Sum Closest</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -524,27 +506,292 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Math</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trailing Zeros</t>
+  </si>
+  <si>
+    <t>1. Math</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/trailing-zeros/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update Bits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Bit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/update-bits/</t>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/o1-check-power-of-2/</t>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees</t>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/unique-binary-search-trees/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trailing Zeros(http://www.lintcode.com/en/problem/trailing-zeros/)
+Unique Binary Search Trees(http://www.lintcode.com/en/problem/unique-binary-search-trees/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Search Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Math
+2. Binary Search Tree，选取不同值作为root</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees(http://www.lintcode.com/en/problem/unique-binary-search-trees/): 选取不同值作为root计算数目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recursion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast Power</t>
+  </si>
+  <si>
+    <t>1. Recursion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/fast-power/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast Power(http://www.lintcode.com/en/problem/fast-power/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Representation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Bit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/binary-representation/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Bit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/single-number/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majority Number </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Array
+2. 投票算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投票算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/majority-number/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas Station</t>
+  </si>
+  <si>
+    <t>1. Array
+2. Greedy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greedy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/gas-station/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>179. Largest Number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete Digits</t>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/delete-digits/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Greedy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump Game</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/jump-game/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/next-permutation/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Greedy
+2. DP
+3. Array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Common Substring(http://www.lintcode.com/en/problem/longest-common-substring)
+Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas Station(http://www.lintcode.com/en/problem/gas-station/)
+179. Largest Number(http://www.lintcode.com/en/problem/largest-number/)
+Delete Digits(http://www.lintcode.com/en/problem/delete-digits/)
+Jump Game(http://www.lintcode.com/en/problem/jump-game/)
+Next Permutation(http://www.lintcode.com/en/problem/next-permutation/) 
+Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/jump-game-ii/</t>
+  </si>
+  <si>
+    <t>Single Number II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/single-number-ii/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Number III</t>
+  </si>
+  <si>
     <t>Flip Bits(http://www.lintcode.com/en/problem/flip-bits/): 获取每一位元素
-O(1) Check Power of 2(): n &amp; (n - 1)的妙用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Math</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trailing Zeros</t>
-  </si>
-  <si>
-    <t>1. Math</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/trailing-zeros/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trailing Zeros(http://www.lintcode.com/en/problem/trailing-zeros/)</t>
+O(1) Check Power of 2(http://www.lintcode.com/en/problem/o1-check-power-of-2/): n &amp; (n - 1)的妙用
+Update Bits(http://www.lintcode.com/en/problem/update-bits/): 将特定位数清零后再置为特定值
+Binary Representation(http://www.lintcode.com/en/problem/binary-representation/): 整数和小数的换算，整数部分 / 2取余，从低位到高位；小数部分 * 2取余，从高位到低位
+Single Number(http://www.lintcode.com/en/problem/single-number/): 异或的应用
+Single Number II(http://www.lintcode.com/en/problem/single-number-ii/): 构造三进制
+Single Number III(http://www.lintcode.com/en/problem/single-number-iii/): diff &amp;= ~(diff - 1) 和 diff &amp;= (-diff)效果相同，找出该数字从右往左第一个1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/single-number-iii/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Majority Number II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product of Array Exclude Itself(http://www.lintcode.com/en/problem/product-of-array-exclude-itself/)
+First Missing Positive(http://www.lintcode.com/en/problem/first-missing-positive/)
+3Sum(http://www.lintcode.com/en/problem/3sum/)
+3Sum Closest(http://www.lintcode.com/en/problem/3sum-closest/)
+Partition Array(http://www.lintcode.com/en/problem/partition-array/)
+Remove Duplicates from Sorted Array II(http://www.lintcode.com/en/problem/merge-two-sorted-arrays/)
+Subarray Sum Closest(http://www.lintcode.com/en/problem/subarray-sum-closest/)
+Majority Number(http://www.lintcode.com/en/problem/majority-number/)
+Next Permutation(http://www.lintcode.com/en/problem/next-permutation/) 
+Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)
+Majority Number II(http://www.lintcode.com/en/problem/majority-number-ii)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Majority Number(http://www.lintcode.com/en/problem/majority-number/)
+Majority Number II(http://www.lintcode.com/en/problem/majority-number-ii)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快慢指针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List(http://www.lintcode.com/en/problem/remove-nth-node-from-end-of-list/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/remove-nth-node-from-end-of-list/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Linked List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Linked List
+2. 快慢指针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/merge-two-sorted-lists/</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Linked List
+2. Next指针wait/next</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List(http://www.lintcode.com/en/problem/remove-nth-node-from-end-of-list/)
+Merge Two Sorted Lists(http://www.lintcode.com/en/problem/merge-two-sorted-lists/)
+Remove Duplicates from Sorted List(http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-list)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-list</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +857,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,6 +867,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,7 +890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -718,6 +971,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -996,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1017,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -1038,227 +1311,227 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>27</v>
-      </c>
       <c r="C14" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>44</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="25" t="s">
         <v>65</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B40" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
         <v>76</v>
-      </c>
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
         <v>80</v>
-      </c>
-      <c r="B44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -1266,153 +1539,340 @@
     </row>
     <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="20" t="s">
         <v>93</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" t="s">
         <v>99</v>
-      </c>
-      <c r="B58" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" t="s">
         <v>115</v>
-      </c>
-      <c r="C68" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="C72" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="C76" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C74" s="25" t="s">
-        <v>128</v>
+    </row>
+    <row r="78" spans="1:3" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A86" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B92" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A94" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94" s="39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A96" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C96" s="40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B102" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A104" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B106" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1426,16 +1886,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40" style="6" customWidth="1"/>
-    <col min="2" max="2" width="110.5" customWidth="1"/>
+    <col min="2" max="2" width="158.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1459,127 +1919,175 @@
         <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="157" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="182" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>129</v>
+        <v>121</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="179" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="182" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="182" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/刷题简单归类和方法.xlsx
+++ b/刷题简单归类和方法.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="480" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="262">
   <si>
     <t>179. Largest Number</t>
   </si>
@@ -461,13 +461,6 @@
     <t>http://www.lintcode.com/en/problem/search-in-rotated-sorted-array-ii/</t>
   </si>
   <si>
-    <t>Find Minimum in Rotated Sorted Array(http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array)
-Search in Rotated Sorted Array (http://www.lintcode.com/en/problem/search-in-rotated-sorted-array)
-Find Minimum in Rotated Sorted Array II(http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array-ii)
-Search in Rotated Sorted Array II(http://www.lintcode.com/en/problem/search-in-rotated-sorted-array-ii/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Search a 2D Matrix II</t>
   </si>
   <si>
@@ -556,10 +549,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Unique Binary Search Trees(http://www.lintcode.com/en/problem/unique-binary-search-trees/): 选取不同值作为root计算数目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Recursion</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -572,10 +561,6 @@
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/fast-power/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fast Power(http://www.lintcode.com/en/problem/fast-power/)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -752,10 +737,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Remove Nth Node From End of List(http://www.lintcode.com/en/problem/remove-nth-node-from-end-of-list/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.lintcode.com/en/problem/remove-nth-node-from-end-of-list/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -785,14 +766,381 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse Linked List </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Linked List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/reverse-linked-list/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/partition-list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Linked List
+2. Merge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rotate List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Linked List
+2. Rotate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array(http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array)
+Search in Rotated Sorted Array (http://www.lintcode.com/en/problem/search-in-rotated-sorted-array)
+Find Minimum in Rotated Sorted Array II(http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array-ii)
+Search in Rotated Sorted Array II(http://www.lintcode.com/en/problem/search-in-rotated-sorted-array-ii/)
+Rotate List(http://www.lintcode.com/en/problem/rotate-list/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/rotate-list/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert Sorted List to Balanced BST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Linked List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/convert-sorted-list-to-balanced-bst/</t>
+  </si>
+  <si>
+    <t>1. 快慢指针
+2. Recursion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Linked List
+2. Deep Copy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Copy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer(http://www.lintcode.com/en/problem/copy-list-with-random-pointer/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/copy-list-with-random-pointer/</t>
+  </si>
+  <si>
+    <t>1. Linked List
+2. 快慢指针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Linked List
+2. 快慢指针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/linked-list-cycle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reorder List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Linked List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/reorder-list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/sort-list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition List(http://www.lintcode.com/en/problem/partition-list)
+Reorder List(http://www.lintcode.com/en/problem/reorder-list)
+Sort List(http://www.lintcode.com/en/problem/sort-list)
+Add Two Numbers(http://www.lintcode.com/en/problem/add-two-numbers/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/add-two-numbers/</t>
+  </si>
+  <si>
+    <t>Nth to Last Node in List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/nth-to-last-node-in-list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Linked List
+2. Next 指针 wait/next</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-list-ii</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse Linked List II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/reverse-linked-list-ii/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linked List Cycle II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Remove Nth Node From End of List(http://www.lintcode.com/en/problem/remove-nth-node-from-end-of-list/)
 Merge Two Sorted Lists(http://www.lintcode.com/en/problem/merge-two-sorted-lists/)
-Remove Duplicates from Sorted List(http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-list)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+Remove Duplicates from Sorted List(http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-list)
+Reverse Linked List(http://www.lintcode.com/en/problem/reverse-linked-list/)
+Partition List(http://www.lintcode.com/en/problem/partition-list)
+Rotate List(http://www.lintcode.com/en/problem/rotate-list/)
+Copy List with Random Pointer(http://www.lintcode.com/en/problem/copy-list-with-random-pointer/)
+Linked List Cycle(http://www.lintcode.com/en/problem/linked-list-cycle)
+Sort List(http://www.lintcode.com/en/problem/sort-list)
+Add Two Numbers(http://www.lintcode.com/en/problem/add-two-numbers/)
+Nth to Last Node in List(http://www.lintcode.com/en/problem/nth-to-last-node-in-list)
+Remove Duplicates from Sorted List II(http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-list-ii)
+Reverse Linked List II(http://www.lintcode.com/en/problem/reverse-linked-list-ii/)
+Linked List Cycle II(http://www.lintcode.com/en/problem/linked-list-cycle-ii)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List(http://www.lintcode.com/en/problem/remove-nth-node-from-end-of-list/)
+Convert Sorted List to Balanced BST(http://www.lintcode.com/en/problem/convert-sorted-list-to-balanced-bst/)
+Linked List Cycle(http://www.lintcode.com/en/problem/linked-list-cycle)
+Nth to Last Node in List(http://www.lintcode.com/en/problem/nth-to-last-node-in-list)
+Linked List Cycle II(http://www.lintcode.com/en/problem/linked-list-cycle-ii)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/linked-list-cycle-ii</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Tree
+2. Recursion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/balanced-binary-tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/maximum-depth-of-binary-tree/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert Node in a Binary Search Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Search Tree
+2. Recursion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Tree Traversal
+2. Queue
+3. Recursion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Traversal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree(http://www.lintcode.com/en/problem/maximum-depth-of-binary-tree/)
+Balanced Binary Tree(http://www.lintcode.com/en/problem/balanced-binary-tree)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>Queue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Tree Traversal
+2. Stack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Search Tree
+2. Stack
+3. Inorder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/validate-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>1. Binary Search Tree
+2. Preorder
+3. Inorder
+4. Recursion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search Range in Binary Search Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Search Tree
+2. Inorder
+3. Recursion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal(http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/)
+Validate Binary Search Tree(http://www.lintcode.com/en/problem/validate-binary-search-tree/)
+Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Serialization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Tree Traversal
+2. Queue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/)
+Binary Tree Serialization(http://www.lintcode.com/en/problem/binary-tree-serialization/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/): levelorder
+Binary Tree Preorder Traversal(http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/): preorder
+Validate Binary Search Tree(http://www.lintcode.com/en/problem/validate-binary-search-tree/): inorder
+Construct Binary Tree from Preorder and Inorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-preorder-and-inorder-traversal/): Preoder, Inorder
+Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree): Inorder
+Binary Tree Serialization(http://www.lintcode.com/en/problem/binary-tree-serialization/): BST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/binary-tree-serialization/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Node in Binary Search Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Search Tree
+2. Recursion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast Power(http://www.lintcode.com/en/problem/fast-power/)
+Convert Sorted List to Balanced BST(http://www.lintcode.com/en/problem/convert-sorted-list-to-balanced-bst/)
+Maximum Depth of Binary Tree(http://www.lintcode.com/en/problem/maximum-depth-of-binary-tree/)
+Balanced Binary Tree(http://www.lintcode.com/en/problem/balanced-binary-tree)
+Insert Node in a Binary Search Tree(http://www.lintcode.com/en/problem/insert-node-in-a-binary-search-tree/)
+Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/)
+Construct Binary Tree from Preorder and Inorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-preorder-and-inorder-traversal/)
+Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree)
+Remove Node in Binary Search Tree(http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees(http://www.lintcode.com/en/problem/unique-binary-search-trees/): 选取不同值作为root计算数目
+Insert Node in a Binary Search Tree(http://www.lintcode.com/en/problem/insert-node-in-a-binary-search-tree/)
+Remove Node in Binary Search Tree(http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/</t>
   </si>
 </sst>
 </file>
@@ -890,38 +1238,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -935,12 +1271,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -951,7 +1283,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -970,11 +1301,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -990,6 +1319,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1269,40 +1644,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="60.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="63.83203125" customWidth="1"/>
-    <col min="3" max="3" width="75.5" customWidth="1"/>
+    <col min="3" max="3" width="75.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -1310,7 +1685,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
@@ -1318,7 +1693,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
@@ -1326,553 +1701,802 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="35" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B34" t="s">
         <v>57</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="26" t="s">
+    <row r="36" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="27" t="s">
+    <row r="40" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="17" t="s">
         <v>73</v>
       </c>
       <c r="B42" t="s">
         <v>74</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B44" t="s">
         <v>78</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="17" t="s">
         <v>81</v>
       </c>
       <c r="B46" t="s">
         <v>78</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
+      <c r="A47" s="17"/>
     </row>
     <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="17" t="s">
         <v>83</v>
       </c>
       <c r="B48" t="s">
         <v>78</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="17" t="s">
         <v>88</v>
       </c>
       <c r="B52" t="s">
         <v>78</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="17" t="s">
         <v>94</v>
       </c>
       <c r="B56" t="s">
         <v>78</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="17" t="s">
         <v>96</v>
       </c>
       <c r="B58" t="s">
         <v>97</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B60" t="s">
         <v>78</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A66" s="31" t="s">
+    <row r="66" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="21" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" t="s">
         <v>111</v>
       </c>
-      <c r="B68" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="C68" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
+      <c r="B70" t="s">
         <v>116</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C70" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="21" t="s">
-        <v>120</v>
+      <c r="A72" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" s="20" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B74" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="26" t="s">
+      <c r="B78" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A86" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" t="s">
+        <v>154</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A94" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A96" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B98" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B76" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A78" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B82" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="C98" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C84" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A86" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C86" s="32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B90" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C90" s="36" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B92" t="s">
-        <v>157</v>
-      </c>
-      <c r="C92" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A94" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B94" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C94" s="39" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A96" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="B96" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C96" s="40" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B98" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B100" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="37" t="s">
+      <c r="C102" s="26"/>
+    </row>
+    <row r="104" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B102" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A104" s="17" t="s">
+      <c r="B104" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B104" s="3" t="s">
+    </row>
+    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B106" t="s">
+        <v>177</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C104" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="B106" t="s">
-        <v>181</v>
-      </c>
-      <c r="C106" t="s">
+    </row>
+    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="17" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A108" s="29" t="s">
+      <c r="B110" t="s">
         <v>184</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="C110" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C108" s="20" t="s">
+    </row>
+    <row r="112" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A112" s="17" t="s">
         <v>187</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A114" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A116" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A118" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A122" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A124" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A126" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A128" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A130" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B132" t="s">
+        <v>194</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A134" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A136" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A138" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A140" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A142" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B142" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C142" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A144" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="B144" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A146" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A148" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="B148" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A150" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="B150" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C150" s="26"/>
+    </row>
+    <row r="152" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A152" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A154" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -1886,208 +2510,256 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40" style="6" customWidth="1"/>
-    <col min="2" max="2" width="158.83203125" customWidth="1"/>
+    <col min="1" max="1" width="40" style="4" customWidth="1"/>
+    <col min="2" max="2" width="158.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="206" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>154</v>
+      <c r="B4" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="157" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>164</v>
+      <c r="B12" s="12" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="182" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="179" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="182" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="234" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="182" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="179" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="182" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" s="18" t="s">
+      <c r="B44" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="182" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>178</v>
+      <c r="B46" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="206" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/刷题简单归类和方法.xlsx
+++ b/刷题简单归类和方法.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="480" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="329">
   <si>
     <t>179. Largest Number</t>
   </si>
@@ -107,10 +107,6 @@
   </si>
   <si>
     <t>Hashmap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anagrams(http://www.lintcode.com/en/problem/anagrams)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -658,11 +654,6 @@
     <t>1. Greedy
 2. DP
 3. Array</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Longest Common Substring(http://www.lintcode.com/en/problem/longest-common-substring)
-Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -842,10 +833,6 @@
   </si>
   <si>
     <t>Deep Copy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copy List with Random Pointer(http://www.lintcode.com/en/problem/copy-list-with-random-pointer/)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1014,11 +1001,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Maximum Depth of Binary Tree(http://www.lintcode.com/en/problem/maximum-depth-of-binary-tree/)
-Balanced Binary Tree(http://www.lintcode.com/en/problem/balanced-binary-tree)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/</t>
   </si>
   <si>
@@ -1080,13 +1062,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Binary Tree Serialization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Tree Traversal
+2. Queue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/binary-tree-serialization/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Node in Binary Search Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Search Tree
+2. Recursion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees(http://www.lintcode.com/en/problem/unique-binary-search-trees/): 选取不同值作为root计算数目
+Insert Node in a Binary Search Tree(http://www.lintcode.com/en/problem/insert-node-in-a-binary-search-tree/)
+Remove Node in Binary Search Tree(http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Minimum Depth of Binary Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Tree
+2. Recursion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree(http://www.lintcode.com/en/problem/maximum-depth-of-binary-tree/)
+Balanced Binary Tree(http://www.lintcode.com/en/problem/balanced-binary-tree)
+Minimum Depth of Binary Tree(http://www.lintcode.com/en/problem/minimum-depth-of-binary-tree/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Tree Traversal
+2. Stack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Binary Tree Preorder Traversal(http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/)
 Validate Binary Search Tree(http://www.lintcode.com/en/problem/validate-binary-search-tree/)
-Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Serialization</t>
+Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree)
+Binary Tree Inorder Traversal(http://www.lintcode.com/en/problem/binary-tree-inorder-traversal/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Inorder and Postorder Traversal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Tree Traversal
+2. Inorder
+3. Postorder
+4. Recursion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/construct-binary-tree-from-inorder-and-postorder-traversal/</t>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1095,8 +1147,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/)
-Binary Tree Serialization(http://www.lintcode.com/en/problem/binary-tree-serialization/)</t>
+    <t>http://www.lintcode.com/en/problem/binary-tree-zigzag-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Tree Traversal
+2. Queue</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1105,24 +1164,153 @@
 Validate Binary Search Tree(http://www.lintcode.com/en/problem/validate-binary-search-tree/): inorder
 Construct Binary Tree from Preorder and Inorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-preorder-and-inorder-traversal/): Preoder, Inorder
 Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree): Inorder
-Binary Tree Serialization(http://www.lintcode.com/en/problem/binary-tree-serialization/): BST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/binary-tree-serialization/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove Node in Binary Search Tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Binary Search Tree
+Binary Tree Serialization(http://www.lintcode.com/en/problem/binary-tree-serialization/): BST
+Binary Tree Inorder Traversal(http://www.lintcode.com/en/problem/binary-tree-inorder-traversal/): Inorder
+Construct Binary Tree from Inorder and Postorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-inorder-and-postorder-traversal/): Inorder, Postorder
+Binary Tree Zigzag Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-zigzag-level-order-traversal/): Levelorder
+Binary Tree Level Order Traversal II(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal-ii/): Levelorder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/binary-tree-level-order-traversal-ii/</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t>1. Backtracking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backtracking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/combinations/</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/combination-sum/</t>
+  </si>
+  <si>
+    <t>Topological Sorting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Queue
+2. HashMap
+3. Graph</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graph</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting): Directed Graph</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/topological-sorting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subsets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/subsets/</t>
+  </si>
+  <si>
+    <t>1. Backtracking
 2. Recursion</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Fast Power(http://www.lintcode.com/en/problem/fast-power/)
+    <t>Subsets II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/subsets-ii/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Permutations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Permutations II</t>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/permutations-ii/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/permutations/</t>
+  </si>
+  <si>
+    <t>Combination Sum II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combinations(http://www.lintcode.com/en/problem/combinations/)
+Combination Sum(http://www.lintcode.com/en/problem/combination-sum/)
+Subsets(http://www.lintcode.com/en/problem/subsets/)
+Subsets II(http://www.lintcode.com/en/problem/subsets-ii/)
+Permutations(http://www.lintcode.com/en/problem/permutations/)
+Permutations II(http://www.lintcode.com/en/problem/permutations-ii/)
+Combination Sum II(http://www.lintcode.com/en/problem/combination-sum-ii/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/combination-sum-ii/</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Hashmap
+2. Queue
+3. Deep Copy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anagrams(http://www.lintcode.com/en/problem/anagrams)
+Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting)
+Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/clone-graph/</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer(http://www.lintcode.com/en/problem/copy-list-with-random-pointer/)
+Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/)
+Binary Tree Serialization(http://www.lintcode.com/en/problem/binary-tree-serialization/)
+Binary Tree Zigzag Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-zigzag-level-order-traversal/)
+Binary Tree Level Order Traversal II(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal-ii/)
+Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting)
+Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-Queens</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Recursion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast Power(http://www.lintcode.com/en/problem/fast-power/)
 Convert Sorted List to Balanced BST(http://www.lintcode.com/en/problem/convert-sorted-list-to-balanced-bst/)
 Maximum Depth of Binary Tree(http://www.lintcode.com/en/problem/maximum-depth-of-binary-tree/)
 Balanced Binary Tree(http://www.lintcode.com/en/problem/balanced-binary-tree)
@@ -1130,17 +1318,131 @@
 Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/)
 Construct Binary Tree from Preorder and Inorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-preorder-and-inorder-traversal/)
 Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree)
-Remove Node in Binary Search Tree(http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique Binary Search Trees(http://www.lintcode.com/en/problem/unique-binary-search-trees/): 选取不同值作为root计算数目
-Insert Node in a Binary Search Tree(http://www.lintcode.com/en/problem/insert-node-in-a-binary-search-tree/)
-Remove Node in Binary Search Tree(http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/</t>
+Remove Node in Binary Search Tree(http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/)
+Minimum Depth of Binary Tree(http://www.lintcode.com/en/problem/minimum-depth-of-binary-tree/)
+Construct Binary Tree from Inorder and Postorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-inorder-and-postorder-traversal/)
+Combinations(http://www.lintcode.com/en/problem/combinations/)
+Combination Sum(http://www.lintcode.com/en/problem/combination-sum/)
+Subsets II(http://www.lintcode.com/en/problem/subsets-ii/)
+Permutations(http://www.lintcode.com/en/problem/permutations/)
+Permutations II(http://www.lintcode.com/en/problem/permutations-ii/)
+Combination Sum II(http://www.lintcode.com/en/problem/combination-sum-ii/)
+N-Queens(http://www.lintcode.com/en/problem/n-queens/)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/n-queens/</t>
+  </si>
+  <si>
+    <t>Word Ladder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. BFS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Ladder(http://www.lintcode.com/en/problem/word-ladder/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/word-ladder/</t>
+  </si>
+  <si>
+    <t>Unique Paths II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/unique-paths-ii/</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/climbing-stairs/</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/triangle/</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP
+2. 区间划分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间划分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/maximum-subarray/</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Subarray(http://www.lintcode.com/en/problem/maximum-subarray/)
+Maximum Product Subarray(http://www.lintcode.com/en/problem/maximum-product-subarray/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP
+2. 错位DNA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/edit-distance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错位基因配对(DP)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distinct Subsequences</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Common Substring(http://www.lintcode.com/en/problem/longest-common-substring)
+Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)
+Unique Paths II(http://www.lintcode.com/en/problem/unique-paths-ii/)
+Climbing Stairs(http://www.lintcode.com/en/problem/climbing-stairs/)
+Triangle(http://www.lintcode.com/en/problem/triangle/)
+Maximum Subarray(http://www.lintcode.com/en/problem/maximum-subarray/)
+Maximum Product Subarray(http://www.lintcode.com/en/problem/maximum-product-subarray/)
+Edit Distance(http://www.lintcode.com/en/problem/edit-distance)
+Distinct Subsequences(http://www.lintcode.com/en/problem/distinct-subsequences/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit Distance(http://www.lintcode.com/en/problem/edit-distance)
+Distinct Subsequences(http://www.lintcode.com/en/problem/distinct-subsequences/)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/distinct-subsequences/</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1366,6 +1668,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1644,10 +1950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1713,200 +2019,200 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="35" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C28" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
         <v>66</v>
       </c>
-      <c r="B38" t="s">
-        <v>67</v>
-      </c>
       <c r="C38" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>70</v>
-      </c>
       <c r="C40" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
         <v>73</v>
       </c>
-      <c r="B42" t="s">
-        <v>74</v>
-      </c>
       <c r="C42" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
         <v>77</v>
       </c>
-      <c r="B44" t="s">
-        <v>78</v>
-      </c>
       <c r="C44" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="B46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -1914,589 +2220,833 @@
     </row>
     <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="B48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="B52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C54" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="B56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" t="s">
         <v>96</v>
       </c>
-      <c r="B58" t="s">
-        <v>97</v>
-      </c>
       <c r="C58" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="21" t="s">
         <v>108</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" t="s">
         <v>110</v>
       </c>
-      <c r="B68" t="s">
-        <v>111</v>
-      </c>
       <c r="C68" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" t="s">
         <v>115</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="C74" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="C76" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="21" t="s">
         <v>128</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="C80" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="C82" s="21" t="s">
         <v>138</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" t="s">
         <v>140</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B86" s="13" t="s">
-        <v>144</v>
-      </c>
       <c r="C86" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C88" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" s="26" t="s">
         <v>152</v>
-      </c>
-      <c r="B90" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" t="s">
+        <v>153</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="B92" t="s">
-        <v>154</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="26" t="s">
         <v>157</v>
-      </c>
-      <c r="B94" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B96" s="25" t="s">
-        <v>160</v>
-      </c>
       <c r="C96" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" s="21" t="s">
         <v>166</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C102" s="26"/>
     </row>
     <row r="104" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B106" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" t="s">
+        <v>182</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="B110" t="s">
-        <v>184</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="116" spans="1:3" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C116" s="28" t="s">
         <v>193</v>
-      </c>
-      <c r="B116" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C116" s="28" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="118" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B118" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C118" s="14" t="s">
         <v>198</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="33" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="124" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="130" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A130" s="34" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B132" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A134" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A134" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C134" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="138" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" s="32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B138" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C138" s="21" t="s">
         <v>226</v>
-      </c>
-      <c r="C138" s="21" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" s="29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="142" spans="1:3" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A142" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B142" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C142" s="26" t="s">
         <v>233</v>
-      </c>
-      <c r="B142" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="C142" s="26" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="144" spans="1:3" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B144" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A146" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="B144" s="25" t="s">
+      <c r="B146" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C144" s="26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A146" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C146" s="21" t="s">
-        <v>245</v>
+      <c r="C146" s="26" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="148" spans="1:3" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A148" s="42" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" spans="1:3" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A150" s="42" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C150" s="26"/>
     </row>
     <row r="152" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="44" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A156" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A158" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B158" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C154" s="21" t="s">
+    </row>
+    <row r="160" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A160" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>261</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A162" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A164" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B166" t="s">
+        <v>271</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A168" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B168" t="s">
+        <v>271</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A170" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A172" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B172" t="s">
+        <v>271</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A174" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B174" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A176" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A178" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A180" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A182" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C182" s="21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A184" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A186" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C186" s="21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B188" t="s">
+        <v>309</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A190" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="B190" t="s">
+        <v>309</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A192" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B192" t="s">
+        <v>309</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A194" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A196" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A198" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A200" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2510,16 +3060,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40" style="4" customWidth="1"/>
-    <col min="2" max="2" width="158.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="160.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -2543,7 +3093,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="153" customHeight="1" x14ac:dyDescent="0.2">
@@ -2559,207 +3109,247 @@
         <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
+      <c r="B10" s="10" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>161</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="182" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="179" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="182" customHeight="1" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="365" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="206" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>251</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="179" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/刷题简单归类和方法.xlsx
+++ b/刷题简单归类和方法.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="3820" yWindow="460" windowWidth="20940" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,49 +28,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="361">
   <si>
     <t>179. Largest Number</t>
   </si>
   <si>
     <t>题目编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主要使用方法及思想</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Comparator；
 2. String连接之后的比较；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>487. Max Consecutive Ones II</t>
   </si>
   <si>
     <t>1. Sliding Window</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sliding Window</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>487. Max Consecutive Ones II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Comparator</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bucket Count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Two Strings Are Anagrams</t>
@@ -78,48 +78,48 @@
   <si>
     <t>Two Strings Are Anagrams
 Compare Strings</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Compare Strings</t>
   </si>
   <si>
     <t>1. Bucket count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>strStr</t>
   </si>
   <si>
     <t>1. Two pointer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>题目链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/strstr/</t>
   </si>
   <si>
     <t>Two Pointer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Hashmap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Anagrams</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. HashMap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/anagrams</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Longest Common Substring</t>
@@ -127,46 +127,41 @@
   <si>
     <t>1. DP
 2. 连续的string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/longest-common-substring</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. String比较</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/longest-common-prefix</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Longest Common Prefix</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>String to Integer II</t>
   </si>
   <si>
     <t>1. String处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/string-to-integer-ii</t>
-  </si>
-  <si>
-    <t>Longest Common Prefix(http://www.lintcode.com/en/problem/longest-common-prefix)
-String to Integer II(http://www.lintcode.com/en/problem/string-to-integer-ii)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Remove Element</t>
@@ -174,7 +169,7 @@
   <si>
     <t>1. array处理
 2. Two pointer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/remove-element</t>
@@ -191,47 +186,47 @@
   <si>
     <t>1. Two pointer
 2. Merge sort</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/merge-sorted-array</t>
   </si>
   <si>
     <t>Merge Sort</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>strstr(http://www.lintcode.com/en/problem/strstr/)
 Remove Element(http://www.lintcode.com/en/problem/remove-element)
 Remove Duplicates from Sorted Array(http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-array)
 Merge Sorted Array(http://www.lintcode.com/en/problem/merge-sorted-array)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Product of Array Exclude Itself</t>
   </si>
   <si>
     <t>Array</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Array偏移计算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/product-of-array-exclude-itself/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/first-missing-positive/</t>
   </si>
   <si>
     <t>Index Exchange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>First Missing Positive(http://www.lintcode.com/en/problem/first-missing-positive/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>First Missing Positive</t>
@@ -239,213 +234,202 @@
   <si>
     <t>1. Array
 2. Index变换</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/3sum/</t>
   </si>
   <si>
     <t>1. Array</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3Sum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3Sum Closest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/3sum-closest/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Partition Array</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/partition-array/</t>
   </si>
   <si>
     <t>Remove Duplicates from Sorted Array II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/merge-two-sorted-arrays/</t>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/merge-two-sorted-arrays/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Merge Two Sorted Arrays</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Merge Sort</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Merge Sorted Array(http://www.lintcode.com/en/problem/merge-sorted-array)
 Merge Two Sorted Arrays(http://www.lintcode.com/en/problem/merge-two-sorted-arrays/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Subarray Sum Closest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Subarry
 2. Index变换</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Subarray</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/subarray-sum-closest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4Sum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Subarray</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Subarray Sum Closest(http://www.lintcode.com/en/problem/subarray-sum-closest)
 4Sum(http://www.lintcode.com/en/problem/4sum/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/4sum/</t>
   </si>
   <si>
     <t>Sqrt(x)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Binary Search</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Binary Search</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/sqrtx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Search Insert Position</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/search-insert-position</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Search a 2D Matrix</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/search-a-2d-matrix</t>
   </si>
   <si>
     <t>First Position of Target</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Binary Search
 2. 找第一个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/first-position-of-target</t>
   </si>
   <si>
     <t>Find Peak Element</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/find-peak-element</t>
   </si>
   <si>
     <t>Find Minimum in Rotated Sorted Array</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Rotated
 2. Binary Search限定范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rotated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>First Bad Version</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/first-bad-version</t>
   </si>
   <si>
     <t>Wood Cut</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Binary Search: 优化问题转可行性问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Binary Search
 优化问题-&gt;可行性问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/wood-cut</t>
   </si>
   <si>
     <t>Wood Cut(http://www.lintcode.com/en/problem/wood-cut)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Search for a Range</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sqrt(x)(http://www.lintcode.com/en/problem/sqrtx)
-Search Insert Position(http://www.lintcode.com/en/problem/search-insert-position)
-Search a 2D Matrix(http://www.lintcode.com/en/problem/search-a-2d-matrix)
-First Position of Target(http://www.lintcode.com/en/problem/first-position-of-target)
-Find Peak Element(http://www.lintcode.com/en/problem/find-peak-element)
-Find Minimum in Rotated Sorted Array(http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array)
-First Bad Version(http://www.lintcode.com/en/problem/first-bad-version)
-Search for a Range(http://www.lintcode.com/en/problem/search-for-a-range/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/search-for-a-range/</t>
   </si>
   <si>
     <t>Search in Rotated Sorted Array</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/search-in-rotated-sorted-array</t>
   </si>
   <si>
     <t>Find Minimum in Rotated Sorted Array II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array-ii</t>
@@ -461,61 +445,61 @@
   </si>
   <si>
     <t>1. Matrix中移动缩小可选范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Matrix移动缩小可选范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Search a 2D Matrix II(http://www.lintcode.com/en/problem/search-a-2d-matrix-ii/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/search-a-2d-matrix-ii/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Flip Bits</t>
   </si>
   <si>
     <t>1. Bit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/flip-bits/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>O(1) Check Power of 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Math</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Trailing Zeros</t>
   </si>
   <si>
     <t>1. Math</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/trailing-zeros/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Update Bits</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Bit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/update-bits/</t>
@@ -528,76 +512,76 @@
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/unique-binary-search-trees/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Trailing Zeros(http://www.lintcode.com/en/problem/trailing-zeros/)
 Unique Binary Search Trees(http://www.lintcode.com/en/problem/unique-binary-search-trees/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Binary Search Tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Math
 2. Binary Search Tree，选取不同值作为root</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Recursion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fast Power</t>
   </si>
   <si>
     <t>1. Recursion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/fast-power/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Binary Representation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Bit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/binary-representation/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Single Number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Bit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/single-number/</t>
   </si>
   <si>
     <t xml:space="preserve">Majority Number </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Array
 2. 投票算法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>投票算法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/majority-number/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Gas Station</t>
@@ -605,56 +589,56 @@
   <si>
     <t>1. Array
 2. Greedy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Greedy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/gas-station/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>179. Largest Number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Delete Digits</t>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/delete-digits/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Greedy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Jump Game</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/jump-game/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Next Permutation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/next-permutation/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Jump Game II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Greedy
 2. DP
 3. Array</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Gas Station(http://www.lintcode.com/en/problem/gas-station/)
@@ -663,18 +647,18 @@
 Jump Game(http://www.lintcode.com/en/problem/jump-game/)
 Next Permutation(http://www.lintcode.com/en/problem/next-permutation/) 
 Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/jump-game-ii/</t>
   </si>
   <si>
     <t>Single Number II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/single-number-ii/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Single Number III</t>
@@ -687,15 +671,15 @@
 Single Number(http://www.lintcode.com/en/problem/single-number/): 异或的应用
 Single Number II(http://www.lintcode.com/en/problem/single-number-ii/): 构造三进制
 Single Number III(http://www.lintcode.com/en/problem/single-number-iii/): diff &amp;= ~(diff - 1) 和 diff &amp;= (-diff)效果相同，找出该数字从右往左第一个1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/single-number-iii/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Majority Number II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Product of Array Exclude Itself(http://www.lintcode.com/en/problem/product-of-array-exclude-itself/)
@@ -709,90 +693,90 @@
 Next Permutation(http://www.lintcode.com/en/problem/next-permutation/) 
 Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)
 Majority Number II(http://www.lintcode.com/en/problem/majority-number-ii)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Majority Number(http://www.lintcode.com/en/problem/majority-number/)
 Majority Number II(http://www.lintcode.com/en/problem/majority-number-ii)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Remove Nth Node From End of List</t>
   </si>
   <si>
     <t>Linked List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>快慢指针</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/remove-nth-node-from-end-of-list/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Merge Two Sorted Lists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Linked List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Linked List
 2. 快慢指针</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/merge-two-sorted-lists/</t>
   </si>
   <si>
     <t>Remove Duplicates from Sorted List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Linked List
 2. Next指针wait/next</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Reverse Linked List </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Linked List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/reverse-linked-list/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/partition-list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Partition List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Linked List
 2. Merge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rotate List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Linked List
 2. Rotate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Find Minimum in Rotated Sorted Array(http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array)
@@ -800,19 +784,19 @@
 Find Minimum in Rotated Sorted Array II(http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array-ii)
 Search in Rotated Sorted Array II(http://www.lintcode.com/en/problem/search-in-rotated-sorted-array-ii/)
 Rotate List(http://www.lintcode.com/en/problem/rotate-list/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/rotate-list/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Convert Sorted List to Balanced BST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Linked List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/convert-sorted-list-to-balanced-bst/</t>
@@ -820,20 +804,20 @@
   <si>
     <t>1. 快慢指针
 2. Recursion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Copy List with Random Pointer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Linked List
 2. Deep Copy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Deep Copy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/copy-list-with-random-pointer/</t>
@@ -841,87 +825,87 @@
   <si>
     <t>1. Linked List
 2. 快慢指针</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Linked List
 2. 快慢指针</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Linked List Cycle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/linked-list-cycle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Reorder List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Merge Linked List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/reorder-list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sort List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/sort-list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Add Two Numbers</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Partition List(http://www.lintcode.com/en/problem/partition-list)
 Reorder List(http://www.lintcode.com/en/problem/reorder-list)
 Sort List(http://www.lintcode.com/en/problem/sort-list)
 Add Two Numbers(http://www.lintcode.com/en/problem/add-two-numbers/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/add-two-numbers/</t>
   </si>
   <si>
     <t>Nth to Last Node in List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/nth-to-last-node-in-list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Remove Duplicates from Sorted List II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Linked List
 2. Next 指针 wait/next</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-list-ii</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Reverse Linked List II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/reverse-linked-list-ii/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Linked List Cycle II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Remove Nth Node From End of List(http://www.lintcode.com/en/problem/remove-nth-node-from-end-of-list/)
@@ -938,7 +922,7 @@
 Remove Duplicates from Sorted List II(http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-list-ii)
 Reverse Linked List II(http://www.lintcode.com/en/problem/reverse-linked-list-ii/)
 Linked List Cycle II(http://www.lintcode.com/en/problem/linked-list-cycle-ii)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Remove Nth Node From End of List(http://www.lintcode.com/en/problem/remove-nth-node-from-end-of-list/)
@@ -946,100 +930,100 @@
 Linked List Cycle(http://www.lintcode.com/en/problem/linked-list-cycle)
 Nth to Last Node in List(http://www.lintcode.com/en/problem/nth-to-last-node-in-list)
 Linked List Cycle II(http://www.lintcode.com/en/problem/linked-list-cycle-ii)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/linked-list-cycle-ii</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Maximum Depth of Binary Tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Binary Tree
 2. Recursion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Binary Tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Balanced Binary Tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/balanced-binary-tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/maximum-depth-of-binary-tree/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Insert Node in a Binary Search Tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Binary Search Tree
 2. Recursion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Binary Tree Level Order Traversal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Binary Tree Traversal
 2. Queue
 3. Recursion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Binary Tree Traversal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/</t>
   </si>
   <si>
     <t>Queue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Binary Tree Preorder Traversal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Binary Tree Traversal
 2. Stack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Stack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Validate Binary Search Tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Binary Search Tree
 2. Stack
 3. Inorder</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/validate-binary-search-tree/</t>
   </si>
   <si>
     <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
@@ -1049,114 +1033,114 @@
 2. Preorder
 3. Inorder
 4. Recursion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Search Range in Binary Search Tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Binary Search Tree
 2. Inorder
 3. Recursion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Binary Tree Serialization</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Binary Tree Traversal
 2. Queue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/binary-tree-serialization/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Remove Node in Binary Search Tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Binary Search Tree
 2. Recursion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Unique Binary Search Trees(http://www.lintcode.com/en/problem/unique-binary-search-trees/): 选取不同值作为root计算数目
 Insert Node in a Binary Search Tree(http://www.lintcode.com/en/problem/insert-node-in-a-binary-search-tree/)
 Remove Node in Binary Search Tree(http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/</t>
   </si>
   <si>
     <t>Minimum Depth of Binary Tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Binary Tree
 2. Recursion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Maximum Depth of Binary Tree(http://www.lintcode.com/en/problem/maximum-depth-of-binary-tree/)
 Balanced Binary Tree(http://www.lintcode.com/en/problem/balanced-binary-tree)
 Minimum Depth of Binary Tree(http://www.lintcode.com/en/problem/minimum-depth-of-binary-tree/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Binary Tree Inorder Traversal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Binary Tree Traversal
 2. Stack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Binary Tree Preorder Traversal(http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/)
 Validate Binary Search Tree(http://www.lintcode.com/en/problem/validate-binary-search-tree/)
 Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree)
 Binary Tree Inorder Traversal(http://www.lintcode.com/en/problem/binary-tree-inorder-traversal/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Construct Binary Tree from Inorder and Postorder Traversal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Binary Tree Traversal
 2. Inorder
 3. Postorder
 4. Recursion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/construct-binary-tree-from-inorder-and-postorder-traversal/</t>
   </si>
   <si>
     <t>Binary Tree Zigzag Level Order Traversal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Binary Tree Traversal
 2. Queue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/binary-tree-zigzag-level-order-traversal/</t>
   </si>
   <si>
     <t>Binary Tree Level Order Traversal II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Binary Tree Traversal
 2. Queue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/): levelorder
@@ -1169,7 +1153,7 @@
 Construct Binary Tree from Inorder and Postorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-inorder-and-postorder-traversal/): Inorder, Postorder
 Binary Tree Zigzag Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-zigzag-level-order-traversal/): Levelorder
 Binary Tree Level Order Traversal II(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal-ii/): Levelorder</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/binary-tree-level-order-traversal-ii/</t>
@@ -1179,47 +1163,47 @@
   </si>
   <si>
     <t>1. Backtracking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Backtracking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/combinations/</t>
   </si>
   <si>
     <t>Combination Sum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/combination-sum/</t>
   </si>
   <si>
     <t>Topological Sorting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Queue
 2. HashMap
 3. Graph</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Graph</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting): Directed Graph</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/topological-sorting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Subsets</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/subsets/</t>
@@ -1227,33 +1211,33 @@
   <si>
     <t>1. Backtracking
 2. Recursion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Subsets II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/subsets-ii/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Permutations</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Permutations II</t>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/permutations-ii/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/permutations/</t>
   </si>
   <si>
     <t>Combination Sum II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Combinations(http://www.lintcode.com/en/problem/combinations/)
@@ -1263,26 +1247,26 @@
 Permutations(http://www.lintcode.com/en/problem/permutations/)
 Permutations II(http://www.lintcode.com/en/problem/permutations-ii/)
 Combination Sum II(http://www.lintcode.com/en/problem/combination-sum-ii/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/combination-sum-ii/</t>
   </si>
   <si>
     <t>Clone Graph</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Hashmap
 2. Queue
 3. Deep Copy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Anagrams(http://www.lintcode.com/en/problem/anagrams)
 Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting)
 Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/clone-graph/</t>
@@ -1290,7 +1274,7 @@
   <si>
     <t>Copy List with Random Pointer(http://www.lintcode.com/en/problem/copy-list-with-random-pointer/)
 Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/)
@@ -1299,15 +1283,284 @@
 Binary Tree Level Order Traversal II(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal-ii/)
 Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting)
 Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N-Queens</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Recursion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/n-queens/</t>
+  </si>
+  <si>
+    <t>Word Ladder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Ladder(http://www.lintcode.com/en/problem/word-ladder/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/word-ladder/</t>
+  </si>
+  <si>
+    <t>Unique Paths II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/unique-paths-ii/</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/climbing-stairs/</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/triangle/</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP
+2. 区间划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/maximum-subarray/</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP
+2. 错位DNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/edit-distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错位基因配对(DP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distinct Subsequences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/distinct-subsequences/</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Substring
+2. DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/word-break/</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP
+2. Backpack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backpack(DP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/backpack/</t>
+  </si>
+  <si>
+    <t>Backpack(http://www.lintcode.com/en/problem/backpack/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interleaving String</t>
+  </si>
+  <si>
+    <t>1. Substring
+2. DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Common Prefix(http://www.lintcode.com/en/problem/longest-common-prefix)
+String to Integer II(http://www.lintcode.com/en/problem/string-to-integer-ii)
+Word Break(http://www.lintcode.com/en/problem/word-break/)
+Interleaving String(http://www.lintcode.com/en/problem/interleaving-string/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/interleaving-string/</t>
+  </si>
+  <si>
+    <t>Minimum Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP
+2. 区间划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/minimum-subarray/</t>
+  </si>
+  <si>
+    <t>Minimum Adjustment Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/minimum-adjustment-cost/</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP
+2. 错位DNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/longest-common-subsequence</t>
+  </si>
+  <si>
+    <t>Edit Distance(http://www.lintcode.com/en/problem/edit-distance)
+Distinct Subsequences(http://www.lintcode.com/en/problem/distinct-subsequences/)
+Longest Common Subsequence(http://www.lintcode.com/en/problem/longest-common-subsequence)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP
+2. Binary Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/longest-increasing-subsequence/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sqrt(x)(http://www.lintcode.com/en/problem/sqrtx)
+Search Insert Position(http://www.lintcode.com/en/problem/search-insert-position)
+Search a 2D Matrix(http://www.lintcode.com/en/problem/search-a-2d-matrix)
+First Position of Target(http://www.lintcode.com/en/problem/first-position-of-target)
+Find Peak Element(http://www.lintcode.com/en/problem/find-peak-element)
+Find Minimum in Rotated Sorted Array(http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array)
+First Bad Version(http://www.lintcode.com/en/problem/first-bad-version)
+Search for a Range(http://www.lintcode.com/en/problem/search-for-a-range/)
+Longest Increasing Subsequence(http://www.lintcode.com/en/problem/longest-increasing-subsequence/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Subarray II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/maximum-subarray-ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Subarray III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Subarray Difference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/maximum-subarray-difference/</t>
+  </si>
+  <si>
+    <t>Maximum Subarray(http://www.lintcode.com/en/problem/maximum-subarray/)
+Maximum Product Subarray(http://www.lintcode.com/en/problem/maximum-product-subarray/)
+Minimum Subarray(http://www.lintcode.com/en/problem/minimum-subarray/)
+Maximum Subarray II(http://www.lintcode.com/en/problem/maximum-subarray-ii)
+Maximum Subarray III(http://www.lintcode.com/en/problem/maximum-subarray-iii/)
+Maximum Subarray Difference(http://www.lintcode.com/en/problem/maximum-subarray-difference/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Substring(http://www.lintcode.com/en/problem/longest-common-substring)
+Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)
+Unique Paths II(http://www.lintcode.com/en/problem/unique-paths-ii/)
+Climbing Stairs(http://www.lintcode.com/en/problem/climbing-stairs/)
+Triangle(http://www.lintcode.com/en/problem/triangle/)
+Maximum Subarray(http://www.lintcode.com/en/problem/maximum-subarray/)
+Maximum Product Subarray(http://www.lintcode.com/en/problem/maximum-product-subarray/)
+Edit Distance(http://www.lintcode.com/en/problem/edit-distance)
+Distinct Subsequences(http://www.lintcode.com/en/problem/distinct-subsequences/)
+Word Break(http://www.lintcode.com/en/problem/word-break/)
+Backpack(http://www.lintcode.com/en/problem/backpack/)
+Interleaving String(http://www.lintcode.com/en/problem/interleaving-string/)
+Minimum Subarray(http://www.lintcode.com/en/problem/minimum-subarray/)
+Minimum Adjustment Cost(http://www.lintcode.com/en/problem/minimum-adjustment-cost/)
+Longest Common Subsequence(http://www.lintcode.com/en/problem/longest-common-subsequence)
+Longest Increasing Subsequence(http://www.lintcode.com/en/problem/longest-increasing-subsequence/)
+Maximum Subarray II(http://www.lintcode.com/en/problem/maximum-subarray-ii)
+Maximum Subarray III(http://www.lintcode.com/en/problem/maximum-subarray-iii/)
+Maximum Subarray Difference(http://www.lintcode.com/en/problem/maximum-subarray-difference/)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/problem/maximum-subarray-iii</t>
+  </si>
+  <si>
+    <t>N-Queens II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Fast Power(http://www.lintcode.com/en/problem/fast-power/)
@@ -1328,128 +1581,19 @@
 Permutations II(http://www.lintcode.com/en/problem/permutations-ii/)
 Combination Sum II(http://www.lintcode.com/en/problem/combination-sum-ii/)
 N-Queens(http://www.lintcode.com/en/problem/n-queens/)
+N-Queens II(http://www.lintcode.com/en/problem/n-queens-ii/)
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/n-queens/</t>
-  </si>
-  <si>
-    <t>Word Ladder</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BFS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. BFS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Ladder(http://www.lintcode.com/en/problem/word-ladder/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/word-ladder/</t>
-  </si>
-  <si>
-    <t>Unique Paths II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. DP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/unique-paths-ii/</t>
-  </si>
-  <si>
-    <t>Climbing Stairs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/climbing-stairs/</t>
-  </si>
-  <si>
-    <t>Triangle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/triangle/</t>
-  </si>
-  <si>
-    <t>Maximum Subarray</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. DP
-2. 区间划分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>区间划分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/maximum-subarray/</t>
-  </si>
-  <si>
-    <t>Maximum Product Subarray</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum Subarray(http://www.lintcode.com/en/problem/maximum-subarray/)
-Maximum Product Subarray(http://www.lintcode.com/en/problem/maximum-product-subarray/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit Distance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. DP
-2. 错位DNA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/edit-distance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>错位基因配对(DP)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distinct Subsequences</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Longest Common Substring(http://www.lintcode.com/en/problem/longest-common-substring)
-Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)
-Unique Paths II(http://www.lintcode.com/en/problem/unique-paths-ii/)
-Climbing Stairs(http://www.lintcode.com/en/problem/climbing-stairs/)
-Triangle(http://www.lintcode.com/en/problem/triangle/)
-Maximum Subarray(http://www.lintcode.com/en/problem/maximum-subarray/)
-Maximum Product Subarray(http://www.lintcode.com/en/problem/maximum-product-subarray/)
-Edit Distance(http://www.lintcode.com/en/problem/edit-distance)
-Distinct Subsequences(http://www.lintcode.com/en/problem/distinct-subsequences/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit Distance(http://www.lintcode.com/en/problem/edit-distance)
-Distinct Subsequences(http://www.lintcode.com/en/problem/distinct-subsequences/)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/distinct-subsequences/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/n-queens-ii/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1457,11 +1601,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1538,9 +1677,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1551,7 +1690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1560,13 +1699,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1594,16 +1730,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1622,14 +1758,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1638,40 +1774,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1950,21 +2086,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="A222" sqref="A222:XFD222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.5" style="29" customWidth="1"/>
+    <col min="1" max="1" width="60.5" style="28" customWidth="1"/>
     <col min="2" max="2" width="63.83203125" customWidth="1"/>
     <col min="3" max="3" width="75.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1975,7 +2111,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1983,7 +2119,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -1991,7 +2127,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
@@ -1999,7 +2135,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
@@ -2007,7 +2143,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
@@ -2018,29 +2154,29 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B16" t="s">
@@ -2051,7 +2187,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
@@ -2062,995 +2198,1116 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="6" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>46</v>
+      <c r="A26" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="6" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B32" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
+      <c r="C32" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="6" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="6" t="s">
+    </row>
+    <row r="36" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="33" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
+      <c r="B36" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
+    </row>
+    <row r="40" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+      <c r="B42" t="s">
         <v>72</v>
       </c>
-      <c r="B42" t="s">
-        <v>73</v>
-      </c>
       <c r="C42" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
+      <c r="B44" t="s">
         <v>76</v>
       </c>
-      <c r="B44" t="s">
-        <v>77</v>
-      </c>
       <c r="C44" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B46" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="6" t="s">
+    </row>
+    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+    </row>
+    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
-    </row>
-    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="6" t="s">
+    </row>
+    <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
+      <c r="B50" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="6" t="s">
+    </row>
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="17" t="s">
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="6" t="s">
+    </row>
+    <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A54" s="17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A54" s="18" t="s">
+      <c r="B54" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="s">
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="6" t="s">
+    </row>
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+      <c r="B58" t="s">
         <v>95</v>
       </c>
-      <c r="B58" t="s">
-        <v>96</v>
-      </c>
       <c r="C58" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="6" t="s">
+    </row>
+    <row r="62" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A62" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A62" s="18" t="s">
+    <row r="64" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A64" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="6" t="s">
+      <c r="B64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A64" s="18" t="s">
+    <row r="66" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="6" t="s">
+      <c r="B66" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A66" s="20" t="s">
+    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" s="21" t="s">
+      <c r="B68" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B68" t="s">
-        <v>110</v>
-      </c>
       <c r="C68" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
+      <c r="C70" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B70" t="s">
-        <v>115</v>
-      </c>
-      <c r="C70" s="6" t="s">
+    </row>
+    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="17" t="s">
+      <c r="B72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="B72" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" s="6" t="s">
+      <c r="B74" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" s="20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C74" s="21" t="s">
+    <row r="80" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A86" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B92" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A94" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A96" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B98" s="14" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A78" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B84" t="s">
-        <v>140</v>
-      </c>
-      <c r="C84" s="6" t="s">
+      <c r="C98" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" s="24" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A86" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="B90" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B92" t="s">
-        <v>153</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A94" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B94" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A96" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C96" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B102" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="C102" s="26"/>
+      <c r="C102" s="25"/>
     </row>
     <row r="104" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A104" s="9" t="s">
-        <v>170</v>
+      <c r="A104" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B106" t="s">
+        <v>173</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C104" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B106" t="s">
-        <v>175</v>
-      </c>
-      <c r="C106" s="6" t="s">
+      <c r="B108" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A108" s="18" t="s">
+      <c r="C108" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B108" s="1" t="s">
+    </row>
+    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="B110" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="17" t="s">
+      <c r="C110" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B110" t="s">
+    </row>
+    <row r="112" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A112" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A112" s="17" t="s">
+    </row>
+    <row r="114" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A114" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C114" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="29" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A116" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C116" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A118" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A122" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A114" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C114" s="6" t="s">
+      <c r="C122" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A124" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A126" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A128" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A130" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B132" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A116" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B116" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C116" s="28" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A118" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A122" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A124" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A126" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A128" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A130" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C130" s="21" t="s">
+      <c r="C132" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A132" s="17" t="s">
+    <row r="134" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A134" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="B132" t="s">
-        <v>192</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A134" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C134" s="21" t="s">
+      <c r="B134" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A136" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A136" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A138" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="B138" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A140" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A138" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C138" s="21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A140" s="29" t="s">
+    <row r="142" spans="1:3" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A142" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B142" s="24" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A142" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="B142" s="25" t="s">
+      <c r="C142" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C142" s="26" t="s">
+    </row>
+    <row r="144" spans="1:3" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A144" s="39" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A144" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="B144" s="25" t="s">
+      <c r="B144" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C144" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C144" s="26" t="s">
+    </row>
+    <row r="146" spans="1:3" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A146" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B146" s="24" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A146" s="42" t="s">
+      <c r="C146" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="B146" s="25" t="s">
+    </row>
+    <row r="148" spans="1:3" s="22" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A148" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="C146" s="26" t="s">
+      <c r="B148" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C148" s="25" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A148" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="B148" s="25" t="s">
+    <row r="150" spans="1:3" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A150" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="B150" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="C148" s="26" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A150" s="42" t="s">
+      <c r="C150" s="25"/>
+    </row>
+    <row r="152" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A152" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="B150" s="25" t="s">
+      <c r="B152" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C150" s="26"/>
-    </row>
-    <row r="152" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A152" s="44" t="s">
+      <c r="C152" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="B152" s="13" t="s">
+    </row>
+    <row r="154" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A154" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C152" s="21" t="s">
+      <c r="B154" s="12" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A154" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="B154" s="13" t="s">
+      <c r="C154" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C154" s="21" t="s">
+    </row>
+    <row r="156" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A156" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A156" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B156" s="1" t="s">
+    <row r="158" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A158" s="16" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A158" s="17" t="s">
-        <v>257</v>
-      </c>
       <c r="B158" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A160" s="16" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A160" s="17" t="s">
+      <c r="B160" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C160" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B160" s="1" t="s">
+    </row>
+    <row r="162" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A162" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="B162" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A162" s="17" t="s">
+      <c r="C162" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B162" s="1" t="s">
+    </row>
+    <row r="164" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A164" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="B164" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A164" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C164" s="6" t="s">
+    </row>
+    <row r="166" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B166" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B166" t="s">
+      <c r="C166" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C166" s="6" t="s">
+    </row>
+    <row r="168" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A168" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B168" t="s">
+        <v>269</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A168" s="17" t="s">
+    <row r="170" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A170" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="B168" t="s">
-        <v>271</v>
-      </c>
-      <c r="C168" s="6" t="s">
+      <c r="B170" s="12" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A170" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="B170" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C170" s="21" t="s">
+      <c r="C170" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A172" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B172" t="s">
+        <v>269</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A172" s="17" t="s">
+    <row r="174" spans="1:3" s="43" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A174" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B174" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="B172" t="s">
-        <v>271</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A174" s="8" t="s">
+      <c r="C174" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A176" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="B174" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="C174" s="17" t="s">
+      <c r="B176" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A178" s="7" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A176" s="17" t="s">
+      <c r="B178" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A178" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C178" s="6" t="s">
+    </row>
+    <row r="180" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A180" s="16" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A180" s="17" t="s">
+      <c r="B180" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C180" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C180" s="6" t="s">
+    </row>
+    <row r="182" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A182" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B182" s="12" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A182" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="B182" s="13" t="s">
+      <c r="C182" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="C182" s="21" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A184" s="34" t="s">
+    </row>
+    <row r="184" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A184" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C184" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="B184" s="15" t="s">
+    </row>
+    <row r="186" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A186" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="C184" s="21" t="s">
+      <c r="B186" s="14" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="B186" s="15" t="s">
+      <c r="C186" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C186" s="21" t="s">
+      <c r="B188" t="s">
+        <v>306</v>
+      </c>
+      <c r="C188" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A188" s="17" t="s">
+    <row r="190" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A190" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B190" t="s">
+        <v>306</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C188" s="6" t="s">
+    </row>
+    <row r="192" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A192" s="16" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A190" s="17" t="s">
+      <c r="B192" t="s">
+        <v>306</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B190" t="s">
-        <v>309</v>
-      </c>
-      <c r="C190" s="6" t="s">
+    </row>
+    <row r="194" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A194" s="16" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A192" s="17" t="s">
+      <c r="B194" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B192" t="s">
-        <v>309</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A194" s="17" t="s">
+      <c r="C194" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B194" s="1" t="s">
+    </row>
+    <row r="196" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A196" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C194" s="6" t="s">
+      <c r="B196" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A198" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A196" s="17" t="s">
+      <c r="C198" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A198" s="17" t="s">
+    </row>
+    <row r="200" spans="1:3" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A200" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B200" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="C200" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="C198" s="6" t="s">
+    </row>
+    <row r="202" spans="1:3" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A202" s="27" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A200" s="29" t="s">
+      <c r="B202" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C202" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>328</v>
+    </row>
+    <row r="204" spans="1:3" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A204" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="B204" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="C204" s="25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A206" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C206" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A208" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A210" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C210" s="20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A212" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A214" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C214" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A216" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C216" s="20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A218" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C218" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A220" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C220" s="20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A222" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="B222" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C222" s="20" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
@@ -3060,10 +3317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.2"/>
@@ -3076,7 +3333,7 @@
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3093,7 +3350,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="153" customHeight="1" x14ac:dyDescent="0.2">
@@ -3108,252 +3365,260 @@
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>45</v>
+      <c r="B8" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>326</v>
+      <c r="B12" s="11" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>35</v>
+      <c r="B14" s="9" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>67</v>
+        <v>43</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>168</v>
+        <v>46</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>101</v>
+        <v>77</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>189</v>
+        <v>90</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>97</v>
+      <c r="A28" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="182" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>165</v>
+        <v>115</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>129</v>
+        <v>117</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="179" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>252</v>
+        <v>128</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="365" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>301</v>
+        <v>130</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>169</v>
+        <v>142</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>160</v>
+        <v>146</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>219</v>
+        <v>169</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>220</v>
+        <v>170</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>209</v>
+        <v>202</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>297</v>
+        <v>195</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="206" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>256</v>
+        <v>222</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>268</v>
+        <v>230</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>298</v>
+        <v>232</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>259</v>
+        <v>235</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>291</v>
+        <v>270</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="179" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>327</v>
+        <v>320</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="226" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/刷题简单归类和方法.xlsx
+++ b/刷题简单归类和方法.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="3820" yWindow="460" windowWidth="20940" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="3440" yWindow="460" windowWidth="20940" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="396">
   <si>
     <t>179. Largest Number</t>
   </si>
@@ -279,11 +279,6 @@
   </si>
   <si>
     <t>1. Merge Sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Merge Sorted Array(http://www.lintcode.com/en/problem/merge-sorted-array)
-Merge Two Sorted Arrays(http://www.lintcode.com/en/problem/merge-two-sorted-arrays/)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -682,20 +677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Product of Array Exclude Itself(http://www.lintcode.com/en/problem/product-of-array-exclude-itself/)
-First Missing Positive(http://www.lintcode.com/en/problem/first-missing-positive/)
-3Sum(http://www.lintcode.com/en/problem/3sum/)
-3Sum Closest(http://www.lintcode.com/en/problem/3sum-closest/)
-Partition Array(http://www.lintcode.com/en/problem/partition-array/)
-Remove Duplicates from Sorted Array II(http://www.lintcode.com/en/problem/merge-two-sorted-arrays/)
-Subarray Sum Closest(http://www.lintcode.com/en/problem/subarray-sum-closest/)
-Majority Number(http://www.lintcode.com/en/problem/majority-number/)
-Next Permutation(http://www.lintcode.com/en/problem/next-permutation/) 
-Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)
-Majority Number II(http://www.lintcode.com/en/problem/majority-number-ii)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Majority Number(http://www.lintcode.com/en/problem/majority-number/)
 Majority Number II(http://www.lintcode.com/en/problem/majority-number-ii)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -862,13 +843,6 @@
   </si>
   <si>
     <t>Add Two Numbers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Partition List(http://www.lintcode.com/en/problem/partition-list)
-Reorder List(http://www.lintcode.com/en/problem/reorder-list)
-Sort List(http://www.lintcode.com/en/problem/sort-list)
-Add Two Numbers(http://www.lintcode.com/en/problem/add-two-numbers/)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1101,13 +1075,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Binary Tree Preorder Traversal(http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/)
-Validate Binary Search Tree(http://www.lintcode.com/en/problem/validate-binary-search-tree/)
-Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree)
-Binary Tree Inorder Traversal(http://www.lintcode.com/en/problem/binary-tree-inorder-traversal/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Construct Binary Tree from Inorder and Postorder Traversal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1263,12 +1230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Anagrams(http://www.lintcode.com/en/problem/anagrams)
-Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting)
-Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.lintcode.com/en/problem/clone-graph/</t>
   </si>
   <si>
@@ -1468,12 +1429,6 @@
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/longest-common-subsequence</t>
-  </si>
-  <si>
-    <t>Edit Distance(http://www.lintcode.com/en/problem/edit-distance)
-Distinct Subsequences(http://www.lintcode.com/en/problem/distinct-subsequences/)
-Longest Common Subsequence(http://www.lintcode.com/en/problem/longest-common-subsequence)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Longest Increasing Subsequence</t>
@@ -1526,29 +1481,6 @@
 Maximum Subarray II(http://www.lintcode.com/en/problem/maximum-subarray-ii)
 Maximum Subarray III(http://www.lintcode.com/en/problem/maximum-subarray-iii/)
 Maximum Subarray Difference(http://www.lintcode.com/en/problem/maximum-subarray-difference/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Substring(http://www.lintcode.com/en/problem/longest-common-substring)
-Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)
-Unique Paths II(http://www.lintcode.com/en/problem/unique-paths-ii/)
-Climbing Stairs(http://www.lintcode.com/en/problem/climbing-stairs/)
-Triangle(http://www.lintcode.com/en/problem/triangle/)
-Maximum Subarray(http://www.lintcode.com/en/problem/maximum-subarray/)
-Maximum Product Subarray(http://www.lintcode.com/en/problem/maximum-product-subarray/)
-Edit Distance(http://www.lintcode.com/en/problem/edit-distance)
-Distinct Subsequences(http://www.lintcode.com/en/problem/distinct-subsequences/)
-Word Break(http://www.lintcode.com/en/problem/word-break/)
-Backpack(http://www.lintcode.com/en/problem/backpack/)
-Interleaving String(http://www.lintcode.com/en/problem/interleaving-string/)
-Minimum Subarray(http://www.lintcode.com/en/problem/minimum-subarray/)
-Minimum Adjustment Cost(http://www.lintcode.com/en/problem/minimum-adjustment-cost/)
-Longest Common Subsequence(http://www.lintcode.com/en/problem/longest-common-subsequence)
-Longest Increasing Subsequence(http://www.lintcode.com/en/problem/longest-increasing-subsequence/)
-Maximum Subarray II(http://www.lintcode.com/en/problem/maximum-subarray-ii)
-Maximum Subarray III(http://www.lintcode.com/en/problem/maximum-subarray-iii/)
-Maximum Subarray Difference(http://www.lintcode.com/en/problem/maximum-subarray-difference/)
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1588,12 +1520,228 @@
   <si>
     <t>http://www.lintcode.com/en/problem/n-queens-ii/</t>
   </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. HashMap
+2. Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>1. Merge Linked List
+2. PriorityQueue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/merge-k-sorted-lists/</t>
+  </si>
+  <si>
+    <t>Partition List(http://www.lintcode.com/en/problem/partition-list)
+Reorder List(http://www.lintcode.com/en/problem/reorder-list)
+Sort List(http://www.lintcode.com/en/problem/sort-list)
+Add Two Numbers(http://www.lintcode.com/en/problem/add-two-numbers/)
+Merge k Sorted Lists(http://www.lintcode.com/en/problem/merge-k-sorted-lists/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/min-stack/</t>
+  </si>
+  <si>
+    <t>Implement Queue by Two Stacks</t>
+  </si>
+  <si>
+    <t>1. Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/implement-queue-by-two-stacks/</t>
+  </si>
+  <si>
+    <t>Ugly Number II</t>
+  </si>
+  <si>
+    <t>1. Merge Sort
+2. Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Sorted Array(http://www.lintcode.com/en/problem/merge-sorted-array)
+Merge Two Sorted Arrays(http://www.lintcode.com/en/problem/merge-two-sorted-arrays/)
+Ugly Number II(http://www.lintcode.com/en/problem/ugly-number-ii/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/ugly-number-ii/</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal(http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/)
+Validate Binary Search Tree(http://www.lintcode.com/en/problem/validate-binary-search-tree/)
+Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree)
+Binary Tree Inorder Traversal(http://www.lintcode.com/en/problem/binary-tree-inorder-traversal/)
+Min Stack(http://www.lintcode.com/en/problem/min-stack/)
+Implement Queue by Two Stacks(http://www.lintcode.com/en/problem/implement-queue-by-two-stacks/)
+Largest Rectangle in Histogram(http://www.lintcode.com/en/problem/largest-rectangle-in-histogram/#)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/largest-rectangle-in-histogram/#</t>
+  </si>
+  <si>
+    <t>1. Stack
+2. Array
+3. 单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product of Array Exclude Itself(http://www.lintcode.com/en/problem/product-of-array-exclude-itself/)
+First Missing Positive(http://www.lintcode.com/en/problem/first-missing-positive/)
+3Sum(http://www.lintcode.com/en/problem/3sum/)
+3Sum Closest(http://www.lintcode.com/en/problem/3sum-closest/)
+Partition Array(http://www.lintcode.com/en/problem/partition-array/)
+Remove Duplicates from Sorted Array II(http://www.lintcode.com/en/problem/merge-two-sorted-arrays/)
+Subarray Sum Closest(http://www.lintcode.com/en/problem/subarray-sum-closest/)
+Majority Number(http://www.lintcode.com/en/problem/majority-number/)
+Next Permutation(http://www.lintcode.com/en/problem/next-permutation/) 
+Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)
+Majority Number II(http://www.lintcode.com/en/problem/majority-number-ii)
+Longest Consecutive Sequence(http://www.lintcode.com/en/problem/longest-consecutive-sequence/)
+Ugly Number II(http://www.lintcode.com/en/problem/ugly-number-ii/)
+Largest Rectangle in Histogram(http://www.lintcode.com/en/problem/largest-rectangle-in-histogram/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram(http://www.lintcode.com/en/problem/largest-rectangle-in-histogram/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Stream Median</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. PriorityQueue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists(http://www.lintcode.com/en/problem/merge-k-sorted-lists/)
+Data Stream Median(http://www.lintcode.com/en/problem/data-stream-median/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/data-stream-median/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Search II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Trie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/word-search-ii/</t>
+  </si>
+  <si>
+    <t>Word Search II(http://www.lintcode.com/en/problem/word-search-ii/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/regular-expression-matching/description/</t>
+  </si>
+  <si>
+    <t>1. DP
+2. 错位基因配对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit Distance(http://www.lintcode.com/en/problem/edit-distance)
+Distinct Subsequences(http://www.lintcode.com/en/problem/distinct-subsequences/)
+Longest Common Subsequence(http://www.lintcode.com/en/problem/longest-common-subsequence)
+Regular Expression Matching(https://leetcode.com/problems/regular-expression-matching/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Substring(http://www.lintcode.com/en/problem/longest-common-substring)
+Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)
+Unique Paths II(http://www.lintcode.com/en/problem/unique-paths-ii/)
+Climbing Stairs(http://www.lintcode.com/en/problem/climbing-stairs/)
+Triangle(http://www.lintcode.com/en/problem/triangle/)
+Maximum Subarray(http://www.lintcode.com/en/problem/maximum-subarray/)
+Maximum Product Subarray(http://www.lintcode.com/en/problem/maximum-product-subarray/)
+Edit Distance(http://www.lintcode.com/en/problem/edit-distance)
+Distinct Subsequences(http://www.lintcode.com/en/problem/distinct-subsequences/)
+Word Break(http://www.lintcode.com/en/problem/word-break/)
+Backpack(http://www.lintcode.com/en/problem/backpack/)
+Interleaving String(http://www.lintcode.com/en/problem/interleaving-string/)
+Minimum Subarray(http://www.lintcode.com/en/problem/minimum-subarray/)
+Minimum Adjustment Cost(http://www.lintcode.com/en/problem/minimum-adjustment-cost/)
+Longest Common Subsequence(http://www.lintcode.com/en/problem/longest-common-subsequence)
+Longest Increasing Subsequence(http://www.lintcode.com/en/problem/longest-increasing-subsequence/)
+Maximum Subarray II(http://www.lintcode.com/en/problem/maximum-subarray-ii)
+Maximum Subarray III(http://www.lintcode.com/en/problem/maximum-subarray-iii/)
+Maximum Subarray Difference(http://www.lintcode.com/en/problem/maximum-subarray-difference/)
+Regular Expression Matching(https://leetcode.com/problems/regular-expression-matching/description/)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roman to Integer</t>
+  </si>
+  <si>
+    <t>1. HashMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/roman-to-integer/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anagrams(http://www.lintcode.com/en/problem/anagrams)
+Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting)
+Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)
+Longest Consecutive Sequence(http://www.lintcode.com/en/problem/longest-consecutive-sequence/)
+Roman to Integer(https://leetcode.com/problems/roman-to-integer/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1610,14 +1758,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color theme="1"/>
@@ -1625,11 +1765,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1644,6 +1779,11 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1677,9 +1817,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1690,7 +1830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1699,10 +1839,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1730,16 +1870,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1758,15 +1895,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1774,40 +1905,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2086,21 +2209,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="A222" sqref="A222:XFD222"/>
+    <sheetView topLeftCell="B234" workbookViewId="0">
+      <selection activeCell="C242" sqref="C242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.5" style="28" customWidth="1"/>
+    <col min="1" max="1" width="60.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="63.83203125" customWidth="1"/>
     <col min="3" max="3" width="75.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2111,7 +2234,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2119,7 +2242,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -2127,14 +2250,14 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -2142,7 +2265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2154,13 +2277,13 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="31" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2175,7 +2298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
@@ -2186,7 +2309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
@@ -2208,7 +2331,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>38</v>
       </c>
@@ -2230,7 +2353,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>45</v>
       </c>
@@ -2252,7 +2375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>56</v>
       </c>
@@ -2263,7 +2386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>57</v>
       </c>
@@ -2274,7 +2397,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>59</v>
       </c>
@@ -2285,8 +2408,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="33" t="s">
+    <row r="36" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B36" s="14" t="s">
@@ -2296,7 +2419,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>64</v>
       </c>
@@ -2309,1001 +2432,1105 @@
     </row>
     <row r="40" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="C40" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+      <c r="B42" t="s">
         <v>71</v>
       </c>
-      <c r="B42" t="s">
-        <v>72</v>
-      </c>
       <c r="C42" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
+      <c r="B44" t="s">
         <v>75</v>
       </c>
-      <c r="B44" t="s">
-        <v>76</v>
-      </c>
       <c r="C44" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="6" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-    </row>
-    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="s">
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="B48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="6" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="B52" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C54" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="6" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
+      <c r="B58" t="s">
         <v>94</v>
       </c>
-      <c r="B58" t="s">
-        <v>95</v>
-      </c>
       <c r="C58" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="B60" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="20" t="s">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
+      <c r="B68" t="s">
         <v>107</v>
       </c>
-      <c r="B68" t="s">
-        <v>108</v>
-      </c>
       <c r="C68" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
+      <c r="B70" t="s">
         <v>112</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="C74" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="20" t="s">
+    </row>
+    <row r="76" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="30" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="33" t="s">
+      <c r="B76" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="C76" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="36" t="s">
+    </row>
+    <row r="80" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="C80" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C80" s="20" t="s">
+    </row>
+    <row r="82" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="30" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="33" t="s">
+      <c r="B82" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="C82" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C82" s="20" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="16" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="16" t="s">
+      <c r="B84" t="s">
         <v>137</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C84" s="6" t="s">
+    </row>
+    <row r="86" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A86" s="30" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A86" s="21" t="s">
+      <c r="B86" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>141</v>
-      </c>
       <c r="C86" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="C88" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C90" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B90" s="22" t="s">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="B92" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="16" t="s">
+      <c r="C92" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B92" t="s">
-        <v>151</v>
-      </c>
-      <c r="C92" s="6" t="s">
+    </row>
+    <row r="94" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A94" s="22" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A94" s="23" t="s">
+      <c r="B94" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B94" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C94" s="25" t="s">
+    </row>
+    <row r="96" spans="1:3" s="21" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A96" s="26" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A96" s="27" t="s">
+      <c r="B96" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B96" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C96" s="26" t="s">
+      <c r="C96" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="30" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="33" t="s">
+      <c r="B98" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="B98" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C98" s="20" t="s">
+    </row>
+    <row r="100" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="32" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="36" t="s">
-        <v>162</v>
-      </c>
       <c r="B100" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C100" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="22" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B102" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C102" s="25"/>
+      <c r="B102" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" s="24"/>
     </row>
     <row r="104" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C104" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B106" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="C106" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C108" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B108" s="1" t="s">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="B110" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="16" t="s">
+      <c r="C110" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="B110" t="s">
-        <v>180</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" s="29" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A116" s="27" t="s">
+    </row>
+    <row r="116" spans="1:3" s="27" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A116" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B116" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C116" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B116" s="30" t="s">
+    </row>
+    <row r="118" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A118" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B118" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C116" s="27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A118" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="B118" s="12" t="s">
+      <c r="C118" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C118" s="13" t="s">
+    </row>
+    <row r="120" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C122" s="6" t="s">
+    </row>
+    <row r="124" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A124" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C124" s="20" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A124" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A130" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B130" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C128" s="6" t="s">
+      <c r="C130" s="20" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A130" s="33" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B132" t="s">
+        <v>188</v>
+      </c>
+      <c r="C132" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C130" s="20" t="s">
+    </row>
+    <row r="134" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A134" s="30" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A132" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B132" t="s">
-        <v>190</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A134" s="33" t="s">
+      <c r="B134" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C134" s="20" t="s">
         <v>216</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A138" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B138" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C138" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C136" s="6" t="s">
+    </row>
+    <row r="140" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A140" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" s="21" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A142" s="26" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A138" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A140" s="28" t="s">
+      <c r="B142" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A142" s="39" t="s">
+      <c r="C142" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="B142" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C142" s="25" t="s">
+    </row>
+    <row r="144" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A144" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B144" s="23" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A144" s="39" t="s">
+      <c r="C144" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="B144" s="24" t="s">
+    </row>
+    <row r="146" spans="1:3" s="21" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A146" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="C144" s="25" t="s">
+      <c r="B146" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C146" s="24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A146" s="39" t="s">
+    <row r="148" spans="1:3" s="21" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A148" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="B146" s="24" t="s">
+      <c r="B148" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C148" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="C146" s="25" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" s="22" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A148" s="39" t="s">
+    </row>
+    <row r="150" spans="1:3" s="21" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A150" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B148" s="24" t="s">
+      <c r="B150" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C150" s="24"/>
+    </row>
+    <row r="152" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A152" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="C148" s="25" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A150" s="39" t="s">
+      <c r="B152" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B150" s="24" t="s">
+      <c r="C152" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="C150" s="25"/>
-    </row>
-    <row r="152" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A152" s="41" t="s">
+    </row>
+    <row r="154" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A154" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B154" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C152" s="20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A154" s="21" t="s">
+      <c r="C154" s="20" t="s">
         <v>248</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A156" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A160" s="16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B166" t="s">
         <v>265</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C166" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="7" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B168" t="s">
+        <v>265</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C166" s="6" t="s">
+    </row>
+    <row r="170" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A170" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B170" s="12" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A168" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="B168" t="s">
-        <v>269</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A170" s="33" t="s">
+      <c r="C170" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="B170" s="12" t="s">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C170" s="20" t="s">
+      <c r="B172" t="s">
+        <v>265</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" s="37" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A174" s="7" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A172" s="16" t="s">
+      <c r="B174" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C174" s="16" t="s">
         <v>279</v>
-      </c>
-      <c r="B172" t="s">
-        <v>269</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" s="43" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A174" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B174" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="16" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A180" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A182" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="B182" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A182" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="B182" s="12" t="s">
+      <c r="C182" s="20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="C182" s="20" t="s">
+      <c r="B184" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C184" s="20" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A184" s="33" t="s">
+    <row r="186" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="B186" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B184" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C184" s="20" t="s">
+      <c r="C186" s="20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="33" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="B186" s="14" t="s">
+      <c r="B188" t="s">
+        <v>301</v>
+      </c>
+      <c r="C188" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C186" s="20" t="s">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B190" t="s">
+        <v>301</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A188" s="16" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B192" t="s">
+        <v>301</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A190" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="B190" t="s">
-        <v>306</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A192" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="B192" t="s">
-        <v>306</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="16" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" s="16" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A198" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A200" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B200" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="C200" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="B198" s="1" t="s">
+    </row>
+    <row r="202" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A202" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="C198" s="6" t="s">
+      <c r="B202" s="23" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A200" s="39" t="s">
+      <c r="C202" s="24" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A204" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="B200" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="C200" s="25" t="s">
+      <c r="B204" s="23" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A202" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="B202" s="24" t="s">
+      <c r="C204" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="C202" s="25" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A204" s="27" t="s">
+    </row>
+    <row r="206" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A206" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="B204" s="24" t="s">
+      <c r="B206" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="C204" s="25" t="s">
+      <c r="C206" s="20" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A206" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="B206" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="C206" s="20" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C210" s="20" t="s">
         <v>335</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A210" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="B210" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="C210" s="20" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A214" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C214" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C212" s="6" t="s">
+    </row>
+    <row r="216" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A216" s="30" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A214" s="33" t="s">
+      <c r="B216" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C216" s="20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A218" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="B214" s="12" t="s">
+      <c r="B218" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C218" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A220" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="C214" s="20" t="s">
+      <c r="B220" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C220" s="20" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="216" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A216" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="B216" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C216" s="20" t="s">
+    <row r="222" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="30" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A218" s="21" t="s">
+      <c r="B222" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="B218" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C218" s="20" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A220" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="B220" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C220" s="20" t="s">
+      <c r="C222" s="20" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="222" spans="1:3" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A222" s="33" t="s">
+    <row r="224" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A224" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A226" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B222" s="14" t="s">
+      <c r="B226" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C222" s="20" t="s">
-        <v>360</v>
+      <c r="C226" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B228" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C228" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="B230" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="C230" s="24" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A232" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="B232" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C232" s="20" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A234" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B234" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C234" s="20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="B236" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C236" s="20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B238" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C238" s="20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A240" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="B240" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C240" s="20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="B242" t="s">
+        <v>393</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3317,10 +3544,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.2"/>
@@ -3333,7 +3560,7 @@
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3350,7 +3577,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="153" customHeight="1" x14ac:dyDescent="0.2">
@@ -3374,7 +3601,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>293</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -3382,7 +3609,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
@@ -3390,7 +3617,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -3398,15 +3625,15 @@
         <v>43</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="306" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>166</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -3419,202 +3646,226 @@
     </row>
     <row r="22" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="182" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="179" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="365" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>207</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="206" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B54" s="40" t="s">
-        <v>266</v>
+        <v>227</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>257</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="179" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="226" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="260" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="235" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="234" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/刷题简单归类和方法.xlsx
+++ b/刷题简单归类和方法.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="460" windowWidth="20940" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="23560" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="484">
   <si>
     <t>179. Largest Number</t>
   </si>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>487. Max Consecutive Ones II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Comparator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,13 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>strstr(http://www.lintcode.com/en/problem/strstr/)
-Remove Element(http://www.lintcode.com/en/problem/remove-element)
-Remove Duplicates from Sorted Array(http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-array)
-Merge Sorted Array(http://www.lintcode.com/en/problem/merge-sorted-array)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Product of Array Exclude Itself</t>
   </si>
   <si>
@@ -507,11 +496,6 @@
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/unique-binary-search-trees/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trailing Zeros(http://www.lintcode.com/en/problem/trailing-zeros/)
-Unique Binary Search Trees(http://www.lintcode.com/en/problem/unique-binary-search-trees/)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -879,6 +863,900 @@
   </si>
   <si>
     <t>Linked List Cycle II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List(http://www.lintcode.com/en/problem/remove-nth-node-from-end-of-list/)
+Convert Sorted List to Balanced BST(http://www.lintcode.com/en/problem/convert-sorted-list-to-balanced-bst/)
+Linked List Cycle(http://www.lintcode.com/en/problem/linked-list-cycle)
+Nth to Last Node in List(http://www.lintcode.com/en/problem/nth-to-last-node-in-list)
+Linked List Cycle II(http://www.lintcode.com/en/problem/linked-list-cycle-ii)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/linked-list-cycle-ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Tree
+2. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/balanced-binary-tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/maximum-depth-of-binary-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert Node in a Binary Search Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Search Tree
+2. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Tree Traversal
+2. Queue
+3. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Tree Traversal
+2. Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Search Tree
+2. Stack
+3. Inorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/validate-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>1. Binary Search Tree
+2. Preorder
+3. Inorder
+4. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search Range in Binary Search Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Search Tree
+2. Inorder
+3. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Serialization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Tree Traversal
+2. Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/binary-tree-serialization/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Node in Binary Search Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Search Tree
+2. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees(http://www.lintcode.com/en/problem/unique-binary-search-trees/): 选取不同值作为root计算数目
+Insert Node in a Binary Search Tree(http://www.lintcode.com/en/problem/insert-node-in-a-binary-search-tree/)
+Remove Node in Binary Search Tree(http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Minimum Depth of Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Tree
+2. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree(http://www.lintcode.com/en/problem/maximum-depth-of-binary-tree/)
+Balanced Binary Tree(http://www.lintcode.com/en/problem/balanced-binary-tree)
+Minimum Depth of Binary Tree(http://www.lintcode.com/en/problem/minimum-depth-of-binary-tree/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Tree Traversal
+2. Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Inorder and Postorder Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Tree Traversal
+2. Inorder
+3. Postorder
+4. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/construct-binary-tree-from-inorder-and-postorder-traversal/</t>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Tree Traversal
+2. Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/binary-tree-zigzag-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Binary Tree Traversal
+2. Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/binary-tree-level-order-traversal-ii/</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t>1. Backtracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backtracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/combinations/</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/combination-sum/</t>
+  </si>
+  <si>
+    <t>Topological Sorting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Queue
+2. HashMap
+3. Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting): Directed Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/topological-sorting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subsets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/subsets/</t>
+  </si>
+  <si>
+    <t>1. Backtracking
+2. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subsets II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/subsets-ii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Permutations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Permutations II</t>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/permutations-ii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/permutations/</t>
+  </si>
+  <si>
+    <t>Combination Sum II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/combination-sum-ii/</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Hashmap
+2. Queue
+3. Deep Copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/clone-graph/</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer(http://www.lintcode.com/en/problem/copy-list-with-random-pointer/)
+Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/)
+Binary Tree Serialization(http://www.lintcode.com/en/problem/binary-tree-serialization/)
+Binary Tree Zigzag Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-zigzag-level-order-traversal/)
+Binary Tree Level Order Traversal II(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal-ii/)
+Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting)
+Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-Queens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/n-queens/</t>
+  </si>
+  <si>
+    <t>Word Ladder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Ladder(http://www.lintcode.com/en/problem/word-ladder/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/word-ladder/</t>
+  </si>
+  <si>
+    <t>Unique Paths II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/unique-paths-ii/</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/climbing-stairs/</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/triangle/</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP
+2. 区间划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/maximum-subarray/</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP
+2. 错位DNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/edit-distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错位基因配对(DP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distinct Subsequences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/distinct-subsequences/</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Substring
+2. DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/word-break/</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP
+2. Backpack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backpack(DP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/backpack/</t>
+  </si>
+  <si>
+    <t>Backpack(http://www.lintcode.com/en/problem/backpack/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interleaving String</t>
+  </si>
+  <si>
+    <t>1. Substring
+2. DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/interleaving-string/</t>
+  </si>
+  <si>
+    <t>Minimum Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP
+2. 区间划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/minimum-subarray/</t>
+  </si>
+  <si>
+    <t>Minimum Adjustment Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/minimum-adjustment-cost/</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP
+2. 错位DNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/longest-common-subsequence</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DP
+2. Binary Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/longest-increasing-subsequence/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Subarray II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/maximum-subarray-ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Subarray III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Subarray Difference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/maximum-subarray-difference/</t>
+  </si>
+  <si>
+    <t>Maximum Subarray(http://www.lintcode.com/en/problem/maximum-subarray/)
+Maximum Product Subarray(http://www.lintcode.com/en/problem/maximum-product-subarray/)
+Minimum Subarray(http://www.lintcode.com/en/problem/minimum-subarray/)
+Maximum Subarray II(http://www.lintcode.com/en/problem/maximum-subarray-ii)
+Maximum Subarray III(http://www.lintcode.com/en/problem/maximum-subarray-iii/)
+Maximum Subarray Difference(http://www.lintcode.com/en/problem/maximum-subarray-difference/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/problem/maximum-subarray-iii</t>
+  </si>
+  <si>
+    <t>N-Queens II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/n-queens-ii/</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. HashMap
+2. Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>1. Merge Linked List
+2. PriorityQueue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/merge-k-sorted-lists/</t>
+  </si>
+  <si>
+    <t>Partition List(http://www.lintcode.com/en/problem/partition-list)
+Reorder List(http://www.lintcode.com/en/problem/reorder-list)
+Sort List(http://www.lintcode.com/en/problem/sort-list)
+Add Two Numbers(http://www.lintcode.com/en/problem/add-two-numbers/)
+Merge k Sorted Lists(http://www.lintcode.com/en/problem/merge-k-sorted-lists/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/min-stack/</t>
+  </si>
+  <si>
+    <t>Implement Queue by Two Stacks</t>
+  </si>
+  <si>
+    <t>1. Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/implement-queue-by-two-stacks/</t>
+  </si>
+  <si>
+    <t>Ugly Number II</t>
+  </si>
+  <si>
+    <t>1. Merge Sort
+2. Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Sorted Array(http://www.lintcode.com/en/problem/merge-sorted-array)
+Merge Two Sorted Arrays(http://www.lintcode.com/en/problem/merge-two-sorted-arrays/)
+Ugly Number II(http://www.lintcode.com/en/problem/ugly-number-ii/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/ugly-number-ii/</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/largest-rectangle-in-histogram/#</t>
+  </si>
+  <si>
+    <t>1. Stack
+2. Array
+3. 单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Stream Median</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. PriorityQueue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists(http://www.lintcode.com/en/problem/merge-k-sorted-lists/)
+Data Stream Median(http://www.lintcode.com/en/problem/data-stream-median/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/data-stream-median/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Search II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Trie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/word-search-ii/</t>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/regular-expression-matching/description/</t>
+  </si>
+  <si>
+    <t>1. DP
+2. 错位基因配对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roman to Integer</t>
+  </si>
+  <si>
+    <t>1. HashMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/roman-to-integer/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valid Parenthese</t>
+  </si>
+  <si>
+    <t>1. Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-parentheses/description/</t>
+  </si>
+  <si>
+    <t>Reverse Nodes in k-Group</t>
+  </si>
+  <si>
+    <t>1. Linked List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-nodes-in-k-group/description/</t>
+  </si>
+  <si>
+    <t>Multiply Strings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/multiply-strings/description/</t>
+  </si>
+  <si>
+    <t>Wildcard Matching</t>
+  </si>
+  <si>
+    <t>1. DP
+2. 错位基因配对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit Distance(http://www.lintcode.com/en/problem/edit-distance)
+Distinct Subsequences(http://www.lintcode.com/en/problem/distinct-subsequences/)
+Longest Common Subsequence(http://www.lintcode.com/en/problem/longest-common-subsequence)
+Regular Expression Matching(https://leetcode.com/problems/regular-expression-matching/description/)
+Wildcard Matching(https://leetcode.com/problems/wildcard-matching/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/wildcard-matching/description/</t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t>1. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/powx-n/description/</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>1. Binary Search
+2. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/median-of-two-sorted-arrays/description/</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>1. Backtracking
+2. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combinations(http://www.lintcode.com/en/problem/combinations/)
+Combination Sum(http://www.lintcode.com/en/problem/combination-sum/)
+Subsets(http://www.lintcode.com/en/problem/subsets/)
+Subsets II(http://www.lintcode.com/en/problem/subsets-ii/)
+Permutations(http://www.lintcode.com/en/problem/permutations/)
+Permutations II(http://www.lintcode.com/en/problem/permutations-ii/)
+Combination Sum II(http://www.lintcode.com/en/problem/combination-sum-ii/)
+Generate Parentheses(https://leetcode.com/problems/generate-parentheses/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/generate-parentheses/description/</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Two Pointer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/trapping-rain-water/description/</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>1. Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/spiral-matrix/description/</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-intervals/description/</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-interval/description/</t>
+  </si>
+  <si>
+    <t>Plus One</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/plus-one/description/</t>
+  </si>
+  <si>
+    <t>Word Break II</t>
+  </si>
+  <si>
+    <t>1. 记忆化搜索
+2. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-break-ii/description/</t>
+  </si>
+  <si>
+    <t>记忆化搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Break II(https://leetcode.com/problems/word-break-ii/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>1. Linked List
+2. System Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lru-cache/description/</t>
+  </si>
+  <si>
+    <t>System Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4</t>
+  </si>
+  <si>
+    <t>1. String
+2. System Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/read-n-characters-given-read4/description/</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix(http://www.lintcode.com/en/problem/longest-common-prefix)
+String to Integer II(http://www.lintcode.com/en/problem/string-to-integer-ii)
+Word Break(http://www.lintcode.com/en/problem/word-break/)
+Interleaving String(http://www.lintcode.com/en/problem/interleaving-string/)
+Multiply Strings(https://leetcode.com/problems/multiply-strings/description/)
+Read N Characters Given Read4(https://leetcode.com/problems/read-n-characters-given-read4/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4 II - Call multiple times</t>
+  </si>
+  <si>
+    <t>LRU Cache(https://leetcode.com/problems/lru-cache/description/)
+Read N Characters Given Read4(https://leetcode.com/problems/read-n-characters-given-read4/description/)
+Read N Characters Given Read4 II - Call multiple times(https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times/description/)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -895,552 +1773,28 @@
 Nth to Last Node in List(http://www.lintcode.com/en/problem/nth-to-last-node-in-list)
 Remove Duplicates from Sorted List II(http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-list-ii)
 Reverse Linked List II(http://www.lintcode.com/en/problem/reverse-linked-list-ii/)
-Linked List Cycle II(http://www.lintcode.com/en/problem/linked-list-cycle-ii)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove Nth Node From End of List(http://www.lintcode.com/en/problem/remove-nth-node-from-end-of-list/)
-Convert Sorted List to Balanced BST(http://www.lintcode.com/en/problem/convert-sorted-list-to-balanced-bst/)
-Linked List Cycle(http://www.lintcode.com/en/problem/linked-list-cycle)
-Nth to Last Node in List(http://www.lintcode.com/en/problem/nth-to-last-node-in-list)
-Linked List Cycle II(http://www.lintcode.com/en/problem/linked-list-cycle-ii)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/linked-list-cycle-ii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum Depth of Binary Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Binary Tree
-2. Recursion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Balanced Binary Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/balanced-binary-tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/maximum-depth-of-binary-tree/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Insert Node in a Binary Search Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Binary Search Tree
-2. Recursion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Level Order Traversal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Binary Tree Traversal
-2. Queue
-3. Recursion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Traversal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/</t>
-  </si>
-  <si>
-    <t>Queue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Preorder Traversal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Binary Tree Traversal
-2. Stack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Validate Binary Search Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Binary Search Tree
-2. Stack
-3. Inorder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/validate-binary-search-tree/</t>
-  </si>
-  <si>
-    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
-  </si>
-  <si>
-    <t>1. Binary Search Tree
-2. Preorder
-3. Inorder
-4. Recursion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Search Range in Binary Search Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Binary Search Tree
-2. Inorder
-3. Recursion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Serialization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Binary Tree Traversal
-2. Queue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/binary-tree-serialization/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove Node in Binary Search Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Binary Search Tree
-2. Recursion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique Binary Search Trees(http://www.lintcode.com/en/problem/unique-binary-search-trees/): 选取不同值作为root计算数目
-Insert Node in a Binary Search Tree(http://www.lintcode.com/en/problem/insert-node-in-a-binary-search-tree/)
-Remove Node in Binary Search Tree(http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/</t>
-  </si>
-  <si>
-    <t>Minimum Depth of Binary Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Binary Tree
-2. Recursion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum Depth of Binary Tree(http://www.lintcode.com/en/problem/maximum-depth-of-binary-tree/)
-Balanced Binary Tree(http://www.lintcode.com/en/problem/balanced-binary-tree)
-Minimum Depth of Binary Tree(http://www.lintcode.com/en/problem/minimum-depth-of-binary-tree/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Inorder Traversal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Binary Tree Traversal
-2. Stack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Construct Binary Tree from Inorder and Postorder Traversal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Binary Tree Traversal
-2. Inorder
-3. Postorder
-4. Recursion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/construct-binary-tree-from-inorder-and-postorder-traversal/</t>
-  </si>
-  <si>
-    <t>Binary Tree Zigzag Level Order Traversal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Binary Tree Traversal
-2. Queue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/binary-tree-zigzag-level-order-traversal/</t>
-  </si>
-  <si>
-    <t>Binary Tree Level Order Traversal II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Binary Tree Traversal
-2. Queue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/): levelorder
-Binary Tree Preorder Traversal(http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/): preorder
-Validate Binary Search Tree(http://www.lintcode.com/en/problem/validate-binary-search-tree/): inorder
-Construct Binary Tree from Preorder and Inorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-preorder-and-inorder-traversal/): Preoder, Inorder
-Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree): Inorder
-Binary Tree Serialization(http://www.lintcode.com/en/problem/binary-tree-serialization/): BST
-Binary Tree Inorder Traversal(http://www.lintcode.com/en/problem/binary-tree-inorder-traversal/): Inorder
-Construct Binary Tree from Inorder and Postorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-inorder-and-postorder-traversal/): Inorder, Postorder
-Binary Tree Zigzag Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-zigzag-level-order-traversal/): Levelorder
-Binary Tree Level Order Traversal II(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal-ii/): Levelorder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/binary-tree-level-order-traversal-ii/</t>
-  </si>
-  <si>
-    <t>Combinations</t>
-  </si>
-  <si>
-    <t>1. Backtracking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Backtracking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/combinations/</t>
-  </si>
-  <si>
-    <t>Combination Sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/combination-sum/</t>
-  </si>
-  <si>
-    <t>Topological Sorting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Queue
-2. HashMap
-3. Graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting): Directed Graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/topological-sorting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Subsets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/subsets/</t>
-  </si>
-  <si>
-    <t>1. Backtracking
-2. Recursion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Subsets II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/subsets-ii/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Permutations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Permutations II</t>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/permutations-ii/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/permutations/</t>
-  </si>
-  <si>
-    <t>Combination Sum II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combinations(http://www.lintcode.com/en/problem/combinations/)
-Combination Sum(http://www.lintcode.com/en/problem/combination-sum/)
-Subsets(http://www.lintcode.com/en/problem/subsets/)
-Subsets II(http://www.lintcode.com/en/problem/subsets-ii/)
-Permutations(http://www.lintcode.com/en/problem/permutations/)
-Permutations II(http://www.lintcode.com/en/problem/permutations-ii/)
-Combination Sum II(http://www.lintcode.com/en/problem/combination-sum-ii/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/combination-sum-ii/</t>
-  </si>
-  <si>
-    <t>Clone Graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Hashmap
-2. Queue
-3. Deep Copy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/clone-graph/</t>
-  </si>
-  <si>
-    <t>Copy List with Random Pointer(http://www.lintcode.com/en/problem/copy-list-with-random-pointer/)
-Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/)
-Binary Tree Serialization(http://www.lintcode.com/en/problem/binary-tree-serialization/)
-Binary Tree Zigzag Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-zigzag-level-order-traversal/)
-Binary Tree Level Order Traversal II(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal-ii/)
-Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting)
-Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N-Queens</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Recursion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/n-queens/</t>
-  </si>
-  <si>
-    <t>Word Ladder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. BFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Ladder(http://www.lintcode.com/en/problem/word-ladder/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/word-ladder/</t>
-  </si>
-  <si>
-    <t>Unique Paths II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. DP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/unique-paths-ii/</t>
-  </si>
-  <si>
-    <t>Climbing Stairs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/climbing-stairs/</t>
-  </si>
-  <si>
-    <t>Triangle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/triangle/</t>
-  </si>
-  <si>
-    <t>Maximum Subarray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. DP
-2. 区间划分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区间划分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/maximum-subarray/</t>
-  </si>
-  <si>
-    <t>Maximum Product Subarray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. DP
-2. 错位DNA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/edit-distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错位基因配对(DP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distinct Subsequences</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/distinct-subsequences/</t>
-  </si>
-  <si>
-    <t>Word Break</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Substring
-2. DP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/word-break/</t>
-  </si>
-  <si>
-    <t>Backpack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. DP
-2. Backpack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Backpack(DP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/backpack/</t>
-  </si>
-  <si>
-    <t>Backpack(http://www.lintcode.com/en/problem/backpack/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interleaving String</t>
-  </si>
-  <si>
-    <t>1. Substring
-2. DP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Longest Common Prefix(http://www.lintcode.com/en/problem/longest-common-prefix)
-String to Integer II(http://www.lintcode.com/en/problem/string-to-integer-ii)
-Word Break(http://www.lintcode.com/en/problem/word-break/)
-Interleaving String(http://www.lintcode.com/en/problem/interleaving-string/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/interleaving-string/</t>
-  </si>
-  <si>
-    <t>Minimum Subarray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. DP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. DP
-2. 区间划分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/minimum-subarray/</t>
-  </si>
-  <si>
-    <t>Minimum Adjustment Cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/minimum-adjustment-cost/</t>
-  </si>
-  <si>
-    <t>Longest Common Subsequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. DP
-2. 错位DNA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/longest-common-subsequence</t>
-  </si>
-  <si>
-    <t>Longest Increasing Subsequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. DP
-2. Binary Search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/longest-increasing-subsequence/</t>
+Linked List Cycle II(http://www.lintcode.com/en/problem/linked-list-cycle-ii)
+Reverse Nodes in k-Group(https://leetcode.com/problems/reverse-nodes-in-k-group/description/)
+LRU Cache(https://leetcode.com/problems/lru-cache/description/)
+Read N Characters Given Read4 II - Call multiple times(https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Substring with At Most Two Distinct Characters</t>
+  </si>
+  <si>
+    <t>1. Two Pointer
+2. Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>1. Binary Search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1452,245 +1806,102 @@
 Find Minimum in Rotated Sorted Array(http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array)
 First Bad Version(http://www.lintcode.com/en/problem/first-bad-version)
 Search for a Range(http://www.lintcode.com/en/problem/search-for-a-range/)
-Longest Increasing Subsequence(http://www.lintcode.com/en/problem/longest-increasing-subsequence/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum Subarray II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/maximum-subarray-ii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum Subarray III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum Subarray Difference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/maximum-subarray-difference/</t>
-  </si>
-  <si>
-    <t>Maximum Subarray(http://www.lintcode.com/en/problem/maximum-subarray/)
-Maximum Product Subarray(http://www.lintcode.com/en/problem/maximum-product-subarray/)
-Minimum Subarray(http://www.lintcode.com/en/problem/minimum-subarray/)
-Maximum Subarray II(http://www.lintcode.com/en/problem/maximum-subarray-ii)
-Maximum Subarray III(http://www.lintcode.com/en/problem/maximum-subarray-iii/)
-Maximum Subarray Difference(http://www.lintcode.com/en/problem/maximum-subarray-difference/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/problem/maximum-subarray-iii</t>
-  </si>
-  <si>
-    <t>N-Queens II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Recursion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Fast Power(http://www.lintcode.com/en/problem/fast-power/)
-Convert Sorted List to Balanced BST(http://www.lintcode.com/en/problem/convert-sorted-list-to-balanced-bst/)
-Maximum Depth of Binary Tree(http://www.lintcode.com/en/problem/maximum-depth-of-binary-tree/)
-Balanced Binary Tree(http://www.lintcode.com/en/problem/balanced-binary-tree)
-Insert Node in a Binary Search Tree(http://www.lintcode.com/en/problem/insert-node-in-a-binary-search-tree/)
-Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/)
-Construct Binary Tree from Preorder and Inorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-preorder-and-inorder-traversal/)
-Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree)
-Remove Node in Binary Search Tree(http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/)
-Minimum Depth of Binary Tree(http://www.lintcode.com/en/problem/minimum-depth-of-binary-tree/)
-Construct Binary Tree from Inorder and Postorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-inorder-and-postorder-traversal/)
-Combinations(http://www.lintcode.com/en/problem/combinations/)
-Combination Sum(http://www.lintcode.com/en/problem/combination-sum/)
-Subsets II(http://www.lintcode.com/en/problem/subsets-ii/)
-Permutations(http://www.lintcode.com/en/problem/permutations/)
-Permutations II(http://www.lintcode.com/en/problem/permutations-ii/)
-Combination Sum II(http://www.lintcode.com/en/problem/combination-sum-ii/)
-N-Queens(http://www.lintcode.com/en/problem/n-queens/)
-N-Queens II(http://www.lintcode.com/en/problem/n-queens-ii/)
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/n-queens-ii/</t>
-  </si>
-  <si>
-    <t>Longest Consecutive Sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. HashMap
-2. Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Priority Queue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Merge k Sorted Lists</t>
-  </si>
-  <si>
-    <t>1. Merge Linked List
-2. PriorityQueue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/merge-k-sorted-lists/</t>
-  </si>
-  <si>
-    <t>Partition List(http://www.lintcode.com/en/problem/partition-list)
-Reorder List(http://www.lintcode.com/en/problem/reorder-list)
-Sort List(http://www.lintcode.com/en/problem/sort-list)
-Add Two Numbers(http://www.lintcode.com/en/problem/add-two-numbers/)
-Merge k Sorted Lists(http://www.lintcode.com/en/problem/merge-k-sorted-lists/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min Stack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+Longest Increasing Subsequence(http://www.lintcode.com/en/problem/longest-increasing-subsequence/)
+Median of Two Sorted Arrays(https://leetcode.com/problems/median-of-two-sorted-arrays/description/)
+Find Peak Element(https://leetcode.com/problems/find-peak-element/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-peak-element/description/</t>
+  </si>
+  <si>
+    <t>Missing Ranges</t>
+  </si>
+  <si>
+    <t>1. Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/missing-ranges/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Binary</t>
+  </si>
+  <si>
+    <t>1. Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trailing Zeros(http://www.lintcode.com/en/problem/trailing-zeros/)
+Unique Binary Search Trees(http://www.lintcode.com/en/problem/unique-binary-search-trees/)
+Add Binary(https://leetcode.com/problems/add-binary/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-binary/description/</t>
+  </si>
+  <si>
+    <t>Simplify Path</t>
   </si>
   <si>
     <t>1. Stack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.lintcode.com/en/problem/min-stack/</t>
-  </si>
-  <si>
-    <t>Implement Queue by Two Stacks</t>
-  </si>
-  <si>
-    <t>1. Stack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/implement-queue-by-two-stacks/</t>
-  </si>
-  <si>
-    <t>Ugly Number II</t>
-  </si>
-  <si>
-    <t>1. Merge Sort
-2. Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Merge Sorted Array(http://www.lintcode.com/en/problem/merge-sorted-array)
-Merge Two Sorted Arrays(http://www.lintcode.com/en/problem/merge-two-sorted-arrays/)
-Ugly Number II(http://www.lintcode.com/en/problem/ugly-number-ii/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/ugly-number-ii/</t>
-  </si>
-  <si>
-    <t>Largest Rectangle in Histogram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Preorder Traversal(http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/)
-Validate Binary Search Tree(http://www.lintcode.com/en/problem/validate-binary-search-tree/)
-Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree)
-Binary Tree Inorder Traversal(http://www.lintcode.com/en/problem/binary-tree-inorder-traversal/)
-Min Stack(http://www.lintcode.com/en/problem/min-stack/)
-Implement Queue by Two Stacks(http://www.lintcode.com/en/problem/implement-queue-by-two-stacks/)
-Largest Rectangle in Histogram(http://www.lintcode.com/en/problem/largest-rectangle-in-histogram/#)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/largest-rectangle-in-histogram/#</t>
-  </si>
-  <si>
-    <t>1. Stack
-2. Array
-3. 单调栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product of Array Exclude Itself(http://www.lintcode.com/en/problem/product-of-array-exclude-itself/)
-First Missing Positive(http://www.lintcode.com/en/problem/first-missing-positive/)
-3Sum(http://www.lintcode.com/en/problem/3sum/)
-3Sum Closest(http://www.lintcode.com/en/problem/3sum-closest/)
-Partition Array(http://www.lintcode.com/en/problem/partition-array/)
-Remove Duplicates from Sorted Array II(http://www.lintcode.com/en/problem/merge-two-sorted-arrays/)
-Subarray Sum Closest(http://www.lintcode.com/en/problem/subarray-sum-closest/)
-Majority Number(http://www.lintcode.com/en/problem/majority-number/)
-Next Permutation(http://www.lintcode.com/en/problem/next-permutation/) 
-Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)
-Majority Number II(http://www.lintcode.com/en/problem/majority-number-ii)
-Longest Consecutive Sequence(http://www.lintcode.com/en/problem/longest-consecutive-sequence/)
-Ugly Number II(http://www.lintcode.com/en/problem/ugly-number-ii/)
-Largest Rectangle in Histogram(http://www.lintcode.com/en/problem/largest-rectangle-in-histogram/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单调栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Largest Rectangle in Histogram(http://www.lintcode.com/en/problem/largest-rectangle-in-histogram/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Stream Median</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. PriorityQueue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Merge k Sorted Lists(http://www.lintcode.com/en/problem/merge-k-sorted-lists/)
-Data Stream Median(http://www.lintcode.com/en/problem/data-stream-median/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/data-stream-median/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Search II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Trie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lintcode.com/en/problem/word-search-ii/</t>
-  </si>
-  <si>
-    <t>Word Search II(http://www.lintcode.com/en/problem/word-search-ii/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Regular Expression Matching</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/regular-expression-matching/description/</t>
-  </si>
-  <si>
-    <t>1. DP
-2. 错位基因配对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit Distance(http://www.lintcode.com/en/problem/edit-distance)
-Distinct Subsequences(http://www.lintcode.com/en/problem/distinct-subsequences/)
-Longest Common Subsequence(http://www.lintcode.com/en/problem/longest-common-subsequence)
-Regular Expression Matching(https://leetcode.com/problems/regular-expression-matching/description/)</t>
+    <t>https://leetcode.com/problems/simplify-path/description/</t>
+  </si>
+  <si>
+    <t>Sort Colors</t>
+  </si>
+  <si>
+    <t>1. Array
+2. Two Pointer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-colors/description/</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>1. Sliding Window
+2. Two Pointer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strstr(http://www.lintcode.com/en/problem/strstr/)
+Remove Element(http://www.lintcode.com/en/problem/remove-element)
+Remove Duplicates from Sorted Array(http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-array)
+Merge Sorted Array(http://www.lintcode.com/en/problem/merge-sorted-array)
+Trapping Rain Water(https://leetcode.com/problems/trapping-rain-water/description/)
+Longest Substring with At Most Two Distinct Characters(https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/)
+Sort Colors(https://leetcode.com/problems/sort-colors/description/)
+76. Minimum Window Substring(https://leetcode.com/problems/minimum-window-substring/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>487. Max Consecutive Ones II
+76. Minimum Window Substring(https://leetcode.com/problems/minimum-window-substring/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-window-substring/description/</t>
+  </si>
+  <si>
+    <t>1. Array
+2. Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximal-rectangle/description/</t>
+  </si>
+  <si>
+    <t>91. Decode Ways</t>
+  </si>
+  <si>
+    <t>1. DP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1714,27 +1925,165 @@
 Maximum Subarray III(http://www.lintcode.com/en/problem/maximum-subarray-iii/)
 Maximum Subarray Difference(http://www.lintcode.com/en/problem/maximum-subarray-difference/)
 Regular Expression Matching(https://leetcode.com/problems/regular-expression-matching/description/)
+Wildcard Matchin(https://leetcode.com/problems/wildcard-matching/description/)
+91. Decode Ways(https://leetcode.com/problems/decode-ways/description/)
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Roman to Integer</t>
+    <t>https://leetcode.com/problems/decode-ways/description/</t>
+  </si>
+  <si>
+    <t>166. Fraction to Recurring Decimal</t>
   </si>
   <si>
     <t>1. HashMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://leetcode.com/problems/roman-to-integer/description/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>https://leetcode.com/problems/fraction-to-recurring-decimal/description/</t>
   </si>
   <si>
     <t>Anagrams(http://www.lintcode.com/en/problem/anagrams)
 Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting)
 Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)
 Longest Consecutive Sequence(http://www.lintcode.com/en/problem/longest-consecutive-sequence/)
-Roman to Integer(https://leetcode.com/problems/roman-to-integer/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+Roman to Integer(https://leetcode.com/problems/roman-to-integer/description/)
+166. Fraction to Recurring Decimal(https://leetcode.com/problems/fraction-to-recurring-decimal/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>173. Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>1. Stack
+2. Binary Tree Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal(http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/)
+Validate Binary Search Tree(http://www.lintcode.com/en/problem/validate-binary-search-tree/)
+Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree)
+Binary Tree Inorder Traversal(http://www.lintcode.com/en/problem/binary-tree-inorder-traversal/)
+Min Stack(http://www.lintcode.com/en/problem/min-stack/)
+Implement Queue by Two Stacks(http://www.lintcode.com/en/problem/implement-queue-by-two-stacks/)
+Largest Rectangle in Histogram(http://www.lintcode.com/en/problem/largest-rectangle-in-histogram/)
+Valid Parenthese(https://leetcode.com/problems/valid-parentheses/description/)
+Simplify Path(https://leetcode.com/problems/simplify-path/description/)
+85. Maximal Rectangle(https://leetcode.com/problems/maximal-rectangle/description/)
+173. Binary Search Tree Iterator(https://leetcode.com/problems/binary-search-tree-iterator/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/): levelorder
+Binary Tree Preorder Traversal(http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/): preorder
+Validate Binary Search Tree(http://www.lintcode.com/en/problem/validate-binary-search-tree/): inorder
+Construct Binary Tree from Preorder and Inorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-preorder-and-inorder-traversal/): Preoder, Inorder
+Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree): Inorder
+Binary Tree Serialization(http://www.lintcode.com/en/problem/binary-tree-serialization/): BST
+Binary Tree Inorder Traversal(http://www.lintcode.com/en/problem/binary-tree-inorder-traversal/): Inorder
+Construct Binary Tree from Inorder and Postorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-inorder-and-postorder-traversal/): Inorder, Postorder
+Binary Tree Zigzag Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-zigzag-level-order-traversal/): Levelorder
+Binary Tree Level Order Traversal II(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal-ii/): Levelorder
+173. Binary Search Tree Iterator: Inorder(https://leetcode.com/problems/binary-search-tree-iterator/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-search-tree-iterator/description/</t>
+  </si>
+  <si>
+    <t>200. Number of Islands</t>
+  </si>
+  <si>
+    <t>1. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-islands/description/</t>
+  </si>
+  <si>
+    <t>208. Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>1. Trie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Search II(http://www.lintcode.com/en/problem/word-search-ii/)
+208. Implement Trie (Prefix Tree)(https://leetcode.com/problems/implement-trie-prefix-tree/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-trie-prefix-tree/description/</t>
+  </si>
+  <si>
+    <t>85. Maximal Rectangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product of Array Exclude Itself(http://www.lintcode.com/en/problem/product-of-array-exclude-itself/)
+First Missing Positive(http://www.lintcode.com/en/problem/first-missing-positive/)
+3Sum(http://www.lintcode.com/en/problem/3sum/)
+3Sum Closest(http://www.lintcode.com/en/problem/3sum-closest/)
+Partition Array(http://www.lintcode.com/en/problem/partition-array/)
+Remove Duplicates from Sorted Array II(http://www.lintcode.com/en/problem/merge-two-sorted-arrays/)
+Subarray Sum Closest(http://www.lintcode.com/en/problem/subarray-sum-closest/)
+Majority Number(http://www.lintcode.com/en/problem/majority-number/)
+Next Permutation(http://www.lintcode.com/en/problem/next-permutation/) 
+Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)
+Majority Number II(http://www.lintcode.com/en/problem/majority-number-ii)
+Longest Consecutive Sequence(http://www.lintcode.com/en/problem/longest-consecutive-sequence/)
+Ugly Number II(http://www.lintcode.com/en/problem/ugly-number-ii/)
+Largest Rectangle in Histogram(http://www.lintcode.com/en/problem/largest-rectangle-in-histogram/)
+Spiral Matrix(https://leetcode.com/problems/spiral-matrix/description/)
+Merge Intervals(https://leetcode.com/problems/merge-intervals/description/)
+Insert Interval(https://leetcode.com/problems/insert-interval/description/)
+Plus One(https://leetcode.com/problems/plus-one/description/)
+Longest Substring with At Most Two Distinct Characters(https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/)
+Missing Ranges(https://leetcode.com/problems/missing-ranges/description/)
+Sort Colors(https://leetcode.com/problems/sort-colors/description/)
+85. Maximal Rectangle(https://leetcode.com/problems/maximal-rectangle/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram(http://www.lintcode.com/en/problem/largest-rectangle-in-histogram/)
+85. Maximal Rectangle(https://leetcode.com/problems/maximal-rectangle/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214. Shortest Palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast Power(http://www.lintcode.com/en/problem/fast-power/)
+Convert Sorted List to Balanced BST(http://www.lintcode.com/en/problem/convert-sorted-list-to-balanced-bst/)
+Maximum Depth of Binary Tree(http://www.lintcode.com/en/problem/maximum-depth-of-binary-tree/)
+Balanced Binary Tree(http://www.lintcode.com/en/problem/balanced-binary-tree)
+Insert Node in a Binary Search Tree(http://www.lintcode.com/en/problem/insert-node-in-a-binary-search-tree/)
+Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/)
+Construct Binary Tree from Preorder and Inorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-preorder-and-inorder-traversal/)
+Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree)
+Remove Node in Binary Search Tree(http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/)
+Minimum Depth of Binary Tree(http://www.lintcode.com/en/problem/minimum-depth-of-binary-tree/)
+Construct Binary Tree from Inorder and Postorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-inorder-and-postorder-traversal/)
+Combinations(http://www.lintcode.com/en/problem/combinations/)
+Combination Sum(http://www.lintcode.com/en/problem/combination-sum/)
+Subsets II(http://www.lintcode.com/en/problem/subsets-ii/)
+Permutations(http://www.lintcode.com/en/problem/permutations/)
+Permutations II(http://www.lintcode.com/en/problem/permutations-ii/)
+Combination Sum II(http://www.lintcode.com/en/problem/combination-sum-ii/)
+N-Queens(http://www.lintcode.com/en/problem/n-queens/)
+N-Queens II(http://www.lintcode.com/en/problem/n-queens-ii/)
+Pow(x, n)(https://leetcode.com/problems/powx-n/description/)
+Median of Two Sorted Arrays(https://leetcode.com/problems/median-of-two-sorted-arrays/description/)
+Generate Parentheses(https://leetcode.com/problems/generate-parentheses/description/)
+Word Break II(https://leetcode.com/problems/word-break-ii/description/)
+200. Number of Islands(https://leetcode.com/problems/number-of-islands/description/)
+214. Shortest Palindrome(https://leetcode.com/problems/shortest-palindrome/description/)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-palindrome/description/</t>
   </si>
 </sst>
 </file>
@@ -1819,7 +2168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1930,7 +2279,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2209,10 +2569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C242"/>
+  <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView topLeftCell="B234" workbookViewId="0">
-      <selection activeCell="C242" sqref="C242"/>
+    <sheetView topLeftCell="B292" workbookViewId="0">
+      <selection activeCell="C302" sqref="C302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2230,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2251,1286 +2611,1616 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="C14" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="6" t="s">
+    </row>
+    <row r="22" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="B22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
       <c r="C26" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+      <c r="B36" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="26" t="s">
         <v>61</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="B70" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="20" t="s">
         <v>117</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="20" t="s">
         <v>139</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="33" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B92" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="21" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" s="25" t="s">
         <v>155</v>
-      </c>
-      <c r="B96" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C102" s="24"/>
     </row>
     <row r="104" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C104" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B106" t="s">
+        <v>168</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="B106" t="s">
-        <v>171</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B110" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:3" s="27" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B116" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="B116" s="28" t="s">
-        <v>190</v>
-      </c>
       <c r="C116" s="26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C118" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="124" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A130" s="30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B132" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="134" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A134" s="30" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="138" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" s="16" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="142" spans="1:3" s="21" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A142" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="144" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="26" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="146" spans="1:3" s="21" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A146" s="26" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="148" spans="1:3" s="21" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A148" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150" spans="1:3" s="21" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A150" s="26" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C150" s="24"/>
     </row>
     <row r="152" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="39" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="30" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A156" s="16" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="16" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A160" s="16" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="16" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="16" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B168" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="170" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A170" s="30" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="16" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B172" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="37" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B174" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="16" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A180" s="16" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="182" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A182" s="30" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="184" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="30" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="30" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="16" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B188" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="16" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B190" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="16" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B192" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="16" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" s="16" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A198" s="16" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="200" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A200" s="26" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C200" s="24" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="202" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="26" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C202" s="24" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="204" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A204" s="26" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C204" s="24" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="206" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" s="32" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" s="16" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="210" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="30" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="214" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="30" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="216" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A216" s="30" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="218" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="30" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="220" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="30" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="222" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="30" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="16" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="228" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="30" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="230" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="33" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C230" s="24" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="232" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" s="32" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="234" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A234" s="30" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="236" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="30" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="238" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="30" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="240" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="30" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="B242" t="s">
+        <v>378</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="B244" t="s">
+        <v>381</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="B246" t="s">
+        <v>384</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="B248" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C248" s="20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A250" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C250" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="B242" t="s">
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="C242" s="6" t="s">
+      <c r="B252" t="s">
         <v>394</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A254" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="B254" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C254" s="20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A256" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="B256" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="C256" s="24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="B258" t="s">
+        <v>404</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="B260" t="s">
+        <v>407</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="B264" t="s">
+        <v>407</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="B266" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C266" s="24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A268" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="B268" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C268" s="20" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A270" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="B270" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C270" s="20" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A272" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="B272" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C272" s="20" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A274" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C274" s="20" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A276" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="B278" t="s">
+        <v>435</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="B280" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="C280" s="20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="B282" t="s">
+        <v>442</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="B284" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="C284" s="26" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A286" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A288" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C288" s="20" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A290" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="B290" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="C290" s="24" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="B292" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="C292" s="20" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="B294" t="s">
+        <v>463</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A296" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="B296" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C296" s="20" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="B298" t="s">
+        <v>472</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="B300" t="s">
+        <v>475</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="44" t="s">
+        <v>481</v>
+      </c>
+      <c r="B302" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="C302" s="20" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -3544,10 +4234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.2"/>
@@ -3568,304 +4258,320 @@
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
+      <c r="B2" s="9" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="157" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>44</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>395</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>391</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>328</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="306" customHeight="1" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>375</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>342</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="182" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>126</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="179" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="365" customHeight="1" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>352</v>
+        <v>482</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="234" customHeight="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="309" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>214</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="206" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>262</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>372</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>285</v>
+        <v>401</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="179" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="226" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="260" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="235" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>377</v>
+        <v>365</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>386</v>
+        <v>372</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="311" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="234" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/刷题简单归类和方法.xlsx
+++ b/刷题简单归类和方法.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="23560" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3300" yWindow="460" windowWidth="23560" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="510">
   <si>
     <t>179. Largest Number</t>
   </si>
@@ -1112,10 +1112,6 @@
   </si>
   <si>
     <t>Graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting): Directed Graph</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1740,15 +1736,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/read-n-characters-given-read4/description/</t>
-  </si>
-  <si>
-    <t>Longest Common Prefix(http://www.lintcode.com/en/problem/longest-common-prefix)
-String to Integer II(http://www.lintcode.com/en/problem/string-to-integer-ii)
-Word Break(http://www.lintcode.com/en/problem/word-break/)
-Interleaving String(http://www.lintcode.com/en/problem/interleaving-string/)
-Multiply Strings(https://leetcode.com/problems/multiply-strings/description/)
-Read N Characters Given Read4(https://leetcode.com/problems/read-n-characters-given-read4/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Read N Characters Given Read4 II - Call multiple times</t>
@@ -1871,22 +1858,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>strstr(http://www.lintcode.com/en/problem/strstr/)
-Remove Element(http://www.lintcode.com/en/problem/remove-element)
-Remove Duplicates from Sorted Array(http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-array)
-Merge Sorted Array(http://www.lintcode.com/en/problem/merge-sorted-array)
-Trapping Rain Water(https://leetcode.com/problems/trapping-rain-water/description/)
-Longest Substring with At Most Two Distinct Characters(https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/)
-Sort Colors(https://leetcode.com/problems/sort-colors/description/)
-76. Minimum Window Substring(https://leetcode.com/problems/minimum-window-substring/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>487. Max Consecutive Ones II
-76. Minimum Window Substring(https://leetcode.com/problems/minimum-window-substring/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/minimum-window-substring/description/</t>
   </si>
   <si>
@@ -1905,32 +1876,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Longest Common Substring(http://www.lintcode.com/en/problem/longest-common-substring)
-Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)
-Unique Paths II(http://www.lintcode.com/en/problem/unique-paths-ii/)
-Climbing Stairs(http://www.lintcode.com/en/problem/climbing-stairs/)
-Triangle(http://www.lintcode.com/en/problem/triangle/)
-Maximum Subarray(http://www.lintcode.com/en/problem/maximum-subarray/)
-Maximum Product Subarray(http://www.lintcode.com/en/problem/maximum-product-subarray/)
-Edit Distance(http://www.lintcode.com/en/problem/edit-distance)
-Distinct Subsequences(http://www.lintcode.com/en/problem/distinct-subsequences/)
-Word Break(http://www.lintcode.com/en/problem/word-break/)
-Backpack(http://www.lintcode.com/en/problem/backpack/)
-Interleaving String(http://www.lintcode.com/en/problem/interleaving-string/)
-Minimum Subarray(http://www.lintcode.com/en/problem/minimum-subarray/)
-Minimum Adjustment Cost(http://www.lintcode.com/en/problem/minimum-adjustment-cost/)
-Longest Common Subsequence(http://www.lintcode.com/en/problem/longest-common-subsequence)
-Longest Increasing Subsequence(http://www.lintcode.com/en/problem/longest-increasing-subsequence/)
-Maximum Subarray II(http://www.lintcode.com/en/problem/maximum-subarray-ii)
-Maximum Subarray III(http://www.lintcode.com/en/problem/maximum-subarray-iii/)
-Maximum Subarray Difference(http://www.lintcode.com/en/problem/maximum-subarray-difference/)
-Regular Expression Matching(https://leetcode.com/problems/regular-expression-matching/description/)
-Wildcard Matchin(https://leetcode.com/problems/wildcard-matching/description/)
-91. Decode Ways(https://leetcode.com/problems/decode-ways/description/)
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/decode-ways/description/</t>
   </si>
   <si>
@@ -1942,15 +1887,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/fraction-to-recurring-decimal/description/</t>
-  </si>
-  <si>
-    <t>Anagrams(http://www.lintcode.com/en/problem/anagrams)
-Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting)
-Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)
-Longest Consecutive Sequence(http://www.lintcode.com/en/problem/longest-consecutive-sequence/)
-Roman to Integer(https://leetcode.com/problems/roman-to-integer/description/)
-166. Fraction to Recurring Decimal(https://leetcode.com/problems/fraction-to-recurring-decimal/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>173. Binary Search Tree Iterator</t>
@@ -1972,20 +1908,6 @@
 Simplify Path(https://leetcode.com/problems/simplify-path/description/)
 85. Maximal Rectangle(https://leetcode.com/problems/maximal-rectangle/description/)
 173. Binary Search Tree Iterator(https://leetcode.com/problems/binary-search-tree-iterator/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/): levelorder
-Binary Tree Preorder Traversal(http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/): preorder
-Validate Binary Search Tree(http://www.lintcode.com/en/problem/validate-binary-search-tree/): inorder
-Construct Binary Tree from Preorder and Inorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-preorder-and-inorder-traversal/): Preoder, Inorder
-Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree): Inorder
-Binary Tree Serialization(http://www.lintcode.com/en/problem/binary-tree-serialization/): BST
-Binary Tree Inorder Traversal(http://www.lintcode.com/en/problem/binary-tree-inorder-traversal/): Inorder
-Construct Binary Tree from Inorder and Postorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-inorder-and-postorder-traversal/): Inorder, Postorder
-Binary Tree Zigzag Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-zigzag-level-order-traversal/): Levelorder
-Binary Tree Level Order Traversal II(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal-ii/): Levelorder
-173. Binary Search Tree Iterator: Inorder(https://leetcode.com/problems/binary-search-tree-iterator/description/)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2084,6 +2006,183 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/shortest-palindrome/description/</t>
+  </si>
+  <si>
+    <t>116. Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>1. Binary Tree Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/populating-next-right-pointers-in-each-node/description/</t>
+  </si>
+  <si>
+    <t>117. Populating Next Right Pointers in Each Node II</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/): levelorder
+Binary Tree Preorder Traversal(http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/): preorder
+Validate Binary Search Tree(http://www.lintcode.com/en/problem/validate-binary-search-tree/): inorder
+Construct Binary Tree from Preorder and Inorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-preorder-and-inorder-traversal/): Preoder, Inorder
+Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree): Inorder
+Binary Tree Serialization(http://www.lintcode.com/en/problem/binary-tree-serialization/): BST
+Binary Tree Inorder Traversal(http://www.lintcode.com/en/problem/binary-tree-inorder-traversal/): Inorder
+Construct Binary Tree from Inorder and Postorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-inorder-and-postorder-traversal/): Inorder, Postorder
+Binary Tree Zigzag Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-zigzag-level-order-traversal/): Levelorder
+Binary Tree Level Order Traversal II(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal-ii/): Levelorder
+173. Binary Search Tree Iterator: Inorder(https://leetcode.com/problems/binary-search-tree-iterator/description/): Inorder
+116. Populating Next Right Pointers in Each Node(https://leetcode.com/problems/populating-next-right-pointers-in-each-node/description/): Level Order
+117. Populating Next Right Pointers in Each Node II(https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/description/</t>
+  </si>
+  <si>
+    <t>121. Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>1. DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Substring(http://www.lintcode.com/en/problem/longest-common-substring)
+Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)
+Unique Paths II(http://www.lintcode.com/en/problem/unique-paths-ii/)
+Climbing Stairs(http://www.lintcode.com/en/problem/climbing-stairs/)
+Triangle(http://www.lintcode.com/en/problem/triangle/)
+Maximum Subarray(http://www.lintcode.com/en/problem/maximum-subarray/)
+Maximum Product Subarray(http://www.lintcode.com/en/problem/maximum-product-subarray/)
+Edit Distance(http://www.lintcode.com/en/problem/edit-distance)
+Distinct Subsequences(http://www.lintcode.com/en/problem/distinct-subsequences/)
+Word Break(http://www.lintcode.com/en/problem/word-break/)
+Backpack(http://www.lintcode.com/en/problem/backpack/)
+Interleaving String(http://www.lintcode.com/en/problem/interleaving-string/)
+Minimum Subarray(http://www.lintcode.com/en/problem/minimum-subarray/)
+Minimum Adjustment Cost(http://www.lintcode.com/en/problem/minimum-adjustment-cost/)
+Longest Common Subsequence(http://www.lintcode.com/en/problem/longest-common-subsequence)
+Longest Increasing Subsequence(http://www.lintcode.com/en/problem/longest-increasing-subsequence/)
+Maximum Subarray II(http://www.lintcode.com/en/problem/maximum-subarray-ii)
+Maximum Subarray III(http://www.lintcode.com/en/problem/maximum-subarray-iii/)
+Maximum Subarray Difference(http://www.lintcode.com/en/problem/maximum-subarray-difference/)
+Regular Expression Matching(https://leetcode.com/problems/regular-expression-matching/description/)
+Wildcard Matchin(https://leetcode.com/problems/wildcard-matching/description/)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91. Decode Ways(https://leetcode.com/problems/decodeways/description/)
+121. Best Time to Buy and Sell Stock(https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/</t>
+  </si>
+  <si>
+    <t>125. Valid Palindrome</t>
+  </si>
+  <si>
+    <t>1. String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome/description/</t>
+  </si>
+  <si>
+    <t>161. One Edit Distance</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/one-edit-distance/description/</t>
+  </si>
+  <si>
+    <t>168. Excel Sheet Column Title</t>
+  </si>
+  <si>
+    <t>1.String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/excel-sheet-column-title/description/</t>
+  </si>
+  <si>
+    <t>171. Excel Sheet Column Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Prefix(http://www.lintcode.com/en/problem/longest-common-prefix)
+String to Integer II(http://www.lintcode.com/en/problem/string-to-integer-ii)
+Word Break(http://www.lintcode.com/en/problem/word-break/)
+Interleaving String(http://www.lintcode.com/en/problem/interleaving-string/)
+Multiply Strings(https://leetcode.com/problems/multiply-strings/description/)
+Read N Characters Given Read4(https://leetcode.com/problems/read-n-characters-given-read4/description/)
+125. Valid Palindrome(https://leetcode.com/problems/valid-palindrome/description/)
+161. One Edit Distance(https://leetcode.com/problems/one-edit-distance/description/)
+168. Excel Sheet Column Title(https://leetcode.com/problems/excel-sheet-column-title/description/)
+171. Excel Sheet Column Number(https://leetcode.com/problems/excel-sheet-column-number/description/)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/excel-sheet-column-number/description/</t>
+  </si>
+  <si>
+    <t>209. Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>1. Two Pointer
+2. Sliding Window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>487. Max Consecutive Ones II
+76. Minimum Window Substring(https://leetcode.com/problems/minimum-window-substring/description/)
+209. Minimum Size Subarray Sum(https://leetcode.com/problems/minimum-size-subarray-sum/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strstr(http://www.lintcode.com/en/problem/strstr/)
+Remove Element(http://www.lintcode.com/en/problem/remove-element)
+Remove Duplicates from Sorted Array(http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-array)
+Merge Sorted Array(http://www.lintcode.com/en/problem/merge-sorted-array)
+Trapping Rain Water(https://leetcode.com/problems/trapping-rain-water/description/)
+Longest Substring with At Most Two Distinct Characters(https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/)
+Sort Colors(https://leetcode.com/problems/sort-colors/description/)
+76. Minimum Window Substring(https://leetcode.com/problems/minimum-window-substring/description/)
+209. Minimum Size Subarray Sum(https://leetcode.com/problems/minimum-size-subarray-sum/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anagrams(http://www.lintcode.com/en/problem/anagrams)
+Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting)
+Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)
+Longest Consecutive Sequence(http://www.lintcode.com/en/problem/longest-consecutive-sequence/)
+Roman to Integer(https://leetcode.com/problems/roman-to-integer/description/)
+166. Fraction to Recurring Decimal(https://leetcode.com/problems/fraction-to-recurring-decimal/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>207. Course Schedule</t>
+  </si>
+  <si>
+    <t>1. Graph
+2. Topological Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topological Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule/description/</t>
+  </si>
+  <si>
+    <t>Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting): Directed Graph
+207. Course Schedule(https://leetcode.com/problems/course-schedule/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>207. Course Schedule(https://leetcode.com/problems/course-schedule/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2168,7 +2267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2288,9 +2387,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2569,17 +2665,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C302"/>
+  <dimension ref="A1:C320"/>
   <sheetViews>
-    <sheetView topLeftCell="B292" workbookViewId="0">
-      <selection activeCell="C302" sqref="C302"/>
+    <sheetView tabSelected="1" topLeftCell="B296" workbookViewId="0">
+      <selection activeCell="C320" sqref="C320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="63.83203125" customWidth="1"/>
-    <col min="3" max="3" width="75.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -3500,727 +3596,823 @@
         <v>266</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B172" t="s">
         <v>260</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="37" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B174" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C174" s="16" t="s">
         <v>273</v>
-      </c>
-      <c r="B174" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A180" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C180" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="182" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A182" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B182" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="B182" s="12" t="s">
+      <c r="C182" s="20" t="s">
         <v>282</v>
-      </c>
-      <c r="C182" s="20" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="184" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="B184" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="B184" s="14" t="s">
+      <c r="C184" s="20" t="s">
         <v>287</v>
-      </c>
-      <c r="C184" s="20" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B188" t="s">
         <v>294</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B190" t="s">
+        <v>294</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="B190" t="s">
-        <v>295</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B192" t="s">
+        <v>294</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="B192" t="s">
-        <v>295</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="C194" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A198" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="200" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A200" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="B200" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C200" s="24" t="s">
         <v>310</v>
-      </c>
-      <c r="B200" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="C200" s="24" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="202" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="B202" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="B202" s="23" t="s">
+      <c r="C202" s="24" t="s">
         <v>313</v>
-      </c>
-      <c r="C202" s="24" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="204" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A204" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="B204" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="B204" s="23" t="s">
-        <v>316</v>
-      </c>
       <c r="C204" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="206" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="B206" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="B206" s="12" t="s">
+      <c r="C206" s="20" t="s">
         <v>321</v>
-      </c>
-      <c r="C206" s="20" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C208" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="210" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C210" s="20" t="s">
         <v>327</v>
-      </c>
-      <c r="B210" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="C210" s="20" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="214" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="B214" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="B214" s="12" t="s">
+      <c r="C214" s="20" t="s">
         <v>333</v>
-      </c>
-      <c r="C214" s="20" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="216" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A216" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C216" s="20" t="s">
         <v>335</v>
-      </c>
-      <c r="B216" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="C216" s="20" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="218" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="220" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C220" s="20" t="s">
         <v>338</v>
-      </c>
-      <c r="B220" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="C220" s="20" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="222" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="B222" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="B222" s="14" t="s">
+      <c r="C222" s="20" t="s">
         <v>343</v>
-      </c>
-      <c r="C222" s="20" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="228" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="B228" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="B228" s="14" t="s">
+      <c r="C228" s="20" t="s">
         <v>353</v>
-      </c>
-      <c r="C228" s="20" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="230" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="B230" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="B230" s="21" t="s">
+      <c r="C230" s="24" t="s">
         <v>356</v>
-      </c>
-      <c r="C230" s="24" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="232" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="B232" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="B232" s="12" t="s">
-        <v>359</v>
-      </c>
       <c r="C232" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="234" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A234" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B234" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C234" s="20" t="s">
         <v>362</v>
-      </c>
-      <c r="B234" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="C234" s="20" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="236" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="B236" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="B236" s="14" t="s">
-        <v>367</v>
-      </c>
       <c r="C236" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="238" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="B238" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B238" s="14" t="s">
-        <v>371</v>
-      </c>
       <c r="C238" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="240" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="B240" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C240" s="20" t="s">
         <v>374</v>
-      </c>
-      <c r="B240" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="C240" s="20" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="B242" t="s">
         <v>377</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B244" t="s">
         <v>380</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="B246" t="s">
         <v>383</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="248" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="B248" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="B248" s="14" t="s">
+      <c r="C248" s="20" t="s">
         <v>387</v>
-      </c>
-      <c r="C248" s="20" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="C250" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="B252" t="s">
         <v>393</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" s="6" t="s">
         <v>394</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="254" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="B254" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="B254" s="12" t="s">
+      <c r="C254" s="20" t="s">
         <v>397</v>
-      </c>
-      <c r="C254" s="20" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="256" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A256" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="B256" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="B256" s="23" t="s">
-        <v>400</v>
-      </c>
       <c r="C256" s="24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B258" t="s">
         <v>403</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="B260" t="s">
         <v>406</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C262" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="B264" t="s">
+        <v>406</v>
+      </c>
+      <c r="C264" s="6" t="s">
         <v>411</v>
-      </c>
-      <c r="B264" t="s">
-        <v>407</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="266" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="B266" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="C266" s="24" t="s">
         <v>413</v>
-      </c>
-      <c r="B266" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="C266" s="24" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="268" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="B268" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="B268" s="12" t="s">
+      <c r="C268" s="20" t="s">
         <v>416</v>
-      </c>
-      <c r="C268" s="20" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="270" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A270" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="B270" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="B270" s="12" t="s">
+      <c r="C270" s="20" t="s">
         <v>421</v>
-      </c>
-      <c r="C270" s="20" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="272" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A272" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="B272" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="B272" s="12" t="s">
+      <c r="C272" s="20" t="s">
         <v>425</v>
-      </c>
-      <c r="C272" s="20" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="274" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A274" s="41" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A276" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C276" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="B276" s="1" t="s">
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="40" t="s">
         <v>432</v>
       </c>
-      <c r="C276" s="6" t="s">
+      <c r="B278" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="43" t="s">
-        <v>434</v>
-      </c>
-      <c r="B278" t="s">
+      <c r="C278" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C278" s="6" t="s">
+    </row>
+    <row r="280" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="41" t="s">
+        <v>436</v>
+      </c>
+      <c r="B280" s="14" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="44" t="s">
+      <c r="C280" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B280" s="14" t="s">
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="C280" s="20" t="s">
+      <c r="B282" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="43" t="s">
-        <v>441</v>
-      </c>
-      <c r="B282" t="s">
+      <c r="C282" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C282" s="6" t="s">
+    </row>
+    <row r="284" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="B284" s="27" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="45" t="s">
+      <c r="C284" s="26" t="s">
         <v>445</v>
-      </c>
-      <c r="B284" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="C284" s="26" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A286" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C286" s="6" t="s">
         <v>448</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C286" s="6" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="288" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A288" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C288" s="20" t="s">
         <v>451</v>
-      </c>
-      <c r="B288" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="C288" s="20" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="290" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" s="42" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B290" s="23" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C290" s="24" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="292" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="B292" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C292" s="20" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="B294" t="s">
         <v>458</v>
       </c>
-      <c r="B292" s="14" t="s">
+      <c r="C294" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="C292" s="20" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294" s="43" t="s">
-        <v>462</v>
-      </c>
-      <c r="B294" t="s">
-        <v>463</v>
-      </c>
-      <c r="C294" s="6" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="296" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A296" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B296" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="C296" s="20" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="B298" t="s">
+        <v>465</v>
+      </c>
+      <c r="C298" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="B296" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="C296" s="20" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" s="43" t="s">
-        <v>471</v>
-      </c>
-      <c r="B298" t="s">
-        <v>472</v>
-      </c>
-      <c r="C298" s="6" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="B300" t="s">
+        <v>468</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="B300" t="s">
-        <v>475</v>
-      </c>
-      <c r="C300" s="6" t="s">
+      <c r="B302" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="C302" s="20" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="41" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="44" t="s">
-        <v>481</v>
-      </c>
-      <c r="B302" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="C302" s="20" t="s">
+      <c r="B304" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="C304" s="20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="B306" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="C306" s="20" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" s="40" t="s">
         <v>483</v>
+      </c>
+      <c r="B308" t="s">
+        <v>484</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" s="40" t="s">
+        <v>488</v>
+      </c>
+      <c r="B310" t="s">
+        <v>489</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="41" t="s">
+        <v>491</v>
+      </c>
+      <c r="B312" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="C312" s="20" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="42" t="s">
+        <v>493</v>
+      </c>
+      <c r="B314" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="C314" s="24" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="B316" t="s">
+        <v>489</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A318" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A320" s="40" t="s">
+        <v>504</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -4234,19 +4426,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40" style="4" customWidth="1"/>
-    <col min="2" max="2" width="160.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="96.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="111.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -4254,15 +4447,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="206" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="206" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -4270,7 +4463,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -4278,44 +4471,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="157" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="303" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="336" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -4323,7 +4519,7 @@
         <v>44</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -4347,7 +4543,7 @@
         <v>74</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -4387,7 +4583,7 @@
         <v>114</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="179" customHeight="1" x14ac:dyDescent="0.2">
@@ -4403,7 +4599,7 @@
         <v>126</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -4427,7 +4623,7 @@
         <v>164</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
@@ -4443,7 +4639,7 @@
         <v>197</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
@@ -4451,7 +4647,7 @@
         <v>190</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="206" customHeight="1" x14ac:dyDescent="0.2">
@@ -4462,12 +4658,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="325" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
@@ -4475,7 +4671,7 @@
         <v>225</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
@@ -4483,7 +4679,7 @@
         <v>228</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="210" customHeight="1" x14ac:dyDescent="0.2">
@@ -4491,87 +4687,95 @@
         <v>261</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>268</v>
+      <c r="B62" s="9" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="179" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="226" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="260" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="235" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="311" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/刷题简单归类和方法.xlsx
+++ b/刷题简单归类和方法.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="460" windowWidth="23560" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="2040" yWindow="460" windowWidth="23560" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="550">
   <si>
     <t>179. Largest Number</t>
   </si>
@@ -866,14 +866,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Remove Nth Node From End of List(http://www.lintcode.com/en/problem/remove-nth-node-from-end-of-list/)
-Convert Sorted List to Balanced BST(http://www.lintcode.com/en/problem/convert-sorted-list-to-balanced-bst/)
-Linked List Cycle(http://www.lintcode.com/en/problem/linked-list-cycle)
-Nth to Last Node in List(http://www.lintcode.com/en/problem/nth-to-last-node-in-list)
-Linked List Cycle II(http://www.lintcode.com/en/problem/linked-list-cycle-ii)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.lintcode.com/en/problem/linked-list-cycle-ii</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1006,12 +998,6 @@
   <si>
     <t>1. Binary Search Tree
 2. Recursion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique Binary Search Trees(http://www.lintcode.com/en/problem/unique-binary-search-trees/): 选取不同值作为root计算数目
-Insert Node in a Binary Search Tree(http://www.lintcode.com/en/problem/insert-node-in-a-binary-search-tree/)
-Remove Node in Binary Search Tree(http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1511,11 +1497,6 @@
   </si>
   <si>
     <t>1. PriorityQueue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Merge k Sorted Lists(http://www.lintcode.com/en/problem/merge-k-sorted-lists/)
-Data Stream Median(http://www.lintcode.com/en/problem/data-stream-median/)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1743,26 +1724,6 @@
   <si>
     <t>LRU Cache(https://leetcode.com/problems/lru-cache/description/)
 Read N Characters Given Read4(https://leetcode.com/problems/read-n-characters-given-read4/description/)
-Read N Characters Given Read4 II - Call multiple times(https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove Nth Node From End of List(http://www.lintcode.com/en/problem/remove-nth-node-from-end-of-list/)
-Merge Two Sorted Lists(http://www.lintcode.com/en/problem/merge-two-sorted-lists/)
-Remove Duplicates from Sorted List(http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-list)
-Reverse Linked List(http://www.lintcode.com/en/problem/reverse-linked-list/)
-Partition List(http://www.lintcode.com/en/problem/partition-list)
-Rotate List(http://www.lintcode.com/en/problem/rotate-list/)
-Copy List with Random Pointer(http://www.lintcode.com/en/problem/copy-list-with-random-pointer/)
-Linked List Cycle(http://www.lintcode.com/en/problem/linked-list-cycle)
-Sort List(http://www.lintcode.com/en/problem/sort-list)
-Add Two Numbers(http://www.lintcode.com/en/problem/add-two-numbers/)
-Nth to Last Node in List(http://www.lintcode.com/en/problem/nth-to-last-node-in-list)
-Remove Duplicates from Sorted List II(http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-list-ii)
-Reverse Linked List II(http://www.lintcode.com/en/problem/reverse-linked-list-ii/)
-Linked List Cycle II(http://www.lintcode.com/en/problem/linked-list-cycle-ii)
-Reverse Nodes in k-Group(https://leetcode.com/problems/reverse-nodes-in-k-group/description/)
-LRU Cache(https://leetcode.com/problems/lru-cache/description/)
 Read N Characters Given Read4 II - Call multiple times(https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times/description/)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1931,40 +1892,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Word Search II(http://www.lintcode.com/en/problem/word-search-ii/)
-208. Implement Trie (Prefix Tree)(https://leetcode.com/problems/implement-trie-prefix-tree/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/implement-trie-prefix-tree/description/</t>
   </si>
   <si>
     <t>85. Maximal Rectangle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product of Array Exclude Itself(http://www.lintcode.com/en/problem/product-of-array-exclude-itself/)
-First Missing Positive(http://www.lintcode.com/en/problem/first-missing-positive/)
-3Sum(http://www.lintcode.com/en/problem/3sum/)
-3Sum Closest(http://www.lintcode.com/en/problem/3sum-closest/)
-Partition Array(http://www.lintcode.com/en/problem/partition-array/)
-Remove Duplicates from Sorted Array II(http://www.lintcode.com/en/problem/merge-two-sorted-arrays/)
-Subarray Sum Closest(http://www.lintcode.com/en/problem/subarray-sum-closest/)
-Majority Number(http://www.lintcode.com/en/problem/majority-number/)
-Next Permutation(http://www.lintcode.com/en/problem/next-permutation/) 
-Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)
-Majority Number II(http://www.lintcode.com/en/problem/majority-number-ii)
-Longest Consecutive Sequence(http://www.lintcode.com/en/problem/longest-consecutive-sequence/)
-Ugly Number II(http://www.lintcode.com/en/problem/ugly-number-ii/)
-Largest Rectangle in Histogram(http://www.lintcode.com/en/problem/largest-rectangle-in-histogram/)
-Spiral Matrix(https://leetcode.com/problems/spiral-matrix/description/)
-Merge Intervals(https://leetcode.com/problems/merge-intervals/description/)
-Insert Interval(https://leetcode.com/problems/insert-interval/description/)
-Plus One(https://leetcode.com/problems/plus-one/description/)
-Longest Substring with At Most Two Distinct Characters(https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/)
-Missing Ranges(https://leetcode.com/problems/missing-ranges/description/)
-Sort Colors(https://leetcode.com/problems/sort-colors/description/)
-85. Maximal Rectangle(https://leetcode.com/problems/maximal-rectangle/description/)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2072,11 +2003,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>91. Decode Ways(https://leetcode.com/problems/decodeways/description/)
-121. Best Time to Buy and Sell Stock(https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/</t>
   </si>
   <si>
@@ -2152,6 +2078,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>207. Course Schedule</t>
+  </si>
+  <si>
+    <t>1. Graph
+2. Topological Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topological Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule/description/</t>
+  </si>
+  <si>
+    <t>210. Course Schedule II</t>
+  </si>
+  <si>
+    <t>1. Graph
+2. Topological Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule-ii/description/</t>
+  </si>
+  <si>
+    <t>207. Course Schedule(https://leetcode.com/problems/course-schedule/description/)
+210. Course Schedule II(https://leetcode.com/problems/course-schedule-ii/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting): Directed Graph
+207. Course Schedule(https://leetcode.com/problems/course-schedule/description/)
+210. Course Schedule II(https://leetcode.com/problems/course-schedule-ii/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Anagrams(http://www.lintcode.com/en/problem/anagrams)
 Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting)
 Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)
@@ -2161,28 +2124,216 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>207. Course Schedule</t>
-  </si>
-  <si>
-    <t>1. Graph
-2. Topological Sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Topological Sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/course-schedule/description/</t>
-  </si>
-  <si>
-    <t>Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting): Directed Graph
-207. Course Schedule(https://leetcode.com/problems/course-schedule/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>207. Course Schedule(https://leetcode.com/problems/course-schedule/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>215. Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>211. Add and Search Word - Data structure design</t>
+  </si>
+  <si>
+    <t>1. Trie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Search II(http://www.lintcode.com/en/problem/word-search-ii/)
+208. Implement Trie (Prefix Tree)(https://leetcode.com/problems/implement-trie-prefix-tree/description/)
+211. Add and Search Word - Data structure design(https://leetcode.com/problems/add-and-search-word-data-structure-design/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-and-search-word-data-structure-design/description/</t>
+  </si>
+  <si>
+    <t>1. Array
+2. Quick Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-largest-element-in-an-array/description/</t>
+  </si>
+  <si>
+    <t>215. Kth Largest Element in an Array(https://leetcode.com/problems/kth-largest-element-in-an-array/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>218. The Skyline Problem</t>
+  </si>
+  <si>
+    <t>1. Priority Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/the-skyline-problem/description/</t>
+  </si>
+  <si>
+    <t>221. Maximal Square</t>
+  </si>
+  <si>
+    <t>1. DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximal-square/description/</t>
+  </si>
+  <si>
+    <t>Maximal Square II</t>
+  </si>
+  <si>
+    <t>91. Decode Ways(https://leetcode.com/problems/decodeways/description/)
+121. Best Time to Buy and Sell Stock(https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/)
+221. Maximal Square(https://leetcode.com/problems/maximal-square/description/)
+Maximal Square II(http://www.lintcode.com/en/problem/maximal-square-ii/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lintcode.com/en/problem/maximal-square-ii/</t>
+  </si>
+  <si>
+    <t>234. Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>1. Linked List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-linked-list/description/</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List(http://www.lintcode.com/en/problem/remove-nth-node-from-end-of-list/)
+Merge Two Sorted Lists(http://www.lintcode.com/en/problem/merge-two-sorted-lists/)
+Remove Duplicates from Sorted List(http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-list)
+Reverse Linked List(http://www.lintcode.com/en/problem/reverse-linked-list/)
+Partition List(http://www.lintcode.com/en/problem/partition-list)
+Rotate List(http://www.lintcode.com/en/problem/rotate-list/)
+Copy List with Random Pointer(http://www.lintcode.com/en/problem/copy-list-with-random-pointer/)
+Linked List Cycle(http://www.lintcode.com/en/problem/linked-list-cycle)
+Sort List(http://www.lintcode.com/en/problem/sort-list)
+Add Two Numbers(http://www.lintcode.com/en/problem/add-two-numbers/)
+Nth to Last Node in List(http://www.lintcode.com/en/problem/nth-to-last-node-in-list)
+Remove Duplicates from Sorted List II(http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-list-ii)
+Reverse Linked List II(http://www.lintcode.com/en/problem/reverse-linked-list-ii/)
+Linked List Cycle II(http://www.lintcode.com/en/problem/linked-list-cycle-ii)
+Reverse Nodes in k-Group(https://leetcode.com/problems/reverse-nodes-in-k-group/description/)
+LRU Cache(https://leetcode.com/problems/lru-cache/description/)
+Read N Characters Given Read4 II - Call multiple times(https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times/description/)
+234. Palindrome Linked List(https://leetcode.com/problems/palindrome-linked-list/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List(http://www.lintcode.com/en/problem/remove-nth-node-from-end-of-list/)
+Convert Sorted List to Balanced BST(http://www.lintcode.com/en/problem/convert-sorted-list-to-balanced-bst/)
+Linked List Cycle(http://www.lintcode.com/en/problem/linked-list-cycle)
+Nth to Last Node in List(http://www.lintcode.com/en/problem/nth-to-last-node-in-list)
+Linked List Cycle II(http://www.lintcode.com/en/problem/linked-list-cycle-ii)
+234. Palindrome Linked List(https://leetcode.com/problems/palindrome-linked-list/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>1. Binary Search Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees(http://www.lintcode.com/en/problem/unique-binary-search-trees/): 选取不同值作为root计算数目
+Insert Node in a Binary Search Tree(http://www.lintcode.com/en/problem/insert-node-in-a-binary-search-tree/)
+Remove Node in Binary Search Tree(http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/)
+235. Lowest Common Ancestor of a Binary Search Tree(https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/</t>
+  </si>
+  <si>
+    <t>236. Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>1. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>238. Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>1. Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product of Array Exclude Itself(http://www.lintcode.com/en/problem/product-of-array-exclude-itself/)
+First Missing Positive(http://www.lintcode.com/en/problem/first-missing-positive/)
+3Sum(http://www.lintcode.com/en/problem/3sum/)
+3Sum Closest(http://www.lintcode.com/en/problem/3sum-closest/)
+Partition Array(http://www.lintcode.com/en/problem/partition-array/)
+Remove Duplicates from Sorted Array II(http://www.lintcode.com/en/problem/merge-two-sorted-arrays/)
+Subarray Sum Closest(http://www.lintcode.com/en/problem/subarray-sum-closest/)
+Majority Number(http://www.lintcode.com/en/problem/majority-number/)
+Next Permutation(http://www.lintcode.com/en/problem/next-permutation/) 
+Jump Game II(http://www.lintcode.com/en/problem/jump-game-ii/)
+Majority Number II(http://www.lintcode.com/en/problem/majority-number-ii)
+Longest Consecutive Sequence(http://www.lintcode.com/en/problem/longest-consecutive-sequence/)
+Ugly Number II(http://www.lintcode.com/en/problem/ugly-number-ii/)
+Largest Rectangle in Histogram(http://www.lintcode.com/en/problem/largest-rectangle-in-histogram/)
+Spiral Matrix(https://leetcode.com/problems/spiral-matrix/description/)
+Merge Intervals(https://leetcode.com/problems/merge-intervals/description/)
+Insert Interval(https://leetcode.com/problems/insert-interval/description/)
+Plus One(https://leetcode.com/problems/plus-one/description/)
+Longest Substring with At Most Two Distinct Characters(https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/)
+Missing Ranges(https://leetcode.com/problems/missing-ranges/description/)
+Sort Colors(https://leetcode.com/problems/sort-colors/description/)
+85. Maximal Rectangle(https://leetcode.com/problems/maximal-rectangle/description/)
+215. Kth Largest Element in an Array(https://leetcode.com/problems/kth-largest-element-in-an-array/description/)
+238. Product of Array Except Self(https://leetcode.com/problems/product-of-array-except-self/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-array-except-self/description/</t>
+  </si>
+  <si>
+    <t>252. Meeting Rooms</t>
+  </si>
+  <si>
+    <t>1. 扫描线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/meeting-rooms/description/</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists(http://www.lintcode.com/en/problem/merge-k-sorted-lists/)
+Data Stream Median(http://www.lintcode.com/en/problem/data-stream-median/)
+218. The Skyline Problem(https://leetcode.com/problems/the-skyline-problem/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>218. The Skyline Problem(https://leetcode.com/problems/the-skyline-problem/description/)
+252. Meeting Rooms(https://leetcode.com/problems/meeting-rooms/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>257. Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>1. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>236. Lowest Common Ancestor of a Binary Tree(https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/)
+257. Binary Tree Paths(https://leetcode.com/problems/binary-tree-paths/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-paths/description/</t>
   </si>
 </sst>
 </file>
@@ -2267,7 +2418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2387,6 +2538,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2665,17 +2821,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C320"/>
+  <dimension ref="A1:C344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B296" workbookViewId="0">
-      <selection activeCell="C320" sqref="C320"/>
+    <sheetView tabSelected="1" topLeftCell="B321" workbookViewId="0">
+      <selection activeCell="C344" sqref="C344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="63.83203125" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="84.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -3409,1010 +3565,1142 @@
         <v>192</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="C136" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="138" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C138" s="20" t="s">
         <v>216</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="142" spans="1:3" s="21" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A142" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B142" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="B142" s="23" t="s">
-        <v>222</v>
-      </c>
       <c r="C142" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="144" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B144" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="B144" s="23" t="s">
-        <v>227</v>
-      </c>
       <c r="C144" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="146" spans="1:3" s="21" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A146" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B146" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B146" s="23" t="s">
+      <c r="C146" s="24" t="s">
         <v>231</v>
-      </c>
-      <c r="C146" s="24" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="148" spans="1:3" s="21" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A148" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C148" s="24" t="s">
         <v>233</v>
-      </c>
-      <c r="B148" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="C148" s="24" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="150" spans="1:3" s="21" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A150" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B150" s="23" t="s">
         <v>236</v>
-      </c>
-      <c r="B150" s="23" t="s">
-        <v>237</v>
       </c>
       <c r="C150" s="24"/>
     </row>
     <row r="152" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B152" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="C152" s="20" t="s">
         <v>239</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B154" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B154" s="12" t="s">
+      <c r="C154" s="20" t="s">
         <v>242</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A156" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A160" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C160" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B166" t="s">
+        <v>258</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="170" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A170" s="30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B170" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C170" s="20" t="s">
         <v>266</v>
-      </c>
-      <c r="C170" s="20" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B172" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="37" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B174" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="C174" s="16" t="s">
         <v>271</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A180" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="182" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A182" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C182" s="20" t="s">
         <v>280</v>
-      </c>
-      <c r="B182" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="C182" s="20" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="184" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C184" s="20" t="s">
         <v>285</v>
-      </c>
-      <c r="B184" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="C184" s="20" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B186" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="B186" s="14" t="s">
+      <c r="C186" s="20" t="s">
         <v>290</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B188" t="s">
+        <v>292</v>
+      </c>
+      <c r="C188" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="B188" t="s">
-        <v>294</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B190" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B192" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C194" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A198" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C198" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="200" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A200" s="26" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C200" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="202" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="B202" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="C202" s="24" t="s">
         <v>311</v>
-      </c>
-      <c r="B202" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="C202" s="24" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="204" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A204" s="26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B204" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="C204" s="24" t="s">
         <v>315</v>
-      </c>
-      <c r="C204" s="24" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="206" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C206" s="20" t="s">
         <v>319</v>
-      </c>
-      <c r="B206" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C206" s="20" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="C208" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="210" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="30" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C212" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="214" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C214" s="20" t="s">
         <v>331</v>
-      </c>
-      <c r="B214" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="C214" s="20" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="216" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A216" s="30" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="218" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="30" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="220" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="30" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="222" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="B222" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C222" s="20" t="s">
         <v>341</v>
-      </c>
-      <c r="B222" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="C222" s="20" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C226" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="228" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="B228" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C228" s="20" t="s">
         <v>351</v>
-      </c>
-      <c r="B228" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="C228" s="20" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="230" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="B230" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="C230" s="24" t="s">
         <v>354</v>
-      </c>
-      <c r="B230" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="C230" s="24" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="232" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" s="32" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B232" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C232" s="20" t="s">
         <v>358</v>
-      </c>
-      <c r="C232" s="20" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="234" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A234" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="B234" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="B234" s="12" t="s">
-        <v>363</v>
-      </c>
       <c r="C234" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="236" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B236" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="C236" s="20" t="s">
         <v>365</v>
-      </c>
-      <c r="B236" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="C236" s="20" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="238" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B238" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C238" s="20" t="s">
         <v>369</v>
-      </c>
-      <c r="B238" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="C238" s="20" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="240" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="30" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="40" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B242" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="40" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B244" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="40" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B246" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="248" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="30" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C250" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="40" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B252" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="254" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="41" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="256" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A256" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="B256" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="C256" s="24" t="s">
         <v>398</v>
-      </c>
-      <c r="B256" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="C256" s="24" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="16" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B258" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="40" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B260" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="40" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C262" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="40" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B264" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="266" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="42" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B266" s="21" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C266" s="24" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="268" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" s="41" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C268" s="20" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="270" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A270" s="41" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C270" s="20" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="272" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A272" s="41" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C272" s="20" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="274" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A274" s="41" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A276" s="40" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="40" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B278" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="280" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="40" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B282" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="284" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="33" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B284" s="27" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C284" s="26" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A286" s="40" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="288" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A288" s="41" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="290" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" s="42" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B290" s="23" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C290" s="24" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="292" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="41" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="40" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B294" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="296" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A296" s="41" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B296" s="12" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="40" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B298" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="40" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B300" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="302" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="41" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="304" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="41" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="306" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="41" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="40" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B308" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="40" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B310" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="312" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="41" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C312" s="20" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="314" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="42" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B314" s="21" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C314" s="24" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="40" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B316" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A318" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A320" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="B320" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="C320" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="B318" s="1" t="s">
+    </row>
+    <row r="322" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A322" s="40" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A320" s="40" t="s">
-        <v>504</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C320" s="6" t="s">
+      <c r="B322" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="44" t="s">
         <v>507</v>
+      </c>
+      <c r="B324" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="C324" s="24" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A326" s="41" t="s">
+        <v>506</v>
+      </c>
+      <c r="B326" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="C326" s="20" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="B328" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C328" s="20" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" s="43" t="s">
+        <v>518</v>
+      </c>
+      <c r="B330" t="s">
+        <v>519</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="B332" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="C332" s="24" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" s="43" t="s">
+        <v>524</v>
+      </c>
+      <c r="B334" t="s">
+        <v>525</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="B336" t="s">
+        <v>530</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="B338" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C338" s="24" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" s="43" t="s">
+        <v>536</v>
+      </c>
+      <c r="B340" t="s">
+        <v>537</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" s="43" t="s">
+        <v>540</v>
+      </c>
+      <c r="B342" t="s">
+        <v>541</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" s="43" t="s">
+        <v>546</v>
+      </c>
+      <c r="B344" t="s">
+        <v>547</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -4426,17 +4714,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40" style="4" customWidth="1"/>
-    <col min="2" max="2" width="96.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="111.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="133.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="122.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -4452,7 +4740,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="207" customHeight="1" x14ac:dyDescent="0.2">
@@ -4476,7 +4764,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="183" customHeight="1" x14ac:dyDescent="0.2">
@@ -4484,7 +4772,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -4492,10 +4780,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="336" customHeight="1" x14ac:dyDescent="0.2">
@@ -4503,7 +4791,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -4511,7 +4799,7 @@
         <v>42</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -4519,7 +4807,7 @@
         <v>44</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -4543,7 +4831,7 @@
         <v>74</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -4578,31 +4866,34 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="179" customHeight="1" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="179" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>138</v>
       </c>
@@ -4610,7 +4901,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>142</v>
       </c>
@@ -4618,28 +4909,28 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="309" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="309" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>164</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
@@ -4647,135 +4938,151 @@
         <v>190</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="206" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="325" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="179" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="226" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="260" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>367</v>
+        <v>544</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="235" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="311" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>509</v>
+        <v>498</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/刷题简单归类和方法.xlsx
+++ b/刷题简单归类和方法.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="579">
   <si>
     <t>179. Largest Number</t>
   </si>
@@ -1743,20 +1743,6 @@
   </si>
   <si>
     <t>1. Binary Search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sqrt(x)(http://www.lintcode.com/en/problem/sqrtx)
-Search Insert Position(http://www.lintcode.com/en/problem/search-insert-position)
-Search a 2D Matrix(http://www.lintcode.com/en/problem/search-a-2d-matrix)
-First Position of Target(http://www.lintcode.com/en/problem/first-position-of-target)
-Find Peak Element(http://www.lintcode.com/en/problem/find-peak-element)
-Find Minimum in Rotated Sorted Array(http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array)
-First Bad Version(http://www.lintcode.com/en/problem/first-bad-version)
-Search for a Range(http://www.lintcode.com/en/problem/search-for-a-range/)
-Longest Increasing Subsequence(http://www.lintcode.com/en/problem/longest-increasing-subsequence/)
-Median of Two Sorted Arrays(https://leetcode.com/problems/median-of-two-sorted-arrays/description/)
-Find Peak Element(https://leetcode.com/problems/find-peak-element/description/)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2066,18 +2052,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>strstr(http://www.lintcode.com/en/problem/strstr/)
-Remove Element(http://www.lintcode.com/en/problem/remove-element)
-Remove Duplicates from Sorted Array(http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-array)
-Merge Sorted Array(http://www.lintcode.com/en/problem/merge-sorted-array)
-Trapping Rain Water(https://leetcode.com/problems/trapping-rain-water/description/)
-Longest Substring with At Most Two Distinct Characters(https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/)
-Sort Colors(https://leetcode.com/problems/sort-colors/description/)
-76. Minimum Window Substring(https://leetcode.com/problems/minimum-window-substring/description/)
-209. Minimum Size Subarray Sum(https://leetcode.com/problems/minimum-size-subarray-sum/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>207. Course Schedule</t>
   </si>
   <si>
@@ -2102,17 +2076,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/course-schedule-ii/description/</t>
-  </si>
-  <si>
-    <t>207. Course Schedule(https://leetcode.com/problems/course-schedule/description/)
-210. Course Schedule II(https://leetcode.com/problems/course-schedule-ii/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting): Directed Graph
-207. Course Schedule(https://leetcode.com/problems/course-schedule/description/)
-210. Course Schedule II(https://leetcode.com/problems/course-schedule-ii/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Anagrams(http://www.lintcode.com/en/problem/anagrams)
@@ -2180,13 +2143,6 @@
   </si>
   <si>
     <t>Maximal Square II</t>
-  </si>
-  <si>
-    <t>91. Decode Ways(https://leetcode.com/problems/decodeways/description/)
-121. Best Time to Buy and Sell Stock(https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/)
-221. Maximal Square(https://leetcode.com/problems/maximal-square/description/)
-Maximal Square II(http://www.lintcode.com/en/problem/maximal-square-ii/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/maximal-square-ii/</t>
@@ -2316,11 +2272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>218. The Skyline Problem(https://leetcode.com/problems/the-skyline-problem/description/)
-252. Meeting Rooms(https://leetcode.com/problems/meeting-rooms/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>257. Binary Tree Paths</t>
   </si>
   <si>
@@ -2334,6 +2285,165 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/binary-tree-paths/description/</t>
+  </si>
+  <si>
+    <t>Union Find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>261. Graph Valid Tree()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>261. Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>1. Union Find
+2. Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256. Paint House</t>
+  </si>
+  <si>
+    <t>1. DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/paint-house/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/graph-valid-tree/description/</t>
+  </si>
+  <si>
+    <t>253. Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>1. 扫描线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>218. The Skyline Problem(https://leetcode.com/problems/the-skyline-problem/description/)
+252. Meeting Rooms(https://leetcode.com/problems/meeting-rooms/description/)
+253. Meeting Rooms II(https://leetcode.com/problems/meeting-rooms-ii/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/meeting-rooms-ii/description/</t>
+  </si>
+  <si>
+    <t>265. Paint House II</t>
+  </si>
+  <si>
+    <t>1. DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91. Decode Ways(https://leetcode.com/problems/decodeways/description/)
+121. Best Time to Buy and Sell Stock(https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/)
+221. Maximal Square(https://leetcode.com/problems/maximal-square/description/)
+Maximal Square II(http://www.lintcode.com/en/problem/maximal-square-ii/)
+256. Paint House(https://leetcode.com/problems/paint-house/description/)
+265. Paint House II(https://leetcode.com/problems/paint-house-ii/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/paint-house-ii/description/</t>
+  </si>
+  <si>
+    <t>269. Alien Dictionary</t>
+  </si>
+  <si>
+    <t>1. Graph
+2. Topological Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/alien-dictionary/description/</t>
+  </si>
+  <si>
+    <t>Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting): Directed Graph
+207. Course Schedule(https://leetcode.com/problems/course-schedule/description/)
+210. Course Schedule II(https://leetcode.com/problems/course-schedule-ii/description/)
+261. Graph Valid Tree(https://leetcode.com/problems/graph-valid-tree/description/)
+269. Alien Dictionary(https://leetcode.com/problems/alien-dictionary/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>207. Course Schedule(https://leetcode.com/problems/course-schedule/description/)
+210. Course Schedule II(https://leetcode.com/problems/course-schedule-ii/description/)
+269. Alien Dictionary(https://leetcode.com/problems/alien-dictionary/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>274. H-Index</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/h-index/description/</t>
+  </si>
+  <si>
+    <t>275. H-Index II</t>
+  </si>
+  <si>
+    <t>1. Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/h-index-ii/description/</t>
+  </si>
+  <si>
+    <t>Sqrt(x)(http://www.lintcode.com/en/problem/sqrtx)
+Search Insert Position(http://www.lintcode.com/en/problem/search-insert-position)
+Search a 2D Matrix(http://www.lintcode.com/en/problem/search-a-2d-matrix)
+First Position of Target(http://www.lintcode.com/en/problem/first-position-of-target)
+Find Peak Element(http://www.lintcode.com/en/problem/find-peak-element)
+Find Minimum in Rotated Sorted Array(http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array)
+First Bad Version(http://www.lintcode.com/en/problem/first-bad-version)
+Search for a Range(http://www.lintcode.com/en/problem/search-for-a-range/)
+Longest Increasing Subsequence(http://www.lintcode.com/en/problem/longest-increasing-subsequence/)
+Median of Two Sorted Arrays(https://leetcode.com/problems/median-of-two-sorted-arrays/description/)
+Find Peak Element(https://leetcode.com/problems/find-peak-element/description/)
+275. H-Index II(https://leetcode.com/problems/h-index-ii/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>277. Find the Celebrity</t>
+  </si>
+  <si>
+    <t>1. Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>274. H-Index(https://leetcode.com/problems/h-index/description/)
+275. H-Index II(https://leetcode.com/problems/h-index-ii/description/)
+277. Find the Celebrity(https://leetcode.com/problems/find-the-celebrity/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-celebrity/description/</t>
+  </si>
+  <si>
+    <t>283. Move Zeroes</t>
+  </si>
+  <si>
+    <t>1. Two Pointer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strstr(http://www.lintcode.com/en/problem/strstr/)
+Remove Element(http://www.lintcode.com/en/problem/remove-element)
+Remove Duplicates from Sorted Array(http://www.lintcode.com/en/problem/remove-duplicates-from-sorted-array)
+Merge Sorted Array(http://www.lintcode.com/en/problem/merge-sorted-array)
+Trapping Rain Water(https://leetcode.com/problems/trapping-rain-water/description/)
+Longest Substring with At Most Two Distinct Characters(https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/)
+Sort Colors(https://leetcode.com/problems/sort-colors/description/)
+76. Minimum Window Substring(https://leetcode.com/problems/minimum-window-substring/description/)
+209. Minimum Size Subarray Sum(https://leetcode.com/problems/minimum-size-subarray-sum/description/)
+283. Move Zeroes(https://leetcode.com/problems/move-zeroes/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/move-zeroes/description/</t>
   </si>
 </sst>
 </file>
@@ -2821,10 +2931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C344"/>
+  <dimension ref="A1:C362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B321" workbookViewId="0">
-      <selection activeCell="C344" sqref="C344"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="B366" sqref="B366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4340,367 +4450,466 @@
         <v>429</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="280" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="B280" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="B280" s="14" t="s">
+      <c r="C280" s="20" t="s">
         <v>433</v>
-      </c>
-      <c r="C280" s="20" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="B282" t="s">
         <v>435</v>
       </c>
-      <c r="B282" t="s">
-        <v>436</v>
-      </c>
       <c r="C282" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="284" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="B284" s="27" t="s">
         <v>439</v>
       </c>
-      <c r="B284" s="27" t="s">
+      <c r="C284" s="26" t="s">
         <v>440</v>
-      </c>
-      <c r="C284" s="26" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A286" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="C286" s="6" t="s">
         <v>443</v>
-      </c>
-      <c r="C286" s="6" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="288" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A288" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="B288" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="B288" s="12" t="s">
+      <c r="C288" s="20" t="s">
         <v>446</v>
-      </c>
-      <c r="C288" s="20" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="290" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" s="42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B290" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="C290" s="24" t="s">
         <v>448</v>
-      </c>
-      <c r="C290" s="24" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="292" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="B292" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="B292" s="14" t="s">
+      <c r="C292" s="20" t="s">
         <v>451</v>
-      </c>
-      <c r="C292" s="20" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="40" t="s">
+        <v>452</v>
+      </c>
+      <c r="B294" t="s">
         <v>453</v>
       </c>
-      <c r="B294" t="s">
+      <c r="C294" s="6" t="s">
         <v>454</v>
-      </c>
-      <c r="C294" s="6" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="296" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A296" s="41" t="s">
+        <v>455</v>
+      </c>
+      <c r="B296" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="B296" s="12" t="s">
-        <v>457</v>
-      </c>
       <c r="C296" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="B298" t="s">
         <v>460</v>
       </c>
-      <c r="B298" t="s">
+      <c r="C298" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="C298" s="6" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="B300" t="s">
         <v>463</v>
       </c>
-      <c r="B300" t="s">
+      <c r="C300" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="C300" s="6" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="302" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="41" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="304" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="B304" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="B304" s="14" t="s">
+      <c r="C304" s="20" t="s">
         <v>472</v>
-      </c>
-      <c r="C304" s="20" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="306" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="B308" t="s">
         <v>477</v>
       </c>
-      <c r="B308" t="s">
-        <v>478</v>
-      </c>
       <c r="C308" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="40" t="s">
+        <v>480</v>
+      </c>
+      <c r="B310" t="s">
         <v>481</v>
       </c>
-      <c r="B310" t="s">
+      <c r="C310" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="C310" s="6" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="312" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B312" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="C312" s="20" t="s">
         <v>484</v>
-      </c>
-      <c r="B312" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="C312" s="20" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="314" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="42" t="s">
+        <v>485</v>
+      </c>
+      <c r="B314" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="B314" s="21" t="s">
+      <c r="C314" s="24" t="s">
         <v>487</v>
-      </c>
-      <c r="C314" s="24" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B316" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A318" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="320" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A320" s="41" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B320" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="C320" s="20" t="s">
         <v>497</v>
-      </c>
-      <c r="C320" s="20" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A322" s="40" t="s">
+        <v>498</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C322" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C322" s="6" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="324" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="44" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B324" s="21" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C324" s="24" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="326" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A326" s="41" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B326" s="12" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C326" s="20" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="328" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="45" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C328" s="20" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="43" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B330" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="332" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="47" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B332" s="21" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C332" s="24" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="43" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B334" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="46" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B336" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="338" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="44" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B338" s="21" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C338" s="24" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="43" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B340" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="43" t="s">
+        <v>535</v>
+      </c>
+      <c r="B342" t="s">
+        <v>536</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="44" t="s">
         <v>540</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B344" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="C342" s="6" t="s">
+      <c r="C344" s="24" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344" s="43" t="s">
+    <row r="346" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A346" s="41" t="s">
         <v>546</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B346" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="C344" s="6" t="s">
+      <c r="C346" s="20" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="B348" t="s">
         <v>549</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="45" t="s">
+        <v>552</v>
+      </c>
+      <c r="B350" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C350" s="20" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="45" t="s">
+        <v>556</v>
+      </c>
+      <c r="B352" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C352" s="20" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A354" s="41" t="s">
+        <v>560</v>
+      </c>
+      <c r="B354" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="C354" s="20" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="B356" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="C356" s="24" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="B358" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="C358" s="24" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" s="43" t="s">
+        <v>571</v>
+      </c>
+      <c r="B360" t="s">
+        <v>572</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="44" t="s">
+        <v>575</v>
+      </c>
+      <c r="B362" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="C362" s="24" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -4714,10 +4923,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.2"/>
@@ -4740,7 +4949,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="207" customHeight="1" x14ac:dyDescent="0.2">
@@ -4764,7 +4973,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>495</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="183" customHeight="1" x14ac:dyDescent="0.2">
@@ -4772,7 +4981,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -4780,10 +4989,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="336" customHeight="1" x14ac:dyDescent="0.2">
@@ -4791,7 +5000,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -4802,15 +5011,18 @@
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
@@ -4818,7 +5030,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>66</v>
       </c>
@@ -4826,15 +5038,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>87</v>
       </c>
@@ -4842,7 +5054,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>93</v>
       </c>
@@ -4850,7 +5062,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="155" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>106</v>
       </c>
@@ -4858,7 +5070,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="182" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="182" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>112</v>
       </c>
@@ -4871,7 +5083,7 @@
         <v>114</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="179" customHeight="1" x14ac:dyDescent="0.2">
@@ -4879,7 +5091,7 @@
         <v>124</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -4887,10 +5099,10 @@
         <v>126</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -4914,7 +5126,7 @@
         <v>164</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="183" customHeight="1" x14ac:dyDescent="0.2">
@@ -4922,7 +5134,7 @@
         <v>165</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="207" customHeight="1" x14ac:dyDescent="0.2">
@@ -4954,7 +5166,7 @@
         <v>222</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
@@ -4970,7 +5182,7 @@
         <v>227</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="210" customHeight="1" x14ac:dyDescent="0.2">
@@ -4986,7 +5198,7 @@
         <v>265</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
@@ -5026,7 +5238,7 @@
         <v>344</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="235" customHeight="1" x14ac:dyDescent="0.2">
@@ -5034,7 +5246,7 @@
         <v>362</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="234" customHeight="1" x14ac:dyDescent="0.2">
@@ -5042,7 +5254,7 @@
         <v>368</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="311" customHeight="1" x14ac:dyDescent="0.2">
@@ -5063,25 +5275,33 @@
     </row>
     <row r="82" spans="1:2" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B86" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="261" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>545</v>
       </c>
     </row>

--- a/刷题简单归类和方法.xlsx
+++ b/刷题简单归类和方法.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="460" windowWidth="23560" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="2040" yWindow="460" windowWidth="23560" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="617">
   <si>
     <t>179. Largest Number</t>
   </si>
@@ -1160,15 +1160,6 @@
   </si>
   <si>
     <t>Copy List with Random Pointer(http://www.lintcode.com/en/problem/copy-list-with-random-pointer/)
-Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/)
-Binary Tree Serialization(http://www.lintcode.com/en/problem/binary-tree-serialization/)
-Binary Tree Zigzag Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-zigzag-level-order-traversal/)
-Binary Tree Level Order Traversal II(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal-ii/)
-Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting)
 Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1689,10 +1680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Word Break II(https://leetcode.com/problems/word-break-ii/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LRU Cache</t>
   </si>
   <si>
@@ -1844,20 +1831,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Binary Tree Preorder Traversal(http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/)
-Validate Binary Search Tree(http://www.lintcode.com/en/problem/validate-binary-search-tree/)
-Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree)
-Binary Tree Inorder Traversal(http://www.lintcode.com/en/problem/binary-tree-inorder-traversal/)
-Min Stack(http://www.lintcode.com/en/problem/min-stack/)
-Implement Queue by Two Stacks(http://www.lintcode.com/en/problem/implement-queue-by-two-stacks/)
-Largest Rectangle in Histogram(http://www.lintcode.com/en/problem/largest-rectangle-in-histogram/)
-Valid Parenthese(https://leetcode.com/problems/valid-parentheses/description/)
-Simplify Path(https://leetcode.com/problems/simplify-path/description/)
-85. Maximal Rectangle(https://leetcode.com/problems/maximal-rectangle/description/)
-173. Binary Search Tree Iterator(https://leetcode.com/problems/binary-search-tree-iterator/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/binary-search-tree-iterator/description/</t>
   </si>
   <si>
@@ -1882,11 +1855,6 @@
   </si>
   <si>
     <t>85. Maximal Rectangle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Largest Rectangle in Histogram(http://www.lintcode.com/en/problem/largest-rectangle-in-histogram/)
-85. Maximal Rectangle(https://leetcode.com/problems/maximal-rectangle/description/)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1938,22 +1906,6 @@
     <t>117. Populating Next Right Pointers in Each Node II</t>
   </si>
   <si>
-    <t>Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/): levelorder
-Binary Tree Preorder Traversal(http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/): preorder
-Validate Binary Search Tree(http://www.lintcode.com/en/problem/validate-binary-search-tree/): inorder
-Construct Binary Tree from Preorder and Inorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-preorder-and-inorder-traversal/): Preoder, Inorder
-Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree): Inorder
-Binary Tree Serialization(http://www.lintcode.com/en/problem/binary-tree-serialization/): BST
-Binary Tree Inorder Traversal(http://www.lintcode.com/en/problem/binary-tree-inorder-traversal/): Inorder
-Construct Binary Tree from Inorder and Postorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-inorder-and-postorder-traversal/): Inorder, Postorder
-Binary Tree Zigzag Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-zigzag-level-order-traversal/): Levelorder
-Binary Tree Level Order Traversal II(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal-ii/): Levelorder
-173. Binary Search Tree Iterator: Inorder(https://leetcode.com/problems/binary-search-tree-iterator/description/): Inorder
-116. Populating Next Right Pointers in Each Node(https://leetcode.com/problems/populating-next-right-pointers-in-each-node/description/): Level Order
-117. Populating Next Right Pointers in Each Node II(https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/description/</t>
   </si>
   <si>
@@ -2078,15 +2030,6 @@
     <t>https://leetcode.com/problems/course-schedule-ii/description/</t>
   </si>
   <si>
-    <t>Anagrams(http://www.lintcode.com/en/problem/anagrams)
-Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting)
-Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)
-Longest Consecutive Sequence(http://www.lintcode.com/en/problem/longest-consecutive-sequence/)
-Roman to Integer(https://leetcode.com/problems/roman-to-integer/description/)
-166. Fraction to Recurring Decimal(https://leetcode.com/problems/fraction-to-recurring-decimal/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>215. Kth Largest Element in an Array</t>
   </si>
   <si>
@@ -2192,13 +2135,6 @@
   </si>
   <si>
     <t>1. Binary Search Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique Binary Search Trees(http://www.lintcode.com/en/problem/unique-binary-search-trees/): 选取不同值作为root计算数目
-Insert Node in a Binary Search Tree(http://www.lintcode.com/en/problem/insert-node-in-a-binary-search-tree/)
-Remove Node in Binary Search Tree(http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/)
-235. Lowest Common Ancestor of a Binary Search Tree(https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2279,11 +2215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>236. Lowest Common Ancestor of a Binary Tree(https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/)
-257. Binary Tree Paths(https://leetcode.com/problems/binary-tree-paths/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/binary-tree-paths/description/</t>
   </si>
   <si>
@@ -2336,15 +2267,6 @@
   </si>
   <si>
     <t>1. DP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91. Decode Ways(https://leetcode.com/problems/decodeways/description/)
-121. Best Time to Buy and Sell Stock(https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/)
-221. Maximal Square(https://leetcode.com/problems/maximal-square/description/)
-Maximal Square II(http://www.lintcode.com/en/problem/maximal-square-ii/)
-256. Paint House(https://leetcode.com/problems/paint-house/description/)
-265. Paint House II(https://leetcode.com/problems/paint-house-ii/description/)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2414,20 +2336,237 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://leetcode.com/problems/find-the-celebrity/description/</t>
+  </si>
+  <si>
+    <t>283. Move Zeroes</t>
+  </si>
+  <si>
+    <t>1. Two Pointer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/move-zeroes/description/</t>
+  </si>
+  <si>
+    <t>282. Expression Add Operators</t>
+  </si>
+  <si>
+    <t>1. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/expression-add-operators/description/</t>
+  </si>
+  <si>
+    <t>286. Walls and Gates</t>
+  </si>
+  <si>
+    <t>1. Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/walls-and-gates/description/</t>
+  </si>
+  <si>
+    <t>285. Inorder Successor in BST</t>
+  </si>
+  <si>
+    <t>1. Binary Search Tree
+2. Binary Tree Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/inorder-successor-in-bst/description/</t>
+  </si>
+  <si>
+    <t>285(2). Inorder Predecessor in BST</t>
+  </si>
+  <si>
+    <t>1. Binary Search Tree
+2. Binary Tree Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees(http://www.lintcode.com/en/problem/unique-binary-search-trees/): 选取不同值作为root计算数目
+Insert Node in a Binary Search Tree(http://www.lintcode.com/en/problem/insert-node-in-a-binary-search-tree/)
+Remove Node in Binary Search Tree(http://www.lintcode.com/en/problem/remove-node-in-binary-search-tree/)
+235. Lowest Common Ancestor of a Binary Search Tree(https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/)
+285. Inorder Successor in BST(https://leetcode.com/problems/inorder-successor-in-bst/description/)
+285(2). Inorder Predecessor in BST(): Inorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>297. Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>1. Binary Tree Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/serialize-and-deserialize-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>301. Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>236. Lowest Common Ancestor of a Binary Tree(https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/)
+257. Binary Tree Paths(https://leetcode.com/problems/binary-tree-paths/description/)
+282. Expression Add Operators(https://leetcode.com/problems/expression-add-operators/description/)
+286. Walls and Gates(https://leetcode.com/problems/walls-and-gates/description/)
+301. Remove Invalid Parentheses(https://leetcode.com/problems/remove-invalid-parentheses/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-invalid-parentheses/description/</t>
+  </si>
+  <si>
+    <t>311. Sparse Matrix Multiplication</t>
+  </si>
+  <si>
+    <t>1. Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sparse-matrix-multiplication/description/</t>
+  </si>
+  <si>
+    <t>314. Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>1. Binary Tree Traversal
+2. Queue
+3. Hash Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-vertical-order-traversal/description/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/): levelorder
+Binary Tree Preorder Traversal(http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/): preorder
+Validate Binary Search Tree(http://www.lintcode.com/en/problem/validate-binary-search-tree/): inorder
+Construct Binary Tree from Preorder and Inorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-preorder-and-inorder-traversal/): Preoder, Inorder
+Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree): Inorder
+Binary Tree Serialization(http://www.lintcode.com/en/problem/binary-tree-serialization/): BST
+Binary Tree Inorder Traversal(http://www.lintcode.com/en/problem/binary-tree-inorder-traversal/): Inorder
+Construct Binary Tree from Inorder and Postorder Traversal(http://www.lintcode.com/en/problem/construct-binary-tree-from-inorder-and-postorder-traversal/): Inorder, Postorder
+Binary Tree Zigzag Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-zigzag-level-order-traversal/): Levelorder
+Binary Tree Level Order Traversal II(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal-ii/): Levelorder
+173. Binary Search Tree Iterator: Inorder(https://leetcode.com/problems/binary-search-tree-iterator/description/): Inorder
+116. Populating Next Right Pointers in Each Node(https://leetcode.com/problems/populating-next-right-pointers-in-each-node/description/): Level Order
+117. Populating Next Right Pointers in Each Node II(https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/description/)
+285. Inorder Successor in BST(https://leetcode.com/problems/inorder-successor-in-bst/description/): Inorder
+285(2). Inorder Predecessor in BST(): Inorder
+297. Serialize and Deserialize Binary Tree(https://leetcode.com/problems/serialize-and-deserialize-binary-tree/description/): Level Order
+314. Binary Tree Vertical Order Traversal(https://leetcode.com/problems/binary-tree-vertical-order-traversal/description/): Vertical Order
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal/)
+Binary Tree Serialization(http://www.lintcode.com/en/problem/binary-tree-serialization/)
+Binary Tree Zigzag Level Order Traversal(http://www.lintcode.com/en/problem/binary-tree-zigzag-level-order-traversal/)
+Binary Tree Level Order Traversal II(http://www.lintcode.com/en/problem/binary-tree-level-order-traversal-ii/)
+Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting)
+Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)
+314. Binary Tree Vertical Order Traversal(https://leetcode.com/problems/binary-tree-vertical-order-traversal/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>325. Maximum Size Subarray Sum Equals k</t>
+  </si>
+  <si>
+    <t>1. Hashmap
+2. Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-size-subarray-sum-equals-k/description/</t>
+  </si>
+  <si>
+    <t>334. Increasing Triplet Subsequence</t>
+  </si>
+  <si>
+    <t>1. Array
+2. 单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram(http://www.lintcode.com/en/problem/largest-rectangle-in-histogram/)
+85. Maximal Rectangle(https://leetcode.com/problems/maximal-rectangle/description/)
+334. Increasing Triplet Subsequence(https://leetcode.com/problems/increasing-triplet-subsequence/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>274. H-Index(https://leetcode.com/problems/h-index/description/)
 275. H-Index II(https://leetcode.com/problems/h-index-ii/description/)
-277. Find the Celebrity(https://leetcode.com/problems/find-the-celebrity/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-the-celebrity/description/</t>
-  </si>
-  <si>
-    <t>283. Move Zeroes</t>
-  </si>
-  <si>
-    <t>1. Two Pointer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+277. Find the Celebrity(https://leetcode.com/problems/find-the-celebrity/description/)
+311. Sparse Matrix Multiplication(https://leetcode.com/problems/sparse-matrix-multiplication/description/)(https://leetcode.com/problems/maximum-size-subarray-sum-equals-k/description/)
+334. Increasing Triplet Subsequence(https://leetcode.com/problems/increasing-triplet-subsequence/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>341. Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>1. Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal(http://www.lintcode.com/en/problem/binary-tree-preorder-traversal/)
+Validate Binary Search Tree(http://www.lintcode.com/en/problem/validate-binary-search-tree/)
+Search Range in Binary Search Tree(http://www.lintcode.com/en/problem/search-range-in-binary-search-tree)
+Binary Tree Inorder Traversal(http://www.lintcode.com/en/problem/binary-tree-inorder-traversal/)
+Min Stack(http://www.lintcode.com/en/problem/min-stack/)
+Implement Queue by Two Stacks(http://www.lintcode.com/en/problem/implement-queue-by-two-stacks/)
+Largest Rectangle in Histogram(http://www.lintcode.com/en/problem/largest-rectangle-in-histogram/)
+Valid Parenthese(https://leetcode.com/problems/valid-parentheses/description/)
+Simplify Path(https://leetcode.com/problems/simplify-path/description/)
+85. Maximal Rectangle(https://leetcode.com/problems/maximal-rectangle/description/)
+173. Binary Search Tree Iterator(https://leetcode.com/problems/binary-search-tree-iterator/description/)
+341. Flatten Nested List Iterator(https://leetcode.com/problems/flatten-nested-list-iterator/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flatten-nested-list-iterator/description/</t>
+  </si>
+  <si>
+    <t>377. Combination Sum IV</t>
+  </si>
+  <si>
+    <t>1. 记忆化搜索
+2. DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum-iv/description/</t>
+  </si>
+  <si>
+    <t>Word Break II(https://leetcode.com/problems/word-break-ii/description/)
+377. Combination Sum IV(https://leetcode.com/problems/combination-sum-iv/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91. Decode Ways(https://leetcode.com/problems/decodeways/description/)
+121. Best Time to Buy and Sell Stock(https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/)
+221. Maximal Square(https://leetcode.com/problems/maximal-square/description/)
+Maximal Square II(http://www.lintcode.com/en/problem/maximal-square-ii/)
+256. Paint House(https://leetcode.com/problems/paint-house/description/)
+265. Paint House II(https://leetcode.com/problems/paint-house-ii/description/)
+377. Combination Sum IV(https://leetcode.com/problems/combination-sum-iv/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>380. Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>1. HashMap
+2. 随机算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-delete-getrandom-o1/description/</t>
   </si>
   <si>
     <t>strstr(http://www.lintcode.com/en/problem/strstr/)
@@ -2443,7 +2582,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://leetcode.com/problems/move-zeroes/description/</t>
+    <t>Anagrams(http://www.lintcode.com/en/problem/anagrams)
+Topological Sorting(http://www.lintcode.com/en/problem/topological-sorting)
+Clone Graph(http://www.lintcode.com/en/problem/clone-graph/)
+Longest Consecutive Sequence(http://www.lintcode.com/en/problem/longest-consecutive-sequence/)
+Roman to Integer(https://leetcode.com/problems/roman-to-integer/description/)
+166. Fraction to Recurring Decimal(https://leetcode.com/problems/fraction-to-recurring-decimal/description/)
+314. Binary Tree Vertical Order Traversal(https://leetcode.com/problems/binary-tree-vertical-order-traversal/description/)
+325. Maximum Size Subarray Sum Equals k(https://leetcode.com/problems/maximum-size-subarray-sum-equals-k/description/)
+380. Insert Delete GetRandom O(1)(https://leetcode.com/problems/insert-delete-getrandom-o1/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>380. Insert Delete GetRandom O(1)(https://leetcode.com/problems/insert-delete-getrandom-o1/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2931,10 +3087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C362"/>
+  <dimension ref="A1:C388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="B366" sqref="B366"/>
+    <sheetView topLeftCell="B375" workbookViewId="0">
+      <selection activeCell="C388" sqref="C388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3933,983 +4089,1122 @@
     </row>
     <row r="184" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="B184" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="B184" s="14" t="s">
+      <c r="C184" s="20" t="s">
         <v>284</v>
-      </c>
-      <c r="C184" s="20" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="B188" t="s">
         <v>291</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B190" t="s">
+        <v>291</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>294</v>
-      </c>
-      <c r="B190" t="s">
-        <v>292</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B192" t="s">
+        <v>291</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="B192" t="s">
-        <v>292</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="C194" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A198" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="200" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A200" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="B200" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="C200" s="24" t="s">
         <v>307</v>
-      </c>
-      <c r="B200" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="C200" s="24" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="202" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B202" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="B202" s="23" t="s">
+      <c r="C202" s="24" t="s">
         <v>310</v>
-      </c>
-      <c r="C202" s="24" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="204" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A204" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="B204" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="B204" s="23" t="s">
-        <v>313</v>
-      </c>
       <c r="C204" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="206" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="B206" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="B206" s="12" t="s">
+      <c r="C206" s="20" t="s">
         <v>318</v>
-      </c>
-      <c r="C206" s="20" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C208" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="210" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C210" s="20" t="s">
         <v>324</v>
-      </c>
-      <c r="B210" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="C210" s="20" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="214" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B214" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="B214" s="12" t="s">
+      <c r="C214" s="20" t="s">
         <v>330</v>
-      </c>
-      <c r="C214" s="20" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="216" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A216" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C216" s="20" t="s">
         <v>332</v>
-      </c>
-      <c r="B216" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C216" s="20" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="218" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="220" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C220" s="20" t="s">
         <v>335</v>
-      </c>
-      <c r="B220" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C220" s="20" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="222" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="B222" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="B222" s="14" t="s">
+      <c r="C222" s="20" t="s">
         <v>340</v>
-      </c>
-      <c r="C222" s="20" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="228" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="B228" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B228" s="14" t="s">
+      <c r="C228" s="20" t="s">
         <v>350</v>
-      </c>
-      <c r="C228" s="20" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="230" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="B230" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="B230" s="21" t="s">
+      <c r="C230" s="24" t="s">
         <v>353</v>
-      </c>
-      <c r="C230" s="24" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="232" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="B232" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="B232" s="12" t="s">
-        <v>356</v>
-      </c>
       <c r="C232" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="234" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A234" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="B234" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C234" s="20" t="s">
         <v>359</v>
-      </c>
-      <c r="B234" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="C234" s="20" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="236" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="B236" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="B236" s="14" t="s">
+      <c r="C236" s="20" t="s">
         <v>364</v>
-      </c>
-      <c r="C236" s="20" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="238" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="B238" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="B238" s="14" t="s">
-        <v>367</v>
-      </c>
       <c r="C238" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="240" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="B240" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C240" s="20" t="s">
         <v>370</v>
-      </c>
-      <c r="B240" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="C240" s="20" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="B242" t="s">
         <v>373</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="B244" t="s">
         <v>376</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B246" t="s">
         <v>379</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" s="6" t="s">
         <v>380</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="248" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="B248" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="B248" s="14" t="s">
+      <c r="C248" s="20" t="s">
         <v>383</v>
-      </c>
-      <c r="C248" s="20" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="C250" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="B252" t="s">
         <v>389</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="254" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="B254" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="B254" s="12" t="s">
+      <c r="C254" s="20" t="s">
         <v>393</v>
-      </c>
-      <c r="C254" s="20" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="256" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A256" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="B256" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B256" s="23" t="s">
-        <v>396</v>
-      </c>
       <c r="C256" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="B258" t="s">
         <v>399</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="B260" t="s">
         <v>402</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C262" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="B264" t="s">
+        <v>402</v>
+      </c>
+      <c r="C264" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="B264" t="s">
-        <v>403</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="266" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="B266" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="C266" s="24" t="s">
         <v>409</v>
-      </c>
-      <c r="B266" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="C266" s="24" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="268" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="B268" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="B268" s="12" t="s">
+      <c r="C268" s="20" t="s">
         <v>412</v>
-      </c>
-      <c r="C268" s="20" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="270" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A270" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="B270" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="C270" s="20" t="s">
         <v>416</v>
-      </c>
-      <c r="B270" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="C270" s="20" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="272" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A272" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="B272" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C272" s="20" t="s">
         <v>420</v>
-      </c>
-      <c r="B272" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="C272" s="20" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="274" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A274" s="41" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A276" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C276" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="B278" t="s">
+        <v>427</v>
+      </c>
+      <c r="C278" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="B278" t="s">
-        <v>429</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="280" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="B280" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="C280" s="20" t="s">
         <v>431</v>
-      </c>
-      <c r="B280" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="C280" s="20" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="40" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B282" t="s">
+        <v>433</v>
+      </c>
+      <c r="C282" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="284" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="B284" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="C284" s="26" t="s">
         <v>438</v>
-      </c>
-      <c r="B284" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="C284" s="26" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A286" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C286" s="6" t="s">
         <v>441</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C286" s="6" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="288" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A288" s="41" t="s">
+        <v>442</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C288" s="20" t="s">
         <v>444</v>
-      </c>
-      <c r="B288" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="C288" s="20" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="290" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" s="42" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B290" s="23" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C290" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="292" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="B292" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="C292" s="20" t="s">
         <v>449</v>
-      </c>
-      <c r="B292" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="C292" s="20" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="B294" t="s">
+        <v>451</v>
+      </c>
+      <c r="C294" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="B294" t="s">
-        <v>453</v>
-      </c>
-      <c r="C294" s="6" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="296" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A296" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="B296" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C296" s="20" t="s">
         <v>455</v>
-      </c>
-      <c r="B296" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="C296" s="20" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="40" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B298" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B300" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="302" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="41" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="304" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="41" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="306" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="41" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="40" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B308" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="40" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B310" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="312" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="41" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C312" s="20" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="314" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="42" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B314" s="21" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C314" s="24" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="40" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B316" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A318" s="40" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="320" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A320" s="41" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B320" s="12" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C320" s="20" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A322" s="40" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="324" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="44" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B324" s="21" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C324" s="24" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="326" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A326" s="41" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B326" s="12" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C326" s="20" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="328" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="45" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C328" s="20" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="43" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B330" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="332" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="47" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B332" s="21" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C332" s="24" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="43" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B334" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="46" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B336" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="338" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="44" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B338" s="21" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C338" s="24" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="43" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B340" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="43" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B342" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="344" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="44" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B344" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C344" s="24" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="346" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A346" s="41" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B346" s="12" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C346" s="20" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="43" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B348" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="350" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="45" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C350" s="20" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="352" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A352" s="45" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C352" s="20" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="354" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A354" s="41" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="C354" s="20" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
     </row>
     <row r="356" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="44" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B356" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C356" s="24" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="358" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="44" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="B358" s="21" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="C358" s="24" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="43" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="B360" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
     </row>
     <row r="362" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="B362" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="C362" s="24" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="B364" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="C364" s="20" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="45" t="s">
+        <v>571</v>
+      </c>
+      <c r="B366" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C366" s="20" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A368" s="41" t="s">
+        <v>574</v>
+      </c>
+      <c r="B368" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="B362" s="21" t="s">
+      <c r="C368" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="C362" s="24" t="s">
+    </row>
+    <row r="370" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A370" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="B370" s="12" t="s">
         <v>578</v>
+      </c>
+      <c r="C370" s="20"/>
+    </row>
+    <row r="372" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="41" t="s">
+        <v>580</v>
+      </c>
+      <c r="B372" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="C372" s="20" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="45" t="s">
+        <v>583</v>
+      </c>
+      <c r="B374" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C374" s="20" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" s="43" t="s">
+        <v>586</v>
+      </c>
+      <c r="B376" t="s">
+        <v>587</v>
+      </c>
+      <c r="C376" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" s="21" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A378" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="B378" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="C378" s="24" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A380" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C380" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A382" s="41" t="s">
+        <v>597</v>
+      </c>
+      <c r="B382" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="C382" s="20"/>
+    </row>
+    <row r="384" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="45" t="s">
+        <v>601</v>
+      </c>
+      <c r="B384" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C384" s="20" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A386" s="40" t="s">
+        <v>605</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C386" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A388" s="40" t="s">
+        <v>610</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C388" s="6" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -4923,17 +5218,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40" style="4" customWidth="1"/>
     <col min="2" max="2" width="133.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="122.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="167" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -4949,7 +5244,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="207" customHeight="1" x14ac:dyDescent="0.2">
@@ -4973,7 +5268,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="183" customHeight="1" x14ac:dyDescent="0.2">
@@ -4981,7 +5276,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>501</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -4989,10 +5284,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>558</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="336" customHeight="1" x14ac:dyDescent="0.2">
@@ -5000,7 +5295,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -5008,7 +5303,7 @@
         <v>42</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -5016,10 +5311,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -5043,7 +5338,7 @@
         <v>74</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -5083,15 +5378,16 @@
         <v>114</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>436</v>
-      </c>
-    </row>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:3" ht="179" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>526</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -5099,10 +5395,10 @@
         <v>126</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>542</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -5126,7 +5422,7 @@
         <v>164</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="183" customHeight="1" x14ac:dyDescent="0.2">
@@ -5134,7 +5430,7 @@
         <v>165</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="207" customHeight="1" x14ac:dyDescent="0.2">
@@ -5142,7 +5438,7 @@
         <v>197</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
@@ -5166,7 +5462,7 @@
         <v>222</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>474</v>
+        <v>592</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,15 +5470,15 @@
         <v>224</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>457</v>
+        <v>603</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="210" customHeight="1" x14ac:dyDescent="0.2">
@@ -5190,7 +5486,7 @@
         <v>259</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
@@ -5198,111 +5494,119 @@
         <v>265</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="179" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="226" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="260" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="235" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>466</v>
+        <v>599</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="311" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="261" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>545</v>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="157" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/刷题简单归类和方法.xlsx
+++ b/刷题简单归类和方法.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="460" windowWidth="23560" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2040" yWindow="460" windowWidth="23560" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="638">
   <si>
     <t>179. Largest Number</t>
   </si>
@@ -641,16 +641,6 @@
   </si>
   <si>
     <t>Single Number III</t>
-  </si>
-  <si>
-    <t>Flip Bits(http://www.lintcode.com/en/problem/flip-bits/): 获取每一位元素
-O(1) Check Power of 2(http://www.lintcode.com/en/problem/o1-check-power-of-2/): n &amp; (n - 1)的妙用
-Update Bits(http://www.lintcode.com/en/problem/update-bits/): 将特定位数清零后再置为特定值
-Binary Representation(http://www.lintcode.com/en/problem/binary-representation/): 整数和小数的换算，整数部分 / 2取余，从低位到高位；小数部分 * 2取余，从高位到低位
-Single Number(http://www.lintcode.com/en/problem/single-number/): 异或的应用
-Single Number II(http://www.lintcode.com/en/problem/single-number-ii/): 构造三进制
-Single Number III(http://www.lintcode.com/en/problem/single-number-iii/): diff &amp;= ~(diff - 1) 和 diff &amp;= (-diff)效果相同，找出该数字从右往左第一个1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.lintcode.com/en/problem/single-number-iii/</t>
@@ -2314,21 +2304,6 @@
     <t>https://leetcode.com/problems/h-index-ii/description/</t>
   </si>
   <si>
-    <t>Sqrt(x)(http://www.lintcode.com/en/problem/sqrtx)
-Search Insert Position(http://www.lintcode.com/en/problem/search-insert-position)
-Search a 2D Matrix(http://www.lintcode.com/en/problem/search-a-2d-matrix)
-First Position of Target(http://www.lintcode.com/en/problem/first-position-of-target)
-Find Peak Element(http://www.lintcode.com/en/problem/find-peak-element)
-Find Minimum in Rotated Sorted Array(http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array)
-First Bad Version(http://www.lintcode.com/en/problem/first-bad-version)
-Search for a Range(http://www.lintcode.com/en/problem/search-for-a-range/)
-Longest Increasing Subsequence(http://www.lintcode.com/en/problem/longest-increasing-subsequence/)
-Median of Two Sorted Arrays(https://leetcode.com/problems/median-of-two-sorted-arrays/description/)
-Find Peak Element(https://leetcode.com/problems/find-peak-element/description/)
-275. H-Index II(https://leetcode.com/problems/h-index-ii/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>277. Find the Celebrity</t>
   </si>
   <si>
@@ -2548,16 +2523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>91. Decode Ways(https://leetcode.com/problems/decodeways/description/)
-121. Best Time to Buy and Sell Stock(https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/)
-221. Maximal Square(https://leetcode.com/problems/maximal-square/description/)
-Maximal Square II(http://www.lintcode.com/en/problem/maximal-square-ii/)
-256. Paint House(https://leetcode.com/problems/paint-house/description/)
-265. Paint House II(https://leetcode.com/problems/paint-house-ii/description/)
-377. Combination Sum IV(https://leetcode.com/problems/combination-sum-iv/description/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>380. Insert Delete GetRandom O(1)</t>
   </si>
   <si>
@@ -2601,12 +2566,122 @@
     <t>380. Insert Delete GetRandom O(1)(https://leetcode.com/problems/insert-delete-getrandom-o1/description/)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>398. Random Pick Index</t>
+  </si>
+  <si>
+    <t>1. 蓄水池抽样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reservoir Sampling</t>
+  </si>
+  <si>
+    <t>398. Random Pick Index(https://leetcode.com/problems/random-pick-index/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/random-pick-index/description/</t>
+  </si>
+  <si>
+    <t>404. Sum of Left Leaves</t>
+  </si>
+  <si>
+    <t>1. Binary Tree Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-left-leaves/description/</t>
+  </si>
+  <si>
+    <t>404. Sum of Left Leaves(https://leetcode.com/problems/sum-of-left-leaves/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410. Split Array Largest Sum</t>
+  </si>
+  <si>
+    <t>1. Binary Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sqrt(x)(http://www.lintcode.com/en/problem/sqrtx)
+Search Insert Position(http://www.lintcode.com/en/problem/search-insert-position)
+Search a 2D Matrix(http://www.lintcode.com/en/problem/search-a-2d-matrix)
+First Position of Target(http://www.lintcode.com/en/problem/first-position-of-target)
+Find Peak Element(http://www.lintcode.com/en/problem/find-peak-element)
+Find Minimum in Rotated Sorted Array(http://www.lintcode.com/en/problem/find-minimum-in-rotated-sorted-array)
+First Bad Version(http://www.lintcode.com/en/problem/first-bad-version)
+Search for a Range(http://www.lintcode.com/en/problem/search-for-a-range/)
+Longest Increasing Subsequence(http://www.lintcode.com/en/problem/longest-increasing-subsequence/)
+Median of Two Sorted Arrays(https://leetcode.com/problems/median-of-two-sorted-arrays/description/)
+Find Peak Element(https://leetcode.com/problems/find-peak-element/description/)
+275. H-Index II(https://leetcode.com/problems/h-index-ii/description/)
+410. Split Array Largest Sum(https://leetcode.com/problems/split-array-largest-sum/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/split-array-largest-sum/description/</t>
+  </si>
+  <si>
+    <t>461. Hamming Distance</t>
+  </si>
+  <si>
+    <t>1. Bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/hamming-distance/description/</t>
+  </si>
+  <si>
+    <t>477. Total Hamming Distance</t>
+  </si>
+  <si>
+    <t>1. Bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flip Bits(http://www.lintcode.com/en/problem/flip-bits/): 获取每一位元素
+O(1) Check Power of 2(http://www.lintcode.com/en/problem/o1-check-power-of-2/): n &amp; (n - 1)的妙用
+Update Bits(http://www.lintcode.com/en/problem/update-bits/): 将特定位数清零后再置为特定值
+Binary Representation(http://www.lintcode.com/en/problem/binary-representation/): 整数和小数的换算，整数部分 / 2取余，从低位到高位；小数部分 * 2取余，从高位到低位
+Single Number(http://www.lintcode.com/en/problem/single-number/): 异或的应用
+Single Number II(http://www.lintcode.com/en/problem/single-number-ii/): 构造三进制
+Single Number III(http://www.lintcode.com/en/problem/single-number-iii/): diff &amp;= ~(diff - 1) 和 diff &amp;= (-diff)效果相同，找出该数字从右往左第一个1
+461. Hamming Distance(https://leetcode.com/problems/hamming-distance/description/)
+477. Total Hamming Distance(https://leetcode.com/problems/total-hamming-distance/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/total-hamming-distance/description/</t>
+  </si>
+  <si>
+    <t>494. Target Sum</t>
+  </si>
+  <si>
+    <t>1. DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91. Decode Ways(https://leetcode.com/problems/decodeways/description/)
+121. Best Time to Buy and Sell Stock(https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/)
+221. Maximal Square(https://leetcode.com/problems/maximal-square/description/)
+Maximal Square II(http://www.lintcode.com/en/problem/maximal-square-ii/)
+256. Paint House(https://leetcode.com/problems/paint-house/description/)
+265. Paint House II(https://leetcode.com/problems/paint-house-ii/description/)
+377. Combination Sum IV(https://leetcode.com/problems/combination-sum-iv/description/)
+494. Target Sum(https://leetcode.com/problems/target-sum/description/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/target-sum/description/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2650,6 +2725,11 @@
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2684,7 +2764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2809,6 +2889,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3087,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C388"/>
+  <dimension ref="A1:C400"/>
   <sheetViews>
-    <sheetView topLeftCell="B375" workbookViewId="0">
-      <selection activeCell="C388" sqref="C388"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="C400" sqref="C400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3646,12 +3729,12 @@
         <v>119</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B102" s="23" t="s">
         <v>137</v>
@@ -3660,1551 +3743,1617 @@
     </row>
     <row r="104" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B106" t="s">
         <v>167</v>
       </c>
-      <c r="B106" t="s">
-        <v>168</v>
-      </c>
       <c r="C106" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B110" t="s">
         <v>174</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C112" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="C114" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:3" s="27" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B118" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B118" s="12" t="s">
-        <v>189</v>
-      </c>
       <c r="C118" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="124" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C124" s="20" t="s">
         <v>199</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="130" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A130" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B130" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="C130" s="20" t="s">
         <v>206</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B132" t="s">
+        <v>184</v>
+      </c>
+      <c r="C132" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="B132" t="s">
-        <v>185</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="134" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A134" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C134" s="20" t="s">
         <v>210</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="C136" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="138" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C138" s="20" t="s">
         <v>215</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="142" spans="1:3" s="21" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A142" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B142" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="B142" s="23" t="s">
-        <v>221</v>
-      </c>
       <c r="C142" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="144" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B144" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="B144" s="23" t="s">
-        <v>226</v>
-      </c>
       <c r="C144" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="146" spans="1:3" s="21" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A146" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B146" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="B146" s="23" t="s">
+      <c r="C146" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="C146" s="24" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="148" spans="1:3" s="21" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A148" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C148" s="24" t="s">
         <v>232</v>
-      </c>
-      <c r="B148" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="C148" s="24" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:3" s="21" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A150" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B150" s="23" t="s">
         <v>235</v>
-      </c>
-      <c r="B150" s="23" t="s">
-        <v>236</v>
       </c>
       <c r="C150" s="24"/>
     </row>
     <row r="152" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B152" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="C152" s="20" t="s">
         <v>238</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B154" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="B154" s="12" t="s">
+      <c r="C154" s="20" t="s">
         <v>241</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A156" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A160" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B166" t="s">
         <v>257</v>
       </c>
-      <c r="B166" t="s">
-        <v>258</v>
-      </c>
       <c r="C166" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B168" t="s">
+        <v>257</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="B168" t="s">
-        <v>258</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="170" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A170" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B170" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B170" s="12" t="s">
-        <v>264</v>
-      </c>
       <c r="C170" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B172" t="s">
+        <v>257</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="B172" t="s">
-        <v>258</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="37" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B174" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C174" s="16" t="s">
         <v>270</v>
-      </c>
-      <c r="B174" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A180" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C180" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="182" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A182" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="B182" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="B182" s="12" t="s">
+      <c r="C182" s="20" t="s">
         <v>279</v>
-      </c>
-      <c r="C182" s="20" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="184" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="B184" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B184" s="14" t="s">
+      <c r="C184" s="20" t="s">
         <v>283</v>
-      </c>
-      <c r="C184" s="20" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B188" t="s">
         <v>290</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B190" t="s">
+        <v>290</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="B190" t="s">
-        <v>291</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B192" t="s">
+        <v>290</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="B192" t="s">
-        <v>291</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="C194" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A198" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="200" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A200" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B200" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="C200" s="24" t="s">
         <v>306</v>
-      </c>
-      <c r="B200" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="C200" s="24" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="202" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B202" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="B202" s="23" t="s">
+      <c r="C202" s="24" t="s">
         <v>309</v>
-      </c>
-      <c r="C202" s="24" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="204" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A204" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="B204" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="B204" s="23" t="s">
-        <v>312</v>
-      </c>
       <c r="C204" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="206" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="B206" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="B206" s="12" t="s">
+      <c r="C206" s="20" t="s">
         <v>317</v>
-      </c>
-      <c r="C206" s="20" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C208" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="210" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C210" s="20" t="s">
         <v>323</v>
-      </c>
-      <c r="B210" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="C210" s="20" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="214" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="B214" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="B214" s="12" t="s">
+      <c r="C214" s="20" t="s">
         <v>329</v>
-      </c>
-      <c r="C214" s="20" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="216" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A216" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C216" s="20" t="s">
         <v>331</v>
-      </c>
-      <c r="B216" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="C216" s="20" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="218" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="220" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C220" s="20" t="s">
         <v>334</v>
-      </c>
-      <c r="B220" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="C220" s="20" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="222" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="B222" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B222" s="14" t="s">
+      <c r="C222" s="20" t="s">
         <v>339</v>
-      </c>
-      <c r="C222" s="20" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="228" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B228" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="B228" s="14" t="s">
+      <c r="C228" s="20" t="s">
         <v>349</v>
-      </c>
-      <c r="C228" s="20" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="230" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="B230" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="B230" s="21" t="s">
+      <c r="C230" s="24" t="s">
         <v>352</v>
-      </c>
-      <c r="C230" s="24" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="232" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="B232" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="B232" s="12" t="s">
-        <v>355</v>
-      </c>
       <c r="C232" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="234" spans="1:3" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A234" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="B234" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C234" s="20" t="s">
         <v>358</v>
-      </c>
-      <c r="B234" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="C234" s="20" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="236" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B236" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="B236" s="14" t="s">
+      <c r="C236" s="20" t="s">
         <v>363</v>
-      </c>
-      <c r="C236" s="20" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="238" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B238" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="B238" s="14" t="s">
-        <v>366</v>
-      </c>
       <c r="C238" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="240" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="B240" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C240" s="20" t="s">
         <v>369</v>
-      </c>
-      <c r="B240" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="C240" s="20" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="B242" t="s">
         <v>372</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="B244" t="s">
         <v>375</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="B246" t="s">
         <v>378</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" s="6" t="s">
         <v>379</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="248" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="B248" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="B248" s="14" t="s">
+      <c r="C248" s="20" t="s">
         <v>382</v>
-      </c>
-      <c r="C248" s="20" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="C250" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="B252" t="s">
         <v>388</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="254" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="B254" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="B254" s="12" t="s">
+      <c r="C254" s="20" t="s">
         <v>392</v>
-      </c>
-      <c r="C254" s="20" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="256" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A256" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="B256" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="B256" s="23" t="s">
-        <v>395</v>
-      </c>
       <c r="C256" s="24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B258" t="s">
         <v>398</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="B260" t="s">
         <v>401</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" s="6" t="s">
         <v>402</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C262" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="B264" t="s">
+        <v>401</v>
+      </c>
+      <c r="C264" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="B264" t="s">
-        <v>402</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="266" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="B266" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="C266" s="24" t="s">
         <v>408</v>
-      </c>
-      <c r="B266" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="C266" s="24" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="268" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="B268" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="B268" s="12" t="s">
+      <c r="C268" s="20" t="s">
         <v>411</v>
-      </c>
-      <c r="C268" s="20" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="270" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A270" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B270" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="B270" s="12" t="s">
+      <c r="C270" s="20" t="s">
         <v>415</v>
-      </c>
-      <c r="C270" s="20" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="272" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A272" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="B272" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="B272" s="12" t="s">
+      <c r="C272" s="20" t="s">
         <v>419</v>
-      </c>
-      <c r="C272" s="20" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="274" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A274" s="41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A276" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="C276" s="6" t="s">
         <v>424</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="B278" t="s">
         <v>426</v>
       </c>
-      <c r="B278" t="s">
+      <c r="C278" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="280" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="B280" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="B280" s="14" t="s">
+      <c r="C280" s="20" t="s">
         <v>430</v>
-      </c>
-      <c r="C280" s="20" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="B282" t="s">
         <v>432</v>
       </c>
-      <c r="B282" t="s">
-        <v>433</v>
-      </c>
       <c r="C282" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="284" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="B284" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="B284" s="27" t="s">
+      <c r="C284" s="26" t="s">
         <v>437</v>
-      </c>
-      <c r="C284" s="26" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A286" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="C286" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="C286" s="6" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="288" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A288" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="B288" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="B288" s="12" t="s">
+      <c r="C288" s="20" t="s">
         <v>443</v>
-      </c>
-      <c r="C288" s="20" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="290" spans="1:3" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B290" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="C290" s="24" t="s">
         <v>445</v>
-      </c>
-      <c r="C290" s="24" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="292" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="B292" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="B292" s="14" t="s">
+      <c r="C292" s="20" t="s">
         <v>448</v>
-      </c>
-      <c r="C292" s="20" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="B294" t="s">
         <v>450</v>
       </c>
-      <c r="B294" t="s">
+      <c r="C294" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="C294" s="6" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="296" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A296" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="B296" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="B296" s="12" t="s">
+      <c r="C296" s="20" t="s">
         <v>454</v>
-      </c>
-      <c r="C296" s="20" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="B298" t="s">
         <v>456</v>
       </c>
-      <c r="B298" t="s">
+      <c r="C298" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="C298" s="6" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="B300" t="s">
         <v>459</v>
       </c>
-      <c r="B300" t="s">
+      <c r="C300" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="C300" s="6" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="302" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="41" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="304" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="41" t="s">
+        <v>465</v>
+      </c>
+      <c r="B304" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="B304" s="14" t="s">
+      <c r="C304" s="20" t="s">
         <v>467</v>
-      </c>
-      <c r="C304" s="20" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="306" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="B306" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="C306" s="20" t="s">
         <v>469</v>
-      </c>
-      <c r="B306" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="C306" s="20" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="B308" t="s">
         <v>471</v>
       </c>
-      <c r="B308" t="s">
-        <v>472</v>
-      </c>
       <c r="C308" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="B310" t="s">
         <v>475</v>
       </c>
-      <c r="B310" t="s">
+      <c r="C310" s="6" t="s">
         <v>476</v>
-      </c>
-      <c r="C310" s="6" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="312" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="B312" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="C312" s="20" t="s">
         <v>478</v>
-      </c>
-      <c r="B312" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="C312" s="20" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="314" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="42" t="s">
+        <v>479</v>
+      </c>
+      <c r="B314" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="B314" s="21" t="s">
+      <c r="C314" s="24" t="s">
         <v>481</v>
-      </c>
-      <c r="C314" s="24" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B316" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A318" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="320" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A320" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="B320" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="B320" s="12" t="s">
-        <v>490</v>
-      </c>
       <c r="C320" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A322" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="C322" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="C322" s="6" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="324" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="44" t="s">
+        <v>496</v>
+      </c>
+      <c r="B324" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="B324" s="21" t="s">
-        <v>498</v>
-      </c>
       <c r="C324" s="24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="326" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A326" s="41" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B326" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C326" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="328" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="45" t="s">
+        <v>504</v>
+      </c>
+      <c r="B328" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="B328" s="14" t="s">
+      <c r="C328" s="20" t="s">
         <v>506</v>
-      </c>
-      <c r="C328" s="20" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="B330" t="s">
         <v>508</v>
       </c>
-      <c r="B330" t="s">
+      <c r="C330" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="C330" s="6" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="332" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="B332" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="C332" s="24" t="s">
         <v>511</v>
-      </c>
-      <c r="B332" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="C332" s="24" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="43" t="s">
+        <v>512</v>
+      </c>
+      <c r="B334" t="s">
         <v>513</v>
       </c>
-      <c r="B334" t="s">
+      <c r="C334" s="6" t="s">
         <v>514</v>
-      </c>
-      <c r="C334" s="6" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="B336" t="s">
         <v>518</v>
       </c>
-      <c r="B336" t="s">
+      <c r="C336" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="C336" s="6" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="338" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="44" t="s">
+        <v>520</v>
+      </c>
+      <c r="B338" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="B338" s="21" t="s">
+      <c r="C338" s="24" t="s">
         <v>522</v>
-      </c>
-      <c r="C338" s="24" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="B340" t="s">
         <v>524</v>
       </c>
-      <c r="B340" t="s">
-        <v>525</v>
-      </c>
       <c r="C340" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="B342" t="s">
         <v>528</v>
       </c>
-      <c r="B342" t="s">
-        <v>529</v>
-      </c>
       <c r="C342" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="344" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B344" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="B344" s="21" t="s">
+      <c r="C344" s="24" t="s">
         <v>534</v>
-      </c>
-      <c r="C344" s="24" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="346" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A346" s="41" t="s">
+        <v>537</v>
+      </c>
+      <c r="B346" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="B346" s="12" t="s">
-        <v>539</v>
-      </c>
       <c r="C346" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="43" t="s">
+        <v>539</v>
+      </c>
+      <c r="B348" t="s">
         <v>540</v>
       </c>
-      <c r="B348" t="s">
+      <c r="C348" s="6" t="s">
         <v>541</v>
-      </c>
-      <c r="C348" s="6" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="350" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="B350" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="B350" s="14" t="s">
-        <v>545</v>
-      </c>
       <c r="C350" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="352" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A352" s="45" t="s">
+        <v>547</v>
+      </c>
+      <c r="B352" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="B352" s="14" t="s">
+      <c r="C352" s="20" t="s">
         <v>549</v>
-      </c>
-      <c r="C352" s="20" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="354" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A354" s="41" t="s">
+        <v>550</v>
+      </c>
+      <c r="B354" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="B354" s="12" t="s">
+      <c r="C354" s="20" t="s">
         <v>552</v>
-      </c>
-      <c r="C354" s="20" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="356" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="44" t="s">
+        <v>555</v>
+      </c>
+      <c r="B356" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="C356" s="24" t="s">
         <v>556</v>
-      </c>
-      <c r="B356" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="C356" s="24" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="358" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="44" t="s">
+        <v>557</v>
+      </c>
+      <c r="B358" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="B358" s="21" t="s">
+      <c r="C358" s="24" t="s">
         <v>559</v>
-      </c>
-      <c r="C358" s="24" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="43" t="s">
+        <v>560</v>
+      </c>
+      <c r="B360" t="s">
+        <v>561</v>
+      </c>
+      <c r="C360" s="6" t="s">
         <v>562</v>
-      </c>
-      <c r="B360" t="s">
-        <v>563</v>
-      </c>
-      <c r="C360" s="6" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="362" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="B362" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="C362" s="24" t="s">
         <v>565</v>
-      </c>
-      <c r="B362" s="21" t="s">
-        <v>566</v>
-      </c>
-      <c r="C362" s="24" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="364" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A364" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="B364" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="C364" s="20" t="s">
         <v>568</v>
-      </c>
-      <c r="B364" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C364" s="20" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="366" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A366" s="45" t="s">
+        <v>569</v>
+      </c>
+      <c r="B366" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="C366" s="20" t="s">
         <v>571</v>
-      </c>
-      <c r="B366" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="C366" s="20" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="368" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A368" s="41" t="s">
+        <v>572</v>
+      </c>
+      <c r="B368" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="C368" s="20" t="s">
         <v>574</v>
-      </c>
-      <c r="B368" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="C368" s="20" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="370" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A370" s="30" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B370" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C370" s="20"/>
     </row>
     <row r="372" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A372" s="41" t="s">
+        <v>578</v>
+      </c>
+      <c r="B372" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="C372" s="20" t="s">
         <v>580</v>
-      </c>
-      <c r="B372" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="C372" s="20" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="374" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A374" s="45" t="s">
+        <v>581</v>
+      </c>
+      <c r="B374" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="C374" s="20" t="s">
         <v>583</v>
-      </c>
-      <c r="B374" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="C374" s="20" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="43" t="s">
+        <v>584</v>
+      </c>
+      <c r="B376" t="s">
+        <v>585</v>
+      </c>
+      <c r="C376" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="B376" t="s">
-        <v>587</v>
-      </c>
-      <c r="C376" s="6" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="378" spans="1:3" s="21" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A378" s="42" t="s">
+        <v>587</v>
+      </c>
+      <c r="B378" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="C378" s="24" t="s">
         <v>589</v>
-      </c>
-      <c r="B378" s="23" t="s">
-        <v>590</v>
-      </c>
-      <c r="C378" s="24" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A380" s="40" t="s">
+        <v>592</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C380" s="6" t="s">
         <v>594</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C380" s="6" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="382" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A382" s="41" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B382" s="12" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C382" s="20"/>
     </row>
     <row r="384" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A384" s="45" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B384" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="C384" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="C384" s="20" t="s">
+    </row>
+    <row r="386" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A386" s="41" t="s">
+        <v>603</v>
+      </c>
+      <c r="B386" s="12" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A386" s="40" t="s">
+      <c r="C386" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="B386" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C386" s="6" t="s">
+    </row>
+    <row r="388" spans="1:3" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A388" s="41" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A388" s="40" t="s">
-        <v>610</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C388" s="6" t="s">
-        <v>612</v>
+      <c r="B388" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="C388" s="20" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="45" t="s">
+        <v>614</v>
+      </c>
+      <c r="B390" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="C390" s="20" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392" s="43" t="s">
+        <v>619</v>
+      </c>
+      <c r="B392" t="s">
+        <v>620</v>
+      </c>
+      <c r="C392" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="45" t="s">
+        <v>623</v>
+      </c>
+      <c r="B394" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="C394" s="20" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="B396" t="s">
+        <v>628</v>
+      </c>
+      <c r="C396" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="B398" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="C398" s="20" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A400" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="B400" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="C400" s="20" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -5218,10 +5367,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView showRuler="0" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.2"/>
@@ -5244,7 +5393,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="207" customHeight="1" x14ac:dyDescent="0.2">
@@ -5268,7 +5417,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="183" customHeight="1" x14ac:dyDescent="0.2">
@@ -5276,7 +5425,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -5284,10 +5433,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="336" customHeight="1" x14ac:dyDescent="0.2">
@@ -5295,7 +5444,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -5303,7 +5452,7 @@
         <v>42</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -5311,10 +5460,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -5338,7 +5487,7 @@
         <v>74</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>561</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -5346,7 +5495,7 @@
         <v>87</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="208" customHeight="1" x14ac:dyDescent="0.2">
@@ -5370,7 +5519,7 @@
         <v>112</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>159</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -5378,7 +5527,7 @@
         <v>114</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5387,7 +5536,7 @@
         <v>124</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -5395,10 +5544,10 @@
         <v>126</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -5406,7 +5555,7 @@
         <v>138</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.2">
@@ -5419,194 +5568,205 @@
     </row>
     <row r="44" spans="1:3" ht="309" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="206" customHeight="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="206" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="325" customHeight="1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="325" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="233" customHeight="1" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="179" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="226" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="260" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="235" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="311" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="261" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="157" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="186" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="48" t="s">
         <v>616</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
